--- a/kodovani/OE_all_kodovani.xlsx
+++ b/kodovani/OE_all_kodovani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annamatejkova/Desktop/projekt alkohol/Nepiti/kodovani/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klarakrejcarova/Desktop/Sociologie/2024:25/LS/Alkohol/Alkodata/Nepiti-projekt/Nepiti/kodovani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182060B-315A-434A-B4CD-7F0CE093BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB5DD35-E5A2-5444-9610-00B5ED4CF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OE all" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7109" uniqueCount="2187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="2188">
   <si>
     <t>napil jsem se</t>
   </si>
@@ -6608,6 +6608,9 @@
   </si>
   <si>
     <t xml:space="preserve">asi sloučit </t>
+  </si>
+  <si>
+    <t>absolutni centnosti</t>
   </si>
 </sst>
 </file>
@@ -6615,7 +6618,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -6820,7 +6823,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -22722,15 +22725,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D1039"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
@@ -22764,6 +22769,9 @@
         <v>42</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>2187</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -22879,7 +22887,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21773539</v>
       </c>
@@ -22887,7 +22895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21773544</v>
       </c>
@@ -22895,7 +22903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21774044</v>
       </c>
@@ -22903,7 +22911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21775089</v>
       </c>
@@ -22911,7 +22919,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21775712</v>
       </c>
@@ -22919,7 +22927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21775722</v>
       </c>
@@ -22927,7 +22935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21776763</v>
       </c>
@@ -22935,7 +22943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21777100</v>
       </c>
@@ -22943,7 +22951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21777936</v>
       </c>
@@ -22951,7 +22959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21777943</v>
       </c>
@@ -22959,7 +22967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21778130</v>
       </c>
@@ -22967,7 +22975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21780293</v>
       </c>
@@ -22975,7 +22983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21780791</v>
       </c>
@@ -22983,7 +22991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21780868</v>
       </c>
@@ -22991,7 +22999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>21781072</v>
       </c>
@@ -22999,7 +23007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>21781092</v>
       </c>
@@ -23007,7 +23015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>21781302</v>
       </c>
@@ -23015,7 +23023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>21781778</v>
       </c>
@@ -23023,7 +23031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>21781913</v>
       </c>
@@ -23031,7 +23039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>21781926</v>
       </c>
@@ -23039,7 +23047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>21782133</v>
       </c>
@@ -23047,7 +23055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>21782236</v>
       </c>
@@ -23055,7 +23063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>21782242</v>
       </c>
@@ -23063,7 +23071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>21782249</v>
       </c>
@@ -23071,7 +23079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>21782259</v>
       </c>
@@ -23079,7 +23087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21782269</v>
       </c>
@@ -23087,7 +23095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>21782272</v>
       </c>
@@ -23095,7 +23103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>21782278</v>
       </c>
@@ -23103,7 +23111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>21782304</v>
       </c>
@@ -23111,7 +23119,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>21782314</v>
       </c>
@@ -23119,7 +23127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>21782316</v>
       </c>
@@ -23127,7 +23135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>21782328</v>
       </c>
@@ -23135,7 +23143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>21782360</v>
       </c>
@@ -23143,7 +23151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>21782395</v>
       </c>
@@ -23151,7 +23159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21782401</v>
       </c>
@@ -23159,7 +23167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21782426</v>
       </c>
@@ -23167,7 +23175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>21782430</v>
       </c>
@@ -23175,7 +23183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>21782440</v>
       </c>
@@ -23183,7 +23191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>21782453</v>
       </c>
@@ -23191,7 +23199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>21782484</v>
       </c>
@@ -23199,7 +23207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>21782507</v>
       </c>
@@ -23207,7 +23215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>21782514</v>
       </c>
@@ -23215,7 +23223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>21782535</v>
       </c>
@@ -23223,7 +23231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>21782541</v>
       </c>
@@ -23231,7 +23239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>21782545</v>
       </c>
@@ -23239,7 +23247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>21782594</v>
       </c>
@@ -23247,7 +23255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>21782602</v>
       </c>
@@ -23255,7 +23263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>21782601</v>
       </c>
@@ -23263,7 +23271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>21782626</v>
       </c>
@@ -23271,7 +23279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>21782231</v>
       </c>
@@ -23279,7 +23287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>21782804</v>
       </c>
@@ -23287,7 +23295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>21782814</v>
       </c>
@@ -23295,7 +23303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>21782839</v>
       </c>
@@ -23303,7 +23311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>21782898</v>
       </c>
@@ -23311,7 +23319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>21782980</v>
       </c>
@@ -23319,7 +23327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>21783067</v>
       </c>
@@ -23327,7 +23335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>21783100</v>
       </c>
@@ -23335,7 +23343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>21783162</v>
       </c>
@@ -23343,7 +23351,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>21783220</v>
       </c>
@@ -23351,7 +23359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>21783249</v>
       </c>
@@ -23359,7 +23367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>21783304</v>
       </c>
@@ -23367,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>21783316</v>
       </c>
@@ -23375,7 +23383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>21783335</v>
       </c>
@@ -23383,7 +23391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21783424</v>
       </c>
@@ -23391,7 +23399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21783427</v>
       </c>
@@ -23399,7 +23407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21783766</v>
       </c>
@@ -23407,7 +23415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>21783825</v>
       </c>
@@ -23415,7 +23423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>21783856</v>
       </c>
@@ -23423,7 +23431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>21783874</v>
       </c>
@@ -23431,7 +23439,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>21783915</v>
       </c>
@@ -23439,7 +23447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>21783971</v>
       </c>
@@ -23447,7 +23455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>21784107</v>
       </c>
@@ -23455,7 +23463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>21785848</v>
       </c>
@@ -23463,7 +23471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>21785878</v>
       </c>
@@ -23471,7 +23479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>21786348</v>
       </c>
@@ -23479,7 +23487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>21786597</v>
       </c>
@@ -23487,7 +23495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>21786700</v>
       </c>
@@ -23495,7 +23503,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>21786950</v>
       </c>
@@ -23503,7 +23511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>21786952</v>
       </c>
@@ -23511,7 +23519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>21787092</v>
       </c>
@@ -23530,7 +23538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>21787706</v>
       </c>
@@ -23538,7 +23546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>21787725</v>
       </c>
@@ -23546,7 +23554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>21787727</v>
       </c>
@@ -23554,7 +23562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>21787738</v>
       </c>
@@ -23562,7 +23570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>21787776</v>
       </c>
@@ -23570,7 +23578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>21787785</v>
       </c>
@@ -23578,7 +23586,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>21787802</v>
       </c>
@@ -23586,7 +23594,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>21787811</v>
       </c>
@@ -23594,7 +23602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>21787866</v>
       </c>
@@ -23602,7 +23610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>21787867</v>
       </c>
@@ -23610,7 +23618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>21787928</v>
       </c>
@@ -23618,7 +23626,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>21787947</v>
       </c>
@@ -23626,7 +23634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>21787982</v>
       </c>
@@ -23634,7 +23642,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>21787992</v>
       </c>
@@ -23642,7 +23650,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>21788056</v>
       </c>
@@ -23650,7 +23658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>21788065</v>
       </c>
@@ -23658,7 +23666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>21788099</v>
       </c>
@@ -23666,7 +23674,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>21788129</v>
       </c>
@@ -23674,7 +23682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>21788214</v>
       </c>
@@ -23693,7 +23701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>21788321</v>
       </c>
@@ -23701,7 +23709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>21788324</v>
       </c>
@@ -23709,7 +23717,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>21788343</v>
       </c>
@@ -23717,7 +23725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>21788347</v>
       </c>
@@ -23725,7 +23733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>21788350</v>
       </c>
@@ -23733,7 +23741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>21788391</v>
       </c>
@@ -23741,7 +23749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>21788409</v>
       </c>
@@ -23749,7 +23757,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>21787877</v>
       </c>
@@ -23757,7 +23765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>21788446</v>
       </c>
@@ -23765,7 +23773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>21788462</v>
       </c>
@@ -23773,7 +23781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>21788553</v>
       </c>
@@ -23781,7 +23789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>21788603</v>
       </c>
@@ -23789,7 +23797,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>21788627</v>
       </c>
@@ -23797,7 +23805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>21788678</v>
       </c>
@@ -23805,7 +23813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>21788684</v>
       </c>
@@ -23813,7 +23821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>21788686</v>
       </c>
@@ -23821,7 +23829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>21788731</v>
       </c>
@@ -23829,7 +23837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>21788742</v>
       </c>
@@ -23837,7 +23845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>21788743</v>
       </c>
@@ -23845,7 +23853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>21788758</v>
       </c>
@@ -23853,7 +23861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>21788777</v>
       </c>
@@ -23861,7 +23869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>21788810</v>
       </c>
@@ -23869,7 +23877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>21788839</v>
       </c>
@@ -23877,7 +23885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>21788862</v>
       </c>
@@ -23885,7 +23893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21788863</v>
       </c>
@@ -23893,7 +23901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>21788965</v>
       </c>
@@ -23901,7 +23909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>21788974</v>
       </c>
@@ -23909,7 +23917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>21789000</v>
       </c>
@@ -23917,7 +23925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>21789019</v>
       </c>
@@ -23925,7 +23933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>21789036</v>
       </c>
@@ -23933,7 +23941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>21789164</v>
       </c>
@@ -23941,7 +23949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>21789170</v>
       </c>
@@ -23949,7 +23957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>21789209</v>
       </c>
@@ -23957,7 +23965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>21789272</v>
       </c>
@@ -23965,7 +23973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>21789311</v>
       </c>
@@ -23973,7 +23981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>21789387</v>
       </c>
@@ -23992,7 +24000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>21789424</v>
       </c>
@@ -24000,7 +24008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>21789431</v>
       </c>
@@ -24008,7 +24016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>21789437</v>
       </c>
@@ -24016,7 +24024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>21789458</v>
       </c>
@@ -24024,7 +24032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>21789484</v>
       </c>
@@ -24032,7 +24040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>21789541</v>
       </c>
@@ -24040,7 +24048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21789546</v>
       </c>
@@ -24048,7 +24056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>21789575</v>
       </c>
@@ -24056,7 +24064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>21789717</v>
       </c>
@@ -24064,7 +24072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>21789737</v>
       </c>
@@ -24072,7 +24080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>21789846</v>
       </c>
@@ -24080,7 +24088,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>21789855</v>
       </c>
@@ -24088,7 +24096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>21790761</v>
       </c>
@@ -24096,7 +24104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>21792078</v>
       </c>
@@ -24104,7 +24112,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>21792356</v>
       </c>
@@ -24112,7 +24120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>21788251</v>
       </c>
@@ -24120,7 +24128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>21792610</v>
       </c>
@@ -24128,7 +24136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>21792613</v>
       </c>
@@ -24136,7 +24144,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>21792617</v>
       </c>
@@ -24144,7 +24152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>21792623</v>
       </c>
@@ -24152,7 +24160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>21792627</v>
       </c>
@@ -24160,7 +24168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>21792643</v>
       </c>
@@ -24168,7 +24176,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>21792647</v>
       </c>
@@ -24176,7 +24184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>21792656</v>
       </c>
@@ -24195,7 +24203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>21792662</v>
       </c>
@@ -24203,7 +24211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>21792651</v>
       </c>
@@ -24211,7 +24219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>21792670</v>
       </c>
@@ -24219,7 +24227,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>21792672</v>
       </c>
@@ -24227,7 +24235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>21792675</v>
       </c>
@@ -24235,7 +24243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>21792679</v>
       </c>
@@ -24243,7 +24251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>21792681</v>
       </c>
@@ -24251,7 +24259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>21792684</v>
       </c>
@@ -24259,7 +24267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>21792686</v>
       </c>
@@ -24267,7 +24275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>21792714</v>
       </c>
@@ -24275,7 +24283,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>21792719</v>
       </c>
@@ -24283,7 +24291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>21792722</v>
       </c>
@@ -24291,7 +24299,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>21792723</v>
       </c>
@@ -24299,7 +24307,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>21792726</v>
       </c>
@@ -24307,7 +24315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>21792725</v>
       </c>
@@ -24315,7 +24323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>21792729</v>
       </c>
@@ -24323,7 +24331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>21792730</v>
       </c>
@@ -24331,7 +24339,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>21792734</v>
       </c>
@@ -24339,7 +24347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>21792740</v>
       </c>
@@ -24347,7 +24355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>21792743</v>
       </c>
@@ -24355,7 +24363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>21792745</v>
       </c>
@@ -24363,7 +24371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>21792742</v>
       </c>
@@ -24371,7 +24379,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>21792747</v>
       </c>
@@ -24379,7 +24387,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>21792753</v>
       </c>
@@ -24387,7 +24395,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>21792760</v>
       </c>
@@ -24395,7 +24403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>21792767</v>
       </c>
@@ -24403,7 +24411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>21792769</v>
       </c>
@@ -24411,7 +24419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>21792771</v>
       </c>
@@ -24419,7 +24427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>21792768</v>
       </c>
@@ -24427,7 +24435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>21792773</v>
       </c>
@@ -24435,7 +24443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>21792775</v>
       </c>
@@ -24443,7 +24451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>21792783</v>
       </c>
@@ -24451,7 +24459,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>21792790</v>
       </c>
@@ -24459,7 +24467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>21792798</v>
       </c>
@@ -24467,7 +24475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>21792813</v>
       </c>
@@ -24475,7 +24483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>21792821</v>
       </c>
@@ -24483,7 +24491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>21792823</v>
       </c>
@@ -24491,7 +24499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>21792825</v>
       </c>
@@ -24499,7 +24507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21792831</v>
       </c>
@@ -24507,7 +24515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>21792836</v>
       </c>
@@ -24515,7 +24523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>21792850</v>
       </c>
@@ -24523,7 +24531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>21792860</v>
       </c>
@@ -24531,7 +24539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>21792864</v>
       </c>
@@ -24539,7 +24547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>21792865</v>
       </c>
@@ -24547,7 +24555,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>21792868</v>
       </c>
@@ -24555,7 +24563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>21792878</v>
       </c>
@@ -24563,7 +24571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>21792897</v>
       </c>
@@ -24571,7 +24579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>21792900</v>
       </c>
@@ -24579,7 +24587,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>21792901</v>
       </c>
@@ -24587,7 +24595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>21792908</v>
       </c>
@@ -24595,7 +24603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>21792909</v>
       </c>
@@ -24603,7 +24611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>21792910</v>
       </c>
@@ -24611,7 +24619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>21792912</v>
       </c>
@@ -24619,7 +24627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>21792914</v>
       </c>
@@ -24627,7 +24635,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>21792924</v>
       </c>
@@ -24635,7 +24643,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>21792926</v>
       </c>
@@ -24643,7 +24651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>21792927</v>
       </c>
@@ -24651,7 +24659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>21792928</v>
       </c>
@@ -24659,7 +24667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>21792931</v>
       </c>
@@ -24667,7 +24675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>21792939</v>
       </c>
@@ -24675,7 +24683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>21792940</v>
       </c>
@@ -24683,7 +24691,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>21792941</v>
       </c>
@@ -24691,7 +24699,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>21792955</v>
       </c>
@@ -24699,7 +24707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>21792956</v>
       </c>
@@ -24718,7 +24726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>21792968</v>
       </c>
@@ -24726,7 +24734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>21792974</v>
       </c>
@@ -24734,7 +24742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>21792988</v>
       </c>
@@ -24742,7 +24750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>21792994</v>
       </c>
@@ -24750,7 +24758,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>21793012</v>
       </c>
@@ -24758,7 +24766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>21793022</v>
       </c>
@@ -24766,7 +24774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>21793030</v>
       </c>
@@ -24774,7 +24782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>21793047</v>
       </c>
@@ -24782,7 +24790,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>21793058</v>
       </c>
@@ -24790,7 +24798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>21793064</v>
       </c>
@@ -24798,7 +24806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>21793063</v>
       </c>
@@ -24806,7 +24814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>21793080</v>
       </c>
@@ -24814,7 +24822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>21793102</v>
       </c>
@@ -24822,7 +24830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>21793106</v>
       </c>
@@ -24830,7 +24838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>21793113</v>
       </c>
@@ -24838,7 +24846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>21793118</v>
       </c>
@@ -24846,7 +24854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>21793120</v>
       </c>
@@ -24854,7 +24862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>21793123</v>
       </c>
@@ -24862,7 +24870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>21793125</v>
       </c>
@@ -24870,7 +24878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>21793127</v>
       </c>
@@ -24878,7 +24886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>21793131</v>
       </c>
@@ -24886,7 +24894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>21793156</v>
       </c>
@@ -24894,7 +24902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>21793165</v>
       </c>
@@ -24902,7 +24910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>21793176</v>
       </c>
@@ -24910,7 +24918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>21793200</v>
       </c>
@@ -24918,7 +24926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>21793204</v>
       </c>
@@ -24926,7 +24934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>21793217</v>
       </c>
@@ -24934,7 +24942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>21793216</v>
       </c>
@@ -24942,7 +24950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>21793229</v>
       </c>
@@ -24950,7 +24958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>21793233</v>
       </c>
@@ -24958,7 +24966,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>21793253</v>
       </c>
@@ -24966,7 +24974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>21793266</v>
       </c>
@@ -24974,7 +24982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>21793272</v>
       </c>
@@ -24982,7 +24990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>21793306</v>
       </c>
@@ -24990,7 +24998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>21793315</v>
       </c>
@@ -24998,7 +25006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>21793318</v>
       </c>
@@ -25006,7 +25014,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>21793337</v>
       </c>
@@ -25014,7 +25022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>21793345</v>
       </c>
@@ -25022,7 +25030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>21793365</v>
       </c>
@@ -25030,7 +25038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>21793372</v>
       </c>
@@ -25038,7 +25046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>21793377</v>
       </c>
@@ -25046,7 +25054,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>21793383</v>
       </c>
@@ -25054,7 +25062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>21793393</v>
       </c>
@@ -25062,7 +25070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>21793403</v>
       </c>
@@ -25070,7 +25078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>21793422</v>
       </c>
@@ -25078,7 +25086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>21793437</v>
       </c>
@@ -25086,7 +25094,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>21793448</v>
       </c>
@@ -25094,7 +25102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>21793454</v>
       </c>
@@ -25102,7 +25110,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>21793465</v>
       </c>
@@ -25110,7 +25118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>21793468</v>
       </c>
@@ -25118,7 +25126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>21793478</v>
       </c>
@@ -25126,7 +25134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>21793487</v>
       </c>
@@ -25134,7 +25142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>21793512</v>
       </c>
@@ -25142,7 +25150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>21793522</v>
       </c>
@@ -25150,7 +25158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>21793528</v>
       </c>
@@ -25158,7 +25166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>21793531</v>
       </c>
@@ -25166,7 +25174,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>21793543</v>
       </c>
@@ -25174,7 +25182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>21793547</v>
       </c>
@@ -25193,7 +25201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>21793587</v>
       </c>
@@ -25201,7 +25209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>21793596</v>
       </c>
@@ -25209,7 +25217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>21793602</v>
       </c>
@@ -25217,7 +25225,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>21793613</v>
       </c>
@@ -25236,7 +25244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>21793618</v>
       </c>
@@ -25244,7 +25252,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>21793628</v>
       </c>
@@ -25252,7 +25260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>21793642</v>
       </c>
@@ -25260,7 +25268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>21793656</v>
       </c>
@@ -25268,7 +25276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>21793659</v>
       </c>
@@ -25276,7 +25284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>21793671</v>
       </c>
@@ -25284,7 +25292,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>21793687</v>
       </c>
@@ -25303,7 +25311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>21793691</v>
       </c>
@@ -25311,7 +25319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>21793739</v>
       </c>
@@ -25319,7 +25327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>21793743</v>
       </c>
@@ -25327,7 +25335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>21793746</v>
       </c>
@@ -25335,7 +25343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>21793757</v>
       </c>
@@ -25343,7 +25351,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>21793771</v>
       </c>
@@ -25351,7 +25359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>21793792</v>
       </c>
@@ -25359,7 +25367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>21793800</v>
       </c>
@@ -25367,7 +25375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>21793806</v>
       </c>
@@ -25375,7 +25383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>21793821</v>
       </c>
@@ -25383,7 +25391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>21793835</v>
       </c>
@@ -25391,7 +25399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>21793837</v>
       </c>
@@ -25399,7 +25407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>21793852</v>
       </c>
@@ -25407,7 +25415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>21793920</v>
       </c>
@@ -25415,7 +25423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>21793925</v>
       </c>
@@ -25423,7 +25431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>21793916</v>
       </c>
@@ -25431,7 +25439,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>21793941</v>
       </c>
@@ -25439,7 +25447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>21793952</v>
       </c>
@@ -25447,7 +25455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>21793951</v>
       </c>
@@ -25455,7 +25463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>21793955</v>
       </c>
@@ -25463,7 +25471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>21793962</v>
       </c>
@@ -25471,7 +25479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>21793964</v>
       </c>
@@ -25479,7 +25487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>21794005</v>
       </c>
@@ -25487,7 +25495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>21794015</v>
       </c>
@@ -25495,7 +25503,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>21794019</v>
       </c>
@@ -25503,7 +25511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>21794026</v>
       </c>
@@ -25511,7 +25519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>21794031</v>
       </c>
@@ -25519,7 +25527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>21794041</v>
       </c>
@@ -25527,7 +25535,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>21794045</v>
       </c>
@@ -25535,7 +25543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>21794051</v>
       </c>
@@ -25543,7 +25551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>21794032</v>
       </c>
@@ -25551,7 +25559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>21794099</v>
       </c>
@@ -25559,7 +25567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>21794105</v>
       </c>
@@ -25567,7 +25575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>21794111</v>
       </c>
@@ -25575,7 +25583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>21794112</v>
       </c>
@@ -25583,7 +25591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>21793827</v>
       </c>
@@ -25591,7 +25599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>21794125</v>
       </c>
@@ -25599,7 +25607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>21794132</v>
       </c>
@@ -25607,7 +25615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>21794134</v>
       </c>
@@ -25615,7 +25623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>21794139</v>
       </c>
@@ -25623,7 +25631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>21794161</v>
       </c>
@@ -25631,7 +25639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>21794166</v>
       </c>
@@ -25639,7 +25647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>21794199</v>
       </c>
@@ -25647,7 +25655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>21794203</v>
       </c>
@@ -25655,7 +25663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>21794205</v>
       </c>
@@ -25663,7 +25671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>21794207</v>
       </c>
@@ -25671,7 +25679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>21794211</v>
       </c>
@@ -25679,7 +25687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>21794215</v>
       </c>
@@ -25687,7 +25695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>21794217</v>
       </c>
@@ -25695,7 +25703,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>21794230</v>
       </c>
@@ -25703,7 +25711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>21794245</v>
       </c>
@@ -25711,7 +25719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>21794250</v>
       </c>
@@ -25719,7 +25727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>21794257</v>
       </c>
@@ -25727,7 +25735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>21794264</v>
       </c>
@@ -25735,7 +25743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>21794303</v>
       </c>
@@ -25743,7 +25751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>21794311</v>
       </c>
@@ -25751,7 +25759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>21794315</v>
       </c>
@@ -25759,7 +25767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>21794343</v>
       </c>
@@ -25767,7 +25775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>21794347</v>
       </c>
@@ -25775,7 +25783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>21794353</v>
       </c>
@@ -25783,7 +25791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>21794354</v>
       </c>
@@ -25791,7 +25799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>21794357</v>
       </c>
@@ -25799,7 +25807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>21794364</v>
       </c>
@@ -25807,7 +25815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>21794371</v>
       </c>
@@ -25815,7 +25823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>21794372</v>
       </c>
@@ -25823,7 +25831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>21794386</v>
       </c>
@@ -25831,7 +25839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>21794390</v>
       </c>
@@ -25839,7 +25847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>21794397</v>
       </c>
@@ -25847,7 +25855,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>21794407</v>
       </c>
@@ -25855,7 +25863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>21794431</v>
       </c>
@@ -25863,7 +25871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>21794451</v>
       </c>
@@ -25871,7 +25879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>21794454</v>
       </c>
@@ -25879,7 +25887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>21794466</v>
       </c>
@@ -25887,7 +25895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>21794474</v>
       </c>
@@ -25895,7 +25903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>21794487</v>
       </c>
@@ -25903,7 +25911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>21794500</v>
       </c>
@@ -25911,7 +25919,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>21794520</v>
       </c>
@@ -25919,7 +25927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>21794531</v>
       </c>
@@ -25927,7 +25935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>21794557</v>
       </c>
@@ -25935,7 +25943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>21794582</v>
       </c>
@@ -25943,7 +25951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>21794586</v>
       </c>
@@ -25951,7 +25959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>21794589</v>
       </c>
@@ -25959,7 +25967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>21794598</v>
       </c>
@@ -25967,7 +25975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>21794603</v>
       </c>
@@ -25975,7 +25983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>21794615</v>
       </c>
@@ -25983,7 +25991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>21794626</v>
       </c>
@@ -25991,7 +25999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>21794667</v>
       </c>
@@ -25999,7 +26007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>21794668</v>
       </c>
@@ -26007,7 +26015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>21794688</v>
       </c>
@@ -26015,7 +26023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>21794710</v>
       </c>
@@ -26023,7 +26031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>21794711</v>
       </c>
@@ -26031,7 +26039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>21794725</v>
       </c>
@@ -26039,7 +26047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>21794753</v>
       </c>
@@ -26047,7 +26055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>21794776</v>
       </c>
@@ -26055,7 +26063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>21794797</v>
       </c>
@@ -26063,7 +26071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>21794813</v>
       </c>
@@ -26071,7 +26079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>21794821</v>
       </c>
@@ -26079,7 +26087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>21794851</v>
       </c>
@@ -26087,7 +26095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>21794883</v>
       </c>
@@ -26095,7 +26103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>21794885</v>
       </c>
@@ -26103,7 +26111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>21794886</v>
       </c>
@@ -26111,7 +26119,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>21794889</v>
       </c>
@@ -26119,7 +26127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>21794894</v>
       </c>
@@ -26127,7 +26135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>21794902</v>
       </c>
@@ -26135,7 +26143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>21794909</v>
       </c>
@@ -26143,7 +26151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>21794921</v>
       </c>
@@ -26151,7 +26159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>21794927</v>
       </c>
@@ -26159,7 +26167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>21794017</v>
       </c>
@@ -26170,7 +26178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>21794953</v>
       </c>
@@ -26178,7 +26186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>21794955</v>
       </c>
@@ -26186,7 +26194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>21794963</v>
       </c>
@@ -26194,7 +26202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>21795020</v>
       </c>
@@ -26202,7 +26210,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>21795027</v>
       </c>
@@ -26210,7 +26218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>21795029</v>
       </c>
@@ -26218,7 +26226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>21795052</v>
       </c>
@@ -26226,7 +26234,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>21795079</v>
       </c>
@@ -26234,7 +26242,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>21795110</v>
       </c>
@@ -26242,7 +26250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>21795138</v>
       </c>
@@ -26250,7 +26258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>21795152</v>
       </c>
@@ -26258,7 +26266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>21795155</v>
       </c>
@@ -26266,7 +26274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>21795164</v>
       </c>
@@ -26274,7 +26282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>21795165</v>
       </c>
@@ -26282,7 +26290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>21795166</v>
       </c>
@@ -26290,7 +26298,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>21795162</v>
       </c>
@@ -26298,7 +26306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>21795174</v>
       </c>
@@ -26306,7 +26314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>21795180</v>
       </c>
@@ -26314,7 +26322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>21795200</v>
       </c>
@@ -26322,7 +26330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>21795244</v>
       </c>
@@ -26330,7 +26338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>21795246</v>
       </c>
@@ -26338,7 +26346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>21795248</v>
       </c>
@@ -26346,7 +26354,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>21795266</v>
       </c>
@@ -26354,7 +26362,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>21795257</v>
       </c>
@@ -26362,7 +26370,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>21795288</v>
       </c>
@@ -26370,7 +26378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>21793684</v>
       </c>
@@ -26378,7 +26386,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>21795329</v>
       </c>
@@ -26386,7 +26394,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>21795335</v>
       </c>
@@ -26394,7 +26402,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>21795339</v>
       </c>
@@ -26402,7 +26410,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>21795363</v>
       </c>
@@ -26410,7 +26418,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>21795372</v>
       </c>
@@ -26418,7 +26426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>21795379</v>
       </c>
@@ -26426,7 +26434,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>21795403</v>
       </c>
@@ -26434,7 +26442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>21795449</v>
       </c>
@@ -26442,7 +26450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>21795454</v>
       </c>
@@ -26450,7 +26458,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>21795458</v>
       </c>
@@ -26458,7 +26466,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>21795479</v>
       </c>
@@ -26466,7 +26474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>21795722</v>
       </c>
@@ -26474,7 +26482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>21796369</v>
       </c>
@@ -26482,7 +26490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>21796383</v>
       </c>
@@ -26490,7 +26498,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>21796412</v>
       </c>
@@ -26498,7 +26506,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>21796429</v>
       </c>
@@ -26506,7 +26514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>21796443</v>
       </c>
@@ -26514,7 +26522,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>21796663</v>
       </c>
@@ -26522,7 +26530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>21797089</v>
       </c>
@@ -26530,7 +26538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>21797293</v>
       </c>
@@ -26549,7 +26557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>21797282</v>
       </c>
@@ -26557,7 +26565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>21796414</v>
       </c>
@@ -26565,7 +26573,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>21797325</v>
       </c>
@@ -26573,7 +26581,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>21797886</v>
       </c>
@@ -26581,7 +26589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>21797921</v>
       </c>
@@ -26589,7 +26597,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>21797934</v>
       </c>
@@ -26597,7 +26605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>21797967</v>
       </c>
@@ -26605,7 +26613,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>21797972</v>
       </c>
@@ -26613,7 +26621,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>21797986</v>
       </c>
@@ -26621,7 +26629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>21798003</v>
       </c>
@@ -26629,7 +26637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>21798004</v>
       </c>
@@ -26637,7 +26645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>21798040</v>
       </c>
@@ -26645,7 +26653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>21798299</v>
       </c>
@@ -26653,7 +26661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>21798303</v>
       </c>
@@ -26661,7 +26669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>21798343</v>
       </c>
@@ -26669,7 +26677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>21798347</v>
       </c>
@@ -26677,7 +26685,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>21798348</v>
       </c>
@@ -26685,7 +26693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>21798351</v>
       </c>
@@ -26693,7 +26701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>21798604</v>
       </c>
@@ -26701,7 +26709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>21798611</v>
       </c>
@@ -26709,7 +26717,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>21798619</v>
       </c>
@@ -26717,7 +26725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>21798630</v>
       </c>
@@ -26736,7 +26744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>21798634</v>
       </c>
@@ -26744,7 +26752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>21798637</v>
       </c>
@@ -26752,7 +26760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>21798636</v>
       </c>
@@ -26760,7 +26768,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>21798638</v>
       </c>
@@ -26768,7 +26776,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>21798639</v>
       </c>
@@ -26776,7 +26784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>21798644</v>
       </c>
@@ -26784,7 +26792,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>21798646</v>
       </c>
@@ -26792,7 +26800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>21798647</v>
       </c>
@@ -26800,7 +26808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>21798650</v>
       </c>
@@ -26808,7 +26816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>21798655</v>
       </c>
@@ -26816,7 +26824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>21798658</v>
       </c>
@@ -26824,7 +26832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>21798660</v>
       </c>
@@ -26832,7 +26840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>21798662</v>
       </c>
@@ -26840,7 +26848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>21798663</v>
       </c>
@@ -26859,7 +26867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>21798668</v>
       </c>
@@ -26867,7 +26875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>21798671</v>
       </c>
@@ -26875,7 +26883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>21798685</v>
       </c>
@@ -26883,7 +26891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>21798686</v>
       </c>
@@ -26891,7 +26899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>21798687</v>
       </c>
@@ -26899,7 +26907,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>21798689</v>
       </c>
@@ -26907,7 +26915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>21798693</v>
       </c>
@@ -26915,7 +26923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>21798698</v>
       </c>
@@ -26923,7 +26931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>21798694</v>
       </c>
@@ -26931,7 +26939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>21798696</v>
       </c>
@@ -26939,7 +26947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>21798699</v>
       </c>
@@ -26947,7 +26955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>21798704</v>
       </c>
@@ -26955,7 +26963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>21798706</v>
       </c>
@@ -26963,7 +26971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>21798708</v>
       </c>
@@ -26971,7 +26979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>21798709</v>
       </c>
@@ -26979,7 +26987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>21798713</v>
       </c>
@@ -26987,7 +26995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>21798725</v>
       </c>
@@ -26995,7 +27003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>21798726</v>
       </c>
@@ -27003,7 +27011,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>21798728</v>
       </c>
@@ -27011,7 +27019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>21798730</v>
       </c>
@@ -27019,7 +27027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>21798732</v>
       </c>
@@ -27027,7 +27035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>21798733</v>
       </c>
@@ -27035,7 +27043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>21798735</v>
       </c>
@@ -27054,7 +27062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>21798739</v>
       </c>
@@ -27062,7 +27070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>21798743</v>
       </c>
@@ -27070,7 +27078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>21798746</v>
       </c>
@@ -27078,7 +27086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>21798747</v>
       </c>
@@ -27089,7 +27097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>21798749</v>
       </c>
@@ -27097,7 +27105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>21798754</v>
       </c>
@@ -27105,7 +27113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>21798757</v>
       </c>
@@ -27113,7 +27121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>21798759</v>
       </c>
@@ -27121,7 +27129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>21798748</v>
       </c>
@@ -27129,7 +27137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>21798760</v>
       </c>
@@ -27137,7 +27145,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>21798763</v>
       </c>
@@ -27156,7 +27164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>21798768</v>
       </c>
@@ -27164,7 +27172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>21798773</v>
       </c>
@@ -27172,7 +27180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>21798770</v>
       </c>
@@ -27180,7 +27188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>21798774</v>
       </c>
@@ -27188,7 +27196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>21798777</v>
       </c>
@@ -27196,7 +27204,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>21798779</v>
       </c>
@@ -27204,7 +27212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>21798790</v>
       </c>
@@ -27212,7 +27220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>21798789</v>
       </c>
@@ -27220,7 +27228,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>21798795</v>
       </c>
@@ -27228,7 +27236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>21798800</v>
       </c>
@@ -27236,7 +27244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>21798803</v>
       </c>
@@ -27244,7 +27252,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>21798813</v>
       </c>
@@ -27252,7 +27260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>21798817</v>
       </c>
@@ -27260,7 +27268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>21798827</v>
       </c>
@@ -27268,7 +27276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>21798831</v>
       </c>
@@ -27276,7 +27284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>21798835</v>
       </c>
@@ -27284,7 +27292,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>21798837</v>
       </c>
@@ -27292,7 +27300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>21798844</v>
       </c>
@@ -27300,7 +27308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>21798846</v>
       </c>
@@ -27308,7 +27316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>21798848</v>
       </c>
@@ -27316,7 +27324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>21798856</v>
       </c>
@@ -27324,7 +27332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>21798874</v>
       </c>
@@ -27332,7 +27340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>21798875</v>
       </c>
@@ -27340,7 +27348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>21798877</v>
       </c>
@@ -27348,7 +27356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>21798881</v>
       </c>
@@ -27356,7 +27364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>21798883</v>
       </c>
@@ -27364,7 +27372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>21798884</v>
       </c>
@@ -27372,7 +27380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>21798893</v>
       </c>
@@ -27380,7 +27388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>21798900</v>
       </c>
@@ -27388,7 +27396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>21798905</v>
       </c>
@@ -27396,7 +27404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>21798911</v>
       </c>
@@ -27404,7 +27412,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>21798913</v>
       </c>
@@ -27412,7 +27420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>21798922</v>
       </c>
@@ -27420,7 +27428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>21798927</v>
       </c>
@@ -27428,7 +27436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>21798933</v>
       </c>
@@ -27436,7 +27444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>21798936</v>
       </c>
@@ -27444,7 +27452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>21798938</v>
       </c>
@@ -27452,7 +27460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>21798962</v>
       </c>
@@ -27460,7 +27468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>21798965</v>
       </c>
@@ -27468,7 +27476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>21798968</v>
       </c>
@@ -27476,7 +27484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>21798974</v>
       </c>
@@ -27484,7 +27492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>21798976</v>
       </c>
@@ -27492,7 +27500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>21798979</v>
       </c>
@@ -27500,7 +27508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>21798995</v>
       </c>
@@ -27508,7 +27516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>21798996</v>
       </c>
@@ -27516,7 +27524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>21799003</v>
       </c>
@@ -27524,7 +27532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>21799007</v>
       </c>
@@ -27532,7 +27540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>21799020</v>
       </c>
@@ -27540,7 +27548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>21799045</v>
       </c>
@@ -27548,7 +27556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>21799046</v>
       </c>
@@ -27556,7 +27564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>21799043</v>
       </c>
@@ -27564,7 +27572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>21799057</v>
       </c>
@@ -27572,7 +27580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>21799059</v>
       </c>
@@ -27580,7 +27588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>21799070</v>
       </c>
@@ -27588,7 +27596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>21799075</v>
       </c>
@@ -27596,7 +27604,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>21799076</v>
       </c>
@@ -27607,7 +27615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>21799091</v>
       </c>
@@ -27615,7 +27623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>21799100</v>
       </c>
@@ -27623,7 +27631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>21799109</v>
       </c>
@@ -27631,7 +27639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>21799113</v>
       </c>
@@ -27639,7 +27647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>21799119</v>
       </c>
@@ -27647,7 +27655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>21799121</v>
       </c>
@@ -27655,7 +27663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>21799124</v>
       </c>
@@ -27663,7 +27671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>21799126</v>
       </c>
@@ -27671,7 +27679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>21799132</v>
       </c>
@@ -27690,7 +27698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>21799168</v>
       </c>
@@ -27698,7 +27706,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>21799177</v>
       </c>
@@ -27706,7 +27714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>21799180</v>
       </c>
@@ -27714,7 +27722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>21799184</v>
       </c>
@@ -27722,7 +27730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>21799205</v>
       </c>
@@ -27730,7 +27738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>21799225</v>
       </c>
@@ -27738,7 +27746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>21799233</v>
       </c>
@@ -27746,7 +27754,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>21799237</v>
       </c>
@@ -27754,7 +27762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>21799240</v>
       </c>
@@ -27762,7 +27770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>21799135</v>
       </c>
@@ -27770,7 +27778,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>21799238</v>
       </c>
@@ -27778,7 +27786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>21799272</v>
       </c>
@@ -27786,7 +27794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>21799277</v>
       </c>
@@ -27805,7 +27813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>21799289</v>
       </c>
@@ -27813,7 +27821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>21799283</v>
       </c>
@@ -27821,7 +27829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>21799300</v>
       </c>
@@ -27829,7 +27837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>21799305</v>
       </c>
@@ -27837,7 +27845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>21799312</v>
       </c>
@@ -27845,7 +27853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>21799314</v>
       </c>
@@ -27853,7 +27861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>21799316</v>
       </c>
@@ -27861,7 +27869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>21799410</v>
       </c>
@@ -27869,7 +27877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>21799411</v>
       </c>
@@ -27877,7 +27885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>21799657</v>
       </c>
@@ -27885,7 +27893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>21799939</v>
       </c>
@@ -27893,7 +27901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>21800171</v>
       </c>
@@ -27901,7 +27909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>21800662</v>
       </c>
@@ -27909,7 +27917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>21800917</v>
       </c>
@@ -27917,7 +27925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>21800922</v>
       </c>
@@ -27925,7 +27933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>21800926</v>
       </c>
@@ -27933,7 +27941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>21800920</v>
       </c>
@@ -27941,7 +27949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>21800934</v>
       </c>
@@ -27949,7 +27957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>21800938</v>
       </c>
@@ -27957,7 +27965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>21800982</v>
       </c>
@@ -27965,7 +27973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>21800984</v>
       </c>
@@ -27973,7 +27981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>21800985</v>
       </c>
@@ -27981,7 +27989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>21801027</v>
       </c>
@@ -27989,7 +27997,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>21801068</v>
       </c>
@@ -27997,7 +28005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>21801561</v>
       </c>
@@ -28005,7 +28013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>21801814</v>
       </c>
@@ -28013,7 +28021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>21802171</v>
       </c>
@@ -28032,7 +28040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>21802348</v>
       </c>
@@ -28040,7 +28048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>21802350</v>
       </c>
@@ -28048,7 +28056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>21802353</v>
       </c>
@@ -28056,7 +28064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>21802611</v>
       </c>
@@ -28064,7 +28072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>21802638</v>
       </c>
@@ -28072,7 +28080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>21802649</v>
       </c>
@@ -28080,7 +28088,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>21802651</v>
       </c>
@@ -28088,7 +28096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>21802658</v>
       </c>
@@ -28096,7 +28104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>21802659</v>
       </c>
@@ -28104,7 +28112,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>21802662</v>
       </c>
@@ -28112,7 +28120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>21802665</v>
       </c>
@@ -28120,7 +28128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>21802666</v>
       </c>
@@ -28128,7 +28136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>21802669</v>
       </c>
@@ -28136,7 +28144,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>21803025</v>
       </c>
@@ -28144,7 +28152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>21803494</v>
       </c>
@@ -28152,7 +28160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>21804247</v>
       </c>
@@ -28160,7 +28168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>21804343</v>
       </c>
@@ -28168,7 +28176,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>21804348</v>
       </c>
@@ -28176,7 +28184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>21804364</v>
       </c>
@@ -28184,7 +28192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>21804387</v>
       </c>
@@ -28192,7 +28200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>21804390</v>
       </c>
@@ -28200,7 +28208,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>21804391</v>
       </c>
@@ -28208,7 +28216,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>21804392</v>
       </c>
@@ -28216,7 +28224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>21804968</v>
       </c>
@@ -28224,7 +28232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>21805409</v>
       </c>
@@ -28232,7 +28240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>21805701</v>
       </c>
@@ -28240,7 +28248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>21805726</v>
       </c>
@@ -28248,7 +28256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>21805731</v>
       </c>
@@ -28256,7 +28264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>21805733</v>
       </c>
@@ -28264,7 +28272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>21805742</v>
       </c>
@@ -28272,7 +28280,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>21805757</v>
       </c>
@@ -28280,7 +28288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>21805776</v>
       </c>
@@ -28288,7 +28296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>21805788</v>
       </c>
@@ -28296,7 +28304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>21805789</v>
       </c>
@@ -28304,7 +28312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>21805792</v>
       </c>
@@ -28312,7 +28320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>21806347</v>
       </c>
@@ -28320,7 +28328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>21805412</v>
       </c>
@@ -28328,7 +28336,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>21806806</v>
       </c>
@@ -28336,7 +28344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>21807083</v>
       </c>
@@ -28344,7 +28352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>21807411</v>
       </c>
@@ -28352,7 +28360,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>21807414</v>
       </c>
@@ -28360,7 +28368,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>21807644</v>
       </c>
@@ -28368,7 +28376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>21807857</v>
       </c>
@@ -28376,7 +28384,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>21808165</v>
       </c>
@@ -28384,7 +28392,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>21808179</v>
       </c>
@@ -28392,7 +28400,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>21808500</v>
       </c>
@@ -28411,7 +28419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>21808755</v>
       </c>
@@ -28419,7 +28427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>21808983</v>
       </c>
@@ -28427,7 +28435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>21809359</v>
       </c>
@@ -28435,7 +28443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>21809360</v>
       </c>
@@ -28443,7 +28451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>21809366</v>
       </c>
@@ -28451,7 +28459,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>21809376</v>
       </c>
@@ -28459,7 +28467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>21809397</v>
       </c>
@@ -28467,7 +28475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>21809399</v>
       </c>
@@ -28475,7 +28483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>21809948</v>
       </c>
@@ -28483,7 +28491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>21810123</v>
       </c>
@@ -28491,7 +28499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>21810127</v>
       </c>
@@ -28499,7 +28507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>21810196</v>
       </c>
@@ -28507,7 +28515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>21810650</v>
       </c>
@@ -28515,7 +28523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>21810667</v>
       </c>
@@ -28523,7 +28531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>21810670</v>
       </c>
@@ -28531,7 +28539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>21810677</v>
       </c>
@@ -28550,7 +28558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>21810681</v>
       </c>
@@ -28558,7 +28566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>21810751</v>
       </c>
@@ -28566,7 +28574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>21810766</v>
       </c>
@@ -28574,7 +28582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>21810788</v>
       </c>
@@ -28582,7 +28590,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>21810861</v>
       </c>
@@ -28590,7 +28598,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>21810878</v>
       </c>
@@ -28598,7 +28606,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>21810905</v>
       </c>
@@ -28606,7 +28614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>21810906</v>
       </c>
@@ -28614,7 +28622,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>21810916</v>
       </c>
@@ -28622,7 +28630,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>21810946</v>
       </c>
@@ -28630,7 +28638,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>21811219</v>
       </c>
@@ -28638,7 +28646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>21811246</v>
       </c>
@@ -28646,7 +28654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>21811474</v>
       </c>
@@ -28654,7 +28662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>21812035</v>
       </c>
@@ -28662,7 +28670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>21814982</v>
       </c>
@@ -28670,7 +28678,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>21816033</v>
       </c>
@@ -28678,7 +28686,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>21816770</v>
       </c>
@@ -28686,7 +28694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>21816783</v>
       </c>
@@ -28694,7 +28702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>21816786</v>
       </c>
@@ -28702,7 +28710,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>21817040</v>
       </c>
@@ -28710,7 +28718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>21817041</v>
       </c>
@@ -28718,7 +28726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>21817067</v>
       </c>
@@ -28726,7 +28734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>21817069</v>
       </c>
@@ -28734,7 +28742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>21817312</v>
       </c>
@@ -28742,7 +28750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>21817792</v>
       </c>
@@ -28750,7 +28758,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>21818030</v>
       </c>
@@ -28758,7 +28766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>21819303</v>
       </c>
@@ -28766,7 +28774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>21820509</v>
       </c>
@@ -28774,7 +28782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>21821452</v>
       </c>
@@ -28782,7 +28790,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>21821461</v>
       </c>
@@ -28790,7 +28798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>21821970</v>
       </c>
@@ -28798,7 +28806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>21822225</v>
       </c>
@@ -28806,7 +28814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>21822238</v>
       </c>
@@ -28814,7 +28822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>21822543</v>
       </c>
@@ -28822,7 +28830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>21823756</v>
       </c>
@@ -28830,7 +28838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>21823781</v>
       </c>
@@ -28838,7 +28846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>21823798</v>
       </c>
@@ -28846,7 +28854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>21823818</v>
       </c>
@@ -28854,7 +28862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>21825330</v>
       </c>
@@ -28862,7 +28870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>21825345</v>
       </c>
@@ -28870,7 +28878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>21825358</v>
       </c>
@@ -28878,7 +28886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>21825389</v>
       </c>
@@ -28886,7 +28894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>21825397</v>
       </c>
@@ -28894,7 +28902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>21825406</v>
       </c>
@@ -28902,7 +28910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>21825423</v>
       </c>
@@ -28910,7 +28918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>21825430</v>
       </c>
@@ -28918,7 +28926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>21826945</v>
       </c>
@@ -28926,7 +28934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>21826956</v>
       </c>
@@ -28934,7 +28942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>21826962</v>
       </c>
@@ -28942,7 +28950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>21826991</v>
       </c>
@@ -28950,7 +28958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>21826992</v>
       </c>
@@ -28961,7 +28969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>21827004</v>
       </c>
@@ -28969,7 +28977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>21827013</v>
       </c>
@@ -28977,7 +28985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>21827808</v>
       </c>
@@ -28985,7 +28993,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>21828314</v>
       </c>
@@ -28993,7 +29001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>21828319</v>
       </c>
@@ -29001,7 +29009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>21828323</v>
       </c>
@@ -29009,7 +29017,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>21828328</v>
       </c>
@@ -29017,7 +29025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>21828339</v>
       </c>
@@ -29025,7 +29033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>21828345</v>
       </c>
@@ -29033,7 +29041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>21828348</v>
       </c>
@@ -29041,7 +29049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>21828360</v>
       </c>
@@ -29049,7 +29057,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>21829612</v>
       </c>
@@ -29057,7 +29065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>21830116</v>
       </c>
@@ -29065,7 +29073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>21830691</v>
       </c>
@@ -29073,7 +29081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>21830703</v>
       </c>
@@ -29081,7 +29089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>21830713</v>
       </c>
@@ -29089,7 +29097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>21832214</v>
       </c>
@@ -29097,7 +29105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>21832233</v>
       </c>
@@ -29105,7 +29113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>21832234</v>
       </c>
@@ -29113,7 +29121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>21832482</v>
       </c>
@@ -29121,7 +29129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>21832730</v>
       </c>
@@ -29129,7 +29137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>21832980</v>
       </c>
@@ -29137,7 +29145,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>21833233</v>
       </c>
@@ -29145,7 +29153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>21833286</v>
       </c>
@@ -29153,7 +29161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>21833356</v>
       </c>
@@ -29161,7 +29169,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>21834156</v>
       </c>
@@ -29169,7 +29177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>21834229</v>
       </c>
@@ -29177,7 +29185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>21834235</v>
       </c>
@@ -29185,7 +29193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>21834252</v>
       </c>
@@ -29193,7 +29201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>21834253</v>
       </c>
@@ -29201,7 +29209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>21834255</v>
       </c>
@@ -29209,7 +29217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>21834580</v>
       </c>
@@ -29217,7 +29225,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>21834588</v>
       </c>
@@ -29225,7 +29233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>21834707</v>
       </c>
@@ -29233,7 +29241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>21807645</v>
       </c>
@@ -29241,7 +29249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>21834779</v>
       </c>
@@ -29249,7 +29257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>21834796</v>
       </c>
@@ -29257,7 +29265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>21834808</v>
       </c>
@@ -29265,7 +29273,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>21834831</v>
       </c>
@@ -29273,7 +29281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>21834891</v>
       </c>
@@ -29281,7 +29289,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>21834907</v>
       </c>
@@ -29289,7 +29297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>21834996</v>
       </c>
@@ -29297,7 +29305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>21835006</v>
       </c>
@@ -29305,7 +29313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>21835021</v>
       </c>
@@ -29313,7 +29321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>21835063</v>
       </c>
@@ -29321,7 +29329,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>21835088</v>
       </c>
@@ -29329,7 +29337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>21835129</v>
       </c>
@@ -29337,7 +29345,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>21835157</v>
       </c>
@@ -29345,7 +29353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>21835160</v>
       </c>
@@ -29353,7 +29361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>21835182</v>
       </c>
@@ -29361,7 +29369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>21835210</v>
       </c>
@@ -29369,7 +29377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>21835248</v>
       </c>
@@ -29377,7 +29385,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>21835261</v>
       </c>
@@ -29385,7 +29393,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>21793808</v>
       </c>
@@ -29393,7 +29401,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>21835308</v>
       </c>
@@ -29401,7 +29409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>21835328</v>
       </c>
@@ -29409,7 +29417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>21835365</v>
       </c>
@@ -29417,7 +29425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>21835385</v>
       </c>
@@ -29425,7 +29433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>21835407</v>
       </c>
@@ -29433,7 +29441,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>21835418</v>
       </c>
@@ -29452,7 +29460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>21835439</v>
       </c>
@@ -29460,7 +29468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>21835515</v>
       </c>
@@ -29468,7 +29476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>21835528</v>
       </c>
@@ -29476,7 +29484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>21835556</v>
       </c>
@@ -29484,7 +29492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>21835583</v>
       </c>
@@ -29492,7 +29500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>21835604</v>
       </c>
@@ -29511,7 +29519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>21835669</v>
       </c>
@@ -29519,7 +29527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>21835714</v>
       </c>
@@ -29527,7 +29535,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>21835849</v>
       </c>
@@ -29535,7 +29543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>21835861</v>
       </c>
@@ -29543,7 +29551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>21835867</v>
       </c>
@@ -29551,7 +29559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>21835869</v>
       </c>
@@ -29559,7 +29567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>21835988</v>
       </c>
@@ -29567,7 +29575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>21836888</v>
       </c>
@@ -29575,7 +29583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>21836911</v>
       </c>
@@ -29583,7 +29591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>21836916</v>
       </c>
@@ -29591,7 +29599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>21836921</v>
       </c>
@@ -29599,7 +29607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>21836922</v>
       </c>
@@ -29607,7 +29615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>21837677</v>
       </c>
@@ -29615,7 +29623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>21838126</v>
       </c>
@@ -29623,7 +29631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>21838181</v>
       </c>
@@ -29631,7 +29639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>21838552</v>
       </c>
@@ -29639,7 +29647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>21838562</v>
       </c>
@@ -29647,7 +29655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>21838598</v>
       </c>
@@ -29655,7 +29663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>21838722</v>
       </c>
@@ -29663,7 +29671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>21838728</v>
       </c>
@@ -29671,7 +29679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>21838749</v>
       </c>
@@ -29679,7 +29687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>21838753</v>
       </c>
@@ -29687,7 +29695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>21838773</v>
       </c>
@@ -29695,7 +29703,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>21838778</v>
       </c>
@@ -29703,7 +29711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>21838792</v>
       </c>
@@ -29711,7 +29719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>21838907</v>
       </c>
@@ -29719,7 +29727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>21838959</v>
       </c>
@@ -29727,7 +29735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>21838971</v>
       </c>
@@ -29735,7 +29743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>21839001</v>
       </c>
@@ -29743,7 +29751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>21839098</v>
       </c>
@@ -29751,7 +29759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>21839099</v>
       </c>
@@ -29759,7 +29767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>21839268</v>
       </c>
@@ -29767,7 +29775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>21839285</v>
       </c>
@@ -29775,7 +29783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>21839313</v>
       </c>
@@ -29783,7 +29791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>21839320</v>
       </c>
@@ -29791,7 +29799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>21839431</v>
       </c>
@@ -29799,7 +29807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>21839444</v>
       </c>
@@ -29807,7 +29815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>21839447</v>
       </c>
@@ -29815,7 +29823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>21839452</v>
       </c>
@@ -29823,7 +29831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>21839469</v>
       </c>
@@ -29831,7 +29839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>21839456</v>
       </c>
@@ -29839,7 +29847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>21839482</v>
       </c>
@@ -29847,7 +29855,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>21839490</v>
       </c>
@@ -29855,7 +29863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>21839798</v>
       </c>
@@ -29863,7 +29871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>21840400</v>
       </c>
@@ -29871,7 +29879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>21840651</v>
       </c>
@@ -29879,7 +29887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>21841028</v>
       </c>
@@ -29887,7 +29895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>21841174</v>
       </c>
@@ -29895,7 +29903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>21841181</v>
       </c>
@@ -29903,7 +29911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>21841751</v>
       </c>
@@ -29911,7 +29919,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>21842156</v>
       </c>
@@ -29919,7 +29927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>21835824</v>
       </c>
@@ -29927,7 +29935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>21842833</v>
       </c>
@@ -29935,7 +29943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>21844699</v>
       </c>
@@ -29943,7 +29951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>21844831</v>
       </c>
@@ -29951,7 +29959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>21846083</v>
       </c>
@@ -29959,7 +29967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>21846518</v>
       </c>
@@ -29967,7 +29975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>21846548</v>
       </c>
@@ -29975,7 +29983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>21846576</v>
       </c>
@@ -29983,7 +29991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>21846979</v>
       </c>
@@ -29991,7 +29999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>21846980</v>
       </c>
@@ -29999,7 +30007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>21846987</v>
       </c>
@@ -30007,7 +30015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>21846997</v>
       </c>
@@ -30026,7 +30034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>21847006</v>
       </c>
@@ -30034,7 +30042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>21847040</v>
       </c>
@@ -30042,7 +30050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>21847054</v>
       </c>
@@ -30050,7 +30058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>21847085</v>
       </c>
@@ -30058,7 +30066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>21847088</v>
       </c>
@@ -30066,7 +30074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>21847220</v>
       </c>
@@ -30074,7 +30082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>21847238</v>
       </c>
@@ -30082,7 +30090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>21847295</v>
       </c>
@@ -30090,7 +30098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>21847344</v>
       </c>
@@ -30098,7 +30106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>21847457</v>
       </c>
@@ -30106,7 +30114,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>21847527</v>
       </c>
@@ -30114,7 +30122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>21847587</v>
       </c>
@@ -30122,7 +30130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>21847610</v>
       </c>
@@ -30130,7 +30138,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>21847646</v>
       </c>
@@ -30138,7 +30146,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>21847645</v>
       </c>
@@ -30146,7 +30154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>21847651</v>
       </c>
@@ -30154,7 +30162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>21847671</v>
       </c>
@@ -30162,7 +30170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>21847674</v>
       </c>
@@ -30170,7 +30178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>21847676</v>
       </c>
@@ -30200,7 +30208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>21847823</v>
       </c>
@@ -30208,7 +30216,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>21847879</v>
       </c>
@@ -30216,7 +30224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>21847883</v>
       </c>
@@ -30224,7 +30232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>21847886</v>
       </c>
@@ -30232,7 +30240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>21847898</v>
       </c>
@@ -30240,7 +30248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>21847915</v>
       </c>
@@ -30248,7 +30256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>21847970</v>
       </c>
@@ -30256,7 +30264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>21847989</v>
       </c>
@@ -30264,7 +30272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>21847993</v>
       </c>
@@ -30272,7 +30280,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>21839801</v>
       </c>
@@ -30280,7 +30288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>21848022</v>
       </c>
@@ -30294,7 +30302,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>21848053</v>
       </c>
@@ -30302,7 +30310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>21848102</v>
       </c>
@@ -30310,7 +30318,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>21848132</v>
       </c>
@@ -30318,7 +30326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>21848150</v>
       </c>
@@ -30326,7 +30334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>21848157</v>
       </c>
@@ -30334,7 +30342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>21848294</v>
       </c>
@@ -30353,7 +30361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>21848428</v>
       </c>
@@ -30361,7 +30369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>21848828</v>
       </c>
@@ -30369,7 +30377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>21848865</v>
       </c>
@@ -30377,7 +30385,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>21849030</v>
       </c>
@@ -30396,7 +30404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>21849095</v>
       </c>
@@ -30404,7 +30412,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>21849113</v>
       </c>
@@ -30412,7 +30420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>21849145</v>
       </c>
@@ -30420,7 +30428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>21849195</v>
       </c>
@@ -30428,7 +30436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>21849727</v>
       </c>
@@ -30436,7 +30444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>21850047</v>
       </c>
@@ -30444,7 +30452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>21850069</v>
       </c>
@@ -30452,7 +30460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>21850083</v>
       </c>
@@ -30460,7 +30468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>21850166</v>
       </c>
@@ -30468,7 +30476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>21850189</v>
       </c>
@@ -30476,7 +30484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>21850196</v>
       </c>
@@ -30484,7 +30492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>21850279</v>
       </c>
@@ -30492,7 +30500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>21850318</v>
       </c>
@@ -30500,7 +30508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>21850323</v>
       </c>
@@ -30508,7 +30516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>21850327</v>
       </c>
@@ -30516,7 +30524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>21850380</v>
       </c>
@@ -30524,7 +30532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>21850482</v>
       </c>
@@ -30532,7 +30540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>21850507</v>
       </c>
@@ -30540,7 +30548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>21850902</v>
       </c>
@@ -30548,7 +30556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>21850917</v>
       </c>
@@ -30556,7 +30564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>21851018</v>
       </c>
@@ -30564,7 +30572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>21851140</v>
       </c>
@@ -30572,7 +30580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>21851228</v>
       </c>
@@ -30580,7 +30588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>21851289</v>
       </c>
@@ -30588,7 +30596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>21851552</v>
       </c>
@@ -30596,7 +30604,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>21851564</v>
       </c>
@@ -30604,7 +30612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>21851583</v>
       </c>
@@ -30612,7 +30620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>21851613</v>
       </c>
@@ -30620,7 +30628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>21851655</v>
       </c>
@@ -30628,7 +30636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>21851698</v>
       </c>
@@ -30636,7 +30644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>21852228</v>
       </c>
@@ -30644,7 +30652,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>21852267</v>
       </c>
@@ -30652,7 +30660,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>21852275</v>
       </c>
@@ -30660,7 +30668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>21852649</v>
       </c>
@@ -30668,7 +30676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>21852671</v>
       </c>
@@ -30676,7 +30684,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>21853466</v>
       </c>
@@ -30684,7 +30692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>21854074</v>
       </c>
@@ -30692,7 +30700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>21854111</v>
       </c>
@@ -30700,7 +30708,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>21854289</v>
       </c>
@@ -30708,7 +30716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>21854523</v>
       </c>
@@ -30716,7 +30724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>21858604</v>
       </c>
@@ -30724,7 +30732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>21865275</v>
       </c>
@@ -30732,7 +30740,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>21866489</v>
       </c>
@@ -30740,7 +30748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>21866637</v>
       </c>
@@ -30748,7 +30756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>21867759</v>
       </c>
@@ -30756,7 +30764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>21868102</v>
       </c>
@@ -30775,7 +30783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>21868361</v>
       </c>
@@ -30783,7 +30791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>21869040</v>
       </c>
@@ -30791,7 +30799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>21869473</v>
       </c>
@@ -30799,7 +30807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>21869567</v>
       </c>
@@ -30807,7 +30815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>21869936</v>
       </c>
@@ -30815,7 +30823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>21869996</v>
       </c>
@@ -30823,7 +30831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>21871330</v>
       </c>
@@ -30831,7 +30839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>21871342</v>
       </c>
@@ -30839,7 +30847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>21871757</v>
       </c>
@@ -30861,7 +30869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>21871856</v>
       </c>
@@ -30869,7 +30877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>21872004</v>
       </c>
@@ -30877,7 +30885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>21872035</v>
       </c>
@@ -30885,7 +30893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>21872245</v>
       </c>
@@ -30893,7 +30901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>21872422</v>
       </c>
@@ -30901,7 +30909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>21872543</v>
       </c>
@@ -30909,7 +30917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>21872626</v>
       </c>
@@ -30917,7 +30925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>21872724</v>
       </c>
@@ -30925,7 +30933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>21872752</v>
       </c>
@@ -30933,7 +30941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>21872771</v>
       </c>
@@ -30941,7 +30949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>21872854</v>
       </c>
@@ -30949,7 +30957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>21872863</v>
       </c>
@@ -30957,7 +30965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>21877466</v>
       </c>
@@ -30965,7 +30973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>21877474</v>
       </c>
@@ -30973,7 +30981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>21877503</v>
       </c>
@@ -30981,7 +30989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>21877506</v>
       </c>
@@ -30989,7 +30997,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>21877521</v>
       </c>
@@ -30997,7 +31005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>21877529</v>
       </c>
@@ -31005,7 +31013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>21879286</v>
       </c>
@@ -31013,7 +31021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>21879739</v>
       </c>
@@ -31021,7 +31029,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>21879860</v>
       </c>
@@ -31029,7 +31037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>21880515</v>
       </c>
@@ -31037,7 +31045,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>21882742</v>
       </c>
@@ -31045,7 +31053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>21882975</v>
       </c>
@@ -31053,7 +31061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>21883169</v>
       </c>
@@ -31061,7 +31069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>21884153</v>
       </c>
@@ -31069,7 +31077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>21884417</v>
       </c>
@@ -31077,7 +31085,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>21884425</v>
       </c>
@@ -31085,7 +31093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>21884432</v>
       </c>
@@ -31104,7 +31112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>21884449</v>
       </c>
@@ -31112,7 +31120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>21886227</v>
       </c>
@@ -31120,7 +31128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>21887881</v>
       </c>
@@ -31128,7 +31136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>21887882</v>
       </c>
@@ -31136,7 +31144,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>21887924</v>
       </c>
@@ -31144,7 +31152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>21887939</v>
       </c>
@@ -31152,7 +31160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>21887944</v>
       </c>
@@ -31161,7 +31169,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B17:C1039" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B17:C1039" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32364,7 +32382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD39995-85B0-3D49-B092-303D496D14F0}">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView topLeftCell="C108" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -40850,8 +40868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4EC9DB-D090-2C48-B636-FF480015E50F}">
   <dimension ref="A1:I1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40904,11 +40922,11 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>COUNTIF($G$2:$G$1023,B3)</f>
+        <f t="shared" ref="C3:C13" si="0">COUNTIF($G$2:$G$1023,B3)</f>
         <v>189</v>
       </c>
       <c r="D3" s="27">
-        <f>(C3/$C$16)*100</f>
+        <f t="shared" ref="D3:D12" si="1">(C3/$C$16)*100</f>
         <v>64.50511945392492</v>
       </c>
       <c r="F3">
@@ -40932,11 +40950,11 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>COUNTIF($G$2:$G$1023,B4)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D4" s="27">
-        <f>(C4/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>17.064846416382252</v>
       </c>
       <c r="F4">
@@ -40957,11 +40975,11 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>COUNTIF($G$2:$G$1023,B5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" s="27">
-        <f>(C5/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>1.3651877133105803</v>
       </c>
       <c r="F5">
@@ -40982,11 +41000,11 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>COUNTIF($G$2:$G$1023,B6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D6" s="27">
-        <f>(C6/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>2.0477815699658701</v>
       </c>
       <c r="F6">
@@ -41007,11 +41025,11 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>COUNTIF($G$2:$G$1023,B7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D7" s="27">
-        <f>(C7/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>3.4129692832764507</v>
       </c>
       <c r="F7">
@@ -41035,11 +41053,11 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>COUNTIF($G$2:$G$1023,B8)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="27">
-        <f>(C8/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>1.3651877133105803</v>
       </c>
       <c r="F8">
@@ -41063,11 +41081,11 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>COUNTIF($G$2:$G$1023,B9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="27">
-        <f>(C9/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>1.7064846416382253</v>
       </c>
       <c r="F9">
@@ -41088,11 +41106,11 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>COUNTIF($G$2:$G$1023,B10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D10" s="27">
-        <f>(C10/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>1.3651877133105803</v>
       </c>
       <c r="F10">
@@ -41113,11 +41131,11 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>COUNTIF($G$2:$G$1023,B11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D11" s="27">
-        <f>(C11/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>1.7064846416382253</v>
       </c>
       <c r="F11">
@@ -41138,11 +41156,11 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>COUNTIF($G$2:$G$1023,B12)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D12" s="27">
-        <f>(C12/$C$16)*100</f>
+        <f t="shared" si="1"/>
         <v>5.4607508532423212</v>
       </c>
       <c r="F12">
@@ -41166,7 +41184,7 @@
         <v>99</v>
       </c>
       <c r="C13">
-        <f>COUNTIF($G$2:$G$1023,B13)</f>
+        <f t="shared" si="0"/>
         <v>729</v>
       </c>
       <c r="F13">
@@ -41322,7 +41340,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C25" si="0">COUNTIF($H$2:$H$1023,B22)</f>
+        <f t="shared" ref="C22:C25" si="2">COUNTIF($H$2:$H$1023,B22)</f>
         <v>50</v>
       </c>
       <c r="D22" s="27">
@@ -41347,7 +41365,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D23" s="27">
@@ -41375,7 +41393,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D24" s="27">
@@ -41400,7 +41418,7 @@
         <v>99</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>729</v>
       </c>
       <c r="D25" s="27">

--- a/kodovani/OE_all_kodovani.xlsx
+++ b/kodovani/OE_all_kodovani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klarakrejcarova/Desktop/Sociologie/2024:25/LS/Alkohol/Alkodata/Nepiti-projekt/Nepiti/kodovani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0C58B5-9314-FE4D-9CFB-403F1D203E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2A0F9-7A80-AA44-8AAA-E21FBE29C9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OE all" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tQ57_0_0!$B$17:$C$1039</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tQ60_0_0!$A$16:$C$1038</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">tQ62_0_0!$A$23:$C$1045</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tQ64_0_0!$J$17:$M$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tQ64_0_0!$J$21:$N$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">tQ78_0_1!$A$44:$E$967</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TQ78_1_1_NEW!$A$50:$K$1072</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7299" uniqueCount="2221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="2222">
   <si>
     <t>napil jsem se</t>
   </si>
@@ -6442,12 +6442,6 @@
     <t xml:space="preserve">Abstinuji spontánně/neplnánovaně </t>
   </si>
   <si>
-    <t xml:space="preserve">O abstinenci obecně </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spokojenost s pitím </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pochybnosti o schopnosti abstinovat </t>
   </si>
   <si>
@@ -6463,12 +6457,6 @@
     <t xml:space="preserve">Asi zvyk s pitím? </t>
   </si>
   <si>
-    <t xml:space="preserve">?? Dík za nic </t>
-  </si>
-  <si>
-    <t>Pár odpovědí ještě zbývá, nevím, co s nimi</t>
-  </si>
-  <si>
     <t>Komentář</t>
   </si>
   <si>
@@ -6713,6 +6701,21 @@
   </si>
   <si>
     <t>procento y true values</t>
+  </si>
+  <si>
+    <t>Missing values</t>
+  </si>
+  <si>
+    <t>True values</t>
+  </si>
+  <si>
+    <t>Celkem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spokojenost s konzumací </t>
+  </si>
+  <si>
+    <t>Nepociťuji důvod / nenapadlo mě to</t>
   </si>
 </sst>
 </file>
@@ -6893,7 +6896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6934,8 +6937,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -34753,12 +34755,12 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="B5">
         <v>98</v>
@@ -34770,7 +34772,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="B6">
         <v>99</v>
@@ -34830,7 +34832,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="C12" s="25">
         <f>SUM(C5:C10)</f>
@@ -34839,7 +34841,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="C13" s="25">
         <f>C5+C6</f>
@@ -34867,7 +34869,7 @@
         <v>2115</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -42282,7 +42284,7 @@
         <v>99</v>
       </c>
       <c r="D933" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -43179,18 +43181,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="B2">
         <v>98</v>
@@ -43206,7 +43208,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="B3">
         <v>99</v>
@@ -43216,12 +43218,12 @@
         <v>908</v>
       </c>
       <c r="D3" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -43237,7 +43239,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -43253,7 +43255,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -43269,7 +43271,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -43301,7 +43303,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -43317,7 +43319,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C9)</f>
@@ -43326,7 +43328,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="C12">
         <f>C11-C3</f>
@@ -43341,7 +43343,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -51968,7 +51970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150A1025-9D78-434A-B647-90191F233FF0}">
   <dimension ref="A1:D1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -51982,7 +51984,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -51991,15 +51993,15 @@
         <v>2061</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="B3" s="3">
         <v>98</v>
@@ -52011,7 +52013,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="B4" s="3">
         <v>99</v>
@@ -52023,7 +52025,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -52031,141 +52033,141 @@
         <v>62</v>
       </c>
       <c r="D5" s="26">
-        <f>C5*100/$C$21</f>
+        <f t="shared" ref="D5:D14" si="0">C5*100/$C$21</f>
         <v>58.490566037735846</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <f>COUNTIF($C$24:$C$1045,B6)</f>
+        <f t="shared" ref="C6:C13" si="1">COUNTIF($C$24:$C$1045,B6)</f>
         <v>10</v>
       </c>
-      <c r="D6" s="31">
-        <f>C6*100/$C$21</f>
+      <c r="D6" s="25">
+        <f t="shared" si="0"/>
         <v>9.433962264150944</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <f>COUNTIF($C$24:$C$1045,B7)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D7" s="31">
-        <f>C7*100/$C$21</f>
+      <c r="D7" s="25">
+        <f t="shared" si="0"/>
         <v>16.037735849056602</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <f>COUNTIF($C$24:$C$1045,B8)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D8" s="31">
-        <f>C8*100/$C$21</f>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
         <v>13.20754716981132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <f>COUNTIF($C$24:$C$1045,B9)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="31">
-        <f>C9*100/$C$21</f>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
         <v>12.264150943396226</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10">
-        <f>COUNTIF($C$24:$C$1045,B10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D10" s="31">
-        <f>C10*100/$C$21</f>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
         <v>7.5471698113207548</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <f>COUNTIF($C$24:$C$1045,B11)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D11" s="26">
-        <f>C11*100/$C$21</f>
+        <f t="shared" si="0"/>
         <v>11.320754716981131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="3">
-        <f>COUNTIF($C$24:$C$1045,B12)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D12" s="26">
-        <f>C12*100/$C$21</f>
+        <f t="shared" si="0"/>
         <v>14.150943396226415</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="3">
-        <f>COUNTIF($C$24:$C$1045,B13)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D13" s="26">
-        <f>C13*100/$C$21</f>
+        <f t="shared" si="0"/>
         <v>1.8867924528301887</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
@@ -52173,13 +52175,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="26">
-        <f>C14*100/$C$21</f>
+        <f t="shared" si="0"/>
         <v>9.433962264150944</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>2218</v>
+      <c r="A15" t="s">
+        <v>2214</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -52190,8 +52192,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>2215</v>
+      <c r="A16" t="s">
+        <v>2211</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -52203,7 +52205,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
@@ -52232,7 +52234,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="C20">
         <f>C3+C4</f>
@@ -60886,8 +60888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD39995-85B0-3D49-B092-303D496D14F0}">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60897,7 +60899,7 @@
     <col min="11" max="11" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>2106</v>
       </c>
@@ -60905,22 +60907,23 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2121</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2122</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
@@ -60931,7 +60934,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -60943,7 +60946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2107</v>
       </c>
@@ -60958,7 +60961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2109</v>
       </c>
@@ -60967,16 +60970,24 @@
       </c>
       <c r="D6">
         <f>COUNTIF(L22:L324,B6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <f>SUM(D4:D6)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2110</v>
       </c>
@@ -60991,8 +61002,9 @@
         <f>COUNTIF(M22:M322,B10)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2111</v>
       </c>
@@ -61001,14 +61013,15 @@
       </c>
       <c r="D11">
         <f>COUNTIF(L22:L328,B11)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f>COUNTIF(M22:M322,B11)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2112</v>
       </c>
@@ -61020,14 +61033,15 @@
       </c>
       <c r="D12">
         <f>COUNTIF(L22:L329,B12)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <f>COUNTIF(M22:M322,B12)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2114</v>
       </c>
@@ -61042,8 +61056,9 @@
         <f>COUNTIF(M22:M322,B13)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2126</v>
       </c>
@@ -61061,8 +61076,9 @@
         <f>COUNTIF(M22:M322,B14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2128</v>
       </c>
@@ -61077,8 +61093,9 @@
         <f>COUNTIF(M22:M322,B15)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2129</v>
       </c>
@@ -61090,32 +61107,34 @@
       </c>
       <c r="D16">
         <f>COUNTIF(L22:L333,B16)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <f>COUNTIF(M22:M322,B16)</f>
         <v>1</v>
       </c>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2130</v>
+        <v>2221</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="D17">
         <f>COUNTIF(L22:L333,B17)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f>COUNTIF(M22:M322,B17)</f>
         <v>0</v>
       </c>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2131</v>
+        <v>2220</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -61128,10 +61147,11 @@
         <f>COUNTIF(M22:M322,B18)</f>
         <v>0</v>
       </c>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -61144,10 +61164,11 @@
         <f>COUNTIF(M22:M322,B19)</f>
         <v>0</v>
       </c>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -61160,8 +61181,17 @@
         <f>COUNTIF(M22:M322,B20)</f>
         <v>0</v>
       </c>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(D4:D6, D10:D20)</f>
+        <v>300</v>
+      </c>
+      <c r="F21" s="26"/>
       <c r="J21" s="1" t="s">
         <v>43</v>
       </c>
@@ -61175,18 +61205,25 @@
         <v>2116</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f>SUM(D4:D6, D10:D20)</f>
-        <v>295</v>
-      </c>
-      <c r="E22">
+      <c r="A22" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f>D21-D8</f>
+        <v>204</v>
+      </c>
+      <c r="E22" s="3">
         <f>SUM(E10:E20)</f>
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="3"/>
       <c r="J22">
         <v>21775089</v>
       </c>
@@ -61212,10 +61249,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>2138</v>
-      </c>
-      <c r="C24" s="9"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="J24">
         <v>21781302</v>
       </c>
@@ -61496,7 +61531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J49">
         <v>21786700</v>
       </c>
@@ -61507,7 +61542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J50">
         <v>21787727</v>
       </c>
@@ -61518,7 +61553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J51">
         <v>21787776</v>
       </c>
@@ -61529,7 +61564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J52">
         <v>21787802</v>
       </c>
@@ -61540,7 +61575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J53">
         <v>21787811</v>
       </c>
@@ -61551,7 +61586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J54">
         <v>21787928</v>
       </c>
@@ -61562,7 +61597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J55">
         <v>21788129</v>
       </c>
@@ -61570,10 +61605,10 @@
         <v>295</v>
       </c>
       <c r="L55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J56">
         <v>21788343</v>
       </c>
@@ -61584,18 +61619,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J57">
         <v>21788350</v>
       </c>
       <c r="K57" t="s">
         <v>314</v>
       </c>
-      <c r="N57" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J58">
         <v>21788391</v>
       </c>
@@ -61606,7 +61641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J59">
         <v>21787877</v>
       </c>
@@ -61617,7 +61652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J60">
         <v>21788462</v>
       </c>
@@ -61628,7 +61663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J61">
         <v>21788627</v>
       </c>
@@ -61639,7 +61674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J62">
         <v>21788678</v>
       </c>
@@ -61650,7 +61685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J63">
         <v>21788863</v>
       </c>
@@ -61661,7 +61696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J64">
         <v>21788965</v>
       </c>
@@ -62008,7 +62043,7 @@
         <v>465</v>
       </c>
       <c r="L94">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="10:13" x14ac:dyDescent="0.2">
@@ -62033,7 +62068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J97">
         <v>21792912</v>
       </c>
@@ -62044,7 +62079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J98">
         <v>21792914</v>
       </c>
@@ -62058,7 +62093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J99">
         <v>21792924</v>
       </c>
@@ -62069,7 +62104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J100">
         <v>21792940</v>
       </c>
@@ -62083,7 +62118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J101">
         <v>21792941</v>
       </c>
@@ -62094,18 +62129,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J102">
         <v>21792955</v>
       </c>
       <c r="K102" t="s">
         <v>501</v>
       </c>
-      <c r="N102" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J103">
         <v>21792974</v>
       </c>
@@ -62113,10 +62148,10 @@
         <v>514</v>
       </c>
       <c r="L103">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J104">
         <v>21792988</v>
       </c>
@@ -62124,10 +62159,10 @@
         <v>516</v>
       </c>
       <c r="L104">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J105">
         <v>21793012</v>
       </c>
@@ -62138,7 +62173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J106">
         <v>21793106</v>
       </c>
@@ -62149,7 +62184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J107">
         <v>21793118</v>
       </c>
@@ -62160,7 +62195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J108">
         <v>21793165</v>
       </c>
@@ -62174,7 +62209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J109">
         <v>21793204</v>
       </c>
@@ -62185,7 +62220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J110">
         <v>21793306</v>
       </c>
@@ -62196,7 +62231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J111">
         <v>21793337</v>
       </c>
@@ -62207,7 +62242,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J112">
         <v>21793383</v>
       </c>
@@ -62225,8 +62260,8 @@
       <c r="K113" t="s">
         <v>583</v>
       </c>
-      <c r="N113" t="s">
-        <v>2134</v>
+      <c r="L113">
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="10:14" x14ac:dyDescent="0.2">
@@ -62350,7 +62385,7 @@
         <v>3</v>
       </c>
       <c r="N124" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="125" spans="10:14" x14ac:dyDescent="0.2">
@@ -62382,8 +62417,8 @@
       <c r="K127" t="s">
         <v>674</v>
       </c>
-      <c r="N127" t="s">
-        <v>2134</v>
+      <c r="L127">
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="10:14" x14ac:dyDescent="0.2">
@@ -62879,7 +62914,7 @@
         <v>1</v>
       </c>
       <c r="N171" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="172" spans="10:14" x14ac:dyDescent="0.2">
@@ -63829,7 +63864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J257">
         <v>21828319</v>
       </c>
@@ -63840,7 +63875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J258">
         <v>21828323</v>
       </c>
@@ -63851,7 +63886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="259" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J259">
         <v>21828345</v>
       </c>
@@ -63862,7 +63897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J260">
         <v>21828348</v>
       </c>
@@ -63873,7 +63908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J261">
         <v>21829612</v>
       </c>
@@ -63881,13 +63916,10 @@
         <v>1569</v>
       </c>
       <c r="L261">
-        <v>2</v>
-      </c>
-      <c r="M261">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J262">
         <v>21832233</v>
       </c>
@@ -63898,7 +63930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J263">
         <v>21832234</v>
       </c>
@@ -63909,7 +63941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J264">
         <v>21833286</v>
       </c>
@@ -63919,22 +63951,19 @@
       <c r="L264">
         <v>7</v>
       </c>
-      <c r="M264">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="10:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J265">
         <v>21834796</v>
       </c>
       <c r="K265" t="s">
         <v>1613</v>
       </c>
-      <c r="N265" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="266" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="L265">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="266" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J266">
         <v>21834808</v>
       </c>
@@ -63945,7 +63974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J267">
         <v>21834907</v>
       </c>
@@ -63956,7 +63985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J268">
         <v>21835006</v>
       </c>
@@ -63967,7 +63996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="269" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J269">
         <v>21835157</v>
       </c>
@@ -63978,7 +64007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J270">
         <v>21835210</v>
       </c>
@@ -63989,7 +64018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J271">
         <v>21793808</v>
       </c>
@@ -64000,7 +64029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J272">
         <v>21835308</v>
       </c>
@@ -64562,7 +64591,7 @@
         <v>2037</v>
       </c>
       <c r="L321">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="10:12" x14ac:dyDescent="0.2">
@@ -64577,7 +64606,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J17:M318" xr:uid="{3DD39995-85B0-3D49-B092-303D496D14F0}"/>
+  <autoFilter ref="J21:N322" xr:uid="{3DD39995-85B0-3D49-B092-303D496D14F0}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -64598,23 +64627,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="D3" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="E3" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="B5">
         <v>99</v>
@@ -64626,7 +64655,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -64686,7 +64715,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -64706,7 +64735,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -64726,7 +64755,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -64746,7 +64775,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="C19">
         <f>SUM(C8:C13)</f>
@@ -64765,10 +64794,10 @@
         <v>48</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>2048</v>
@@ -65558,10 +65587,10 @@
         <v>810</v>
       </c>
       <c r="S95" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="T95" s="19" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="96" spans="15:20" x14ac:dyDescent="0.2">
@@ -69395,27 +69424,27 @@
         <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="C2" t="s">
         <v>2124</v>
       </c>
       <c r="D2" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="F2">
         <v>21773539</v>
@@ -69457,7 +69486,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -69482,7 +69511,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -69532,7 +69561,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -69560,7 +69589,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -69613,7 +69642,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -69663,7 +69692,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -69691,7 +69720,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="B13">
         <v>99</v>
@@ -69726,7 +69755,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="C15">
         <f>SUM(C3:C13)</f>
@@ -69744,7 +69773,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="C16">
         <f>C15-C13</f>
@@ -69773,10 +69802,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="B18" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="F18">
         <v>21781302</v>
@@ -69802,13 +69831,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="C20" t="s">
         <v>2124</v>
       </c>
       <c r="D20" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="F20">
         <v>21781913</v>
@@ -69847,7 +69876,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -69872,7 +69901,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -69900,7 +69929,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -69925,7 +69954,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="B25">
         <v>99</v>
@@ -81970,7 +81999,7 @@
         <v>2048</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -84008,7 +84037,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="B13">
         <v>402</v>
@@ -84020,7 +84049,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="B14">
         <v>404</v>
@@ -84044,7 +84073,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="B16">
         <v>407</v>
@@ -84056,7 +84085,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="B17">
         <v>408</v>
@@ -84092,7 +84121,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="B21" s="16">
         <v>412</v>
@@ -84116,7 +84145,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="B24" s="23">
         <v>420</v>
@@ -84128,7 +84157,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B25" s="16">
         <v>421</v>
@@ -84152,7 +84181,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="B27" s="16">
         <v>422</v>
@@ -84164,7 +84193,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="B28" s="16">
         <v>423</v>
@@ -84193,7 +84222,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="B31" s="16">
         <v>430</v>
@@ -84217,7 +84246,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="B33" s="16">
         <v>431</v>
@@ -84229,7 +84258,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="B34" s="16">
         <v>432</v>
@@ -84547,7 +84576,7 @@
         <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -84561,7 +84590,7 @@
         <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -91432,7 +91461,7 @@
         <v>99</v>
       </c>
       <c r="E683" s="19" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">

--- a/kodovani/OE_all_kodovani.xlsx
+++ b/kodovani/OE_all_kodovani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klarakrejcarova/Desktop/Sociologie/2024:25/LS/Alkohol/Alkodata/Nepiti-projekt/Nepiti/kodovani/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annamatejkova/Desktop/projekt alkohol/Nepiti/kodovani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2A0F9-7A80-AA44-8AAA-E21FBE29C9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FC5531-E958-D644-B1DE-15D901D91AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16380" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OE all" sheetId="3" r:id="rId1"/>
@@ -6896,7 +6896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6937,7 +6937,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -22841,8 +22840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF8C145-F05D-5E4D-B0ED-4C8CC48B7836}">
   <dimension ref="A1:F1072"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1037" sqref="C1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22919,7 +22918,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF($C$51:$C$1072,B8)</f>
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -22953,7 +22952,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13">
         <f>SUM(C13:C22)</f>
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -22965,7 +22964,7 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C20" si="0">COUNTIF($C$51:$C$1072,B13)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -23301,7 +23300,7 @@
       <c r="B46" s="6"/>
       <c r="C46">
         <f>C7+C8</f>
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -23311,7 +23310,7 @@
       <c r="B47" s="6"/>
       <c r="C47">
         <f>C45-C46</f>
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -24477,7 +24476,7 @@
         <v>311</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E153" t="s">
         <v>2058</v>
@@ -60888,7 +60887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD39995-85B0-3D49-B092-303D496D14F0}">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -61249,8 +61248,6 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
       <c r="J24">
         <v>21781302</v>
       </c>
@@ -83913,10 +83910,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895A2234-D396-B741-8CD6-9357BFEECD9A}">
-  <dimension ref="A1:E967"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F967"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -83924,9 +83922,10 @@
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -83934,7 +83933,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -83942,7 +83941,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -83950,17 +83949,17 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2086</v>
       </c>
@@ -83971,7 +83970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2082</v>
       </c>
@@ -83982,8 +83981,10 @@
         <f>COUNTIF($C$45:$C$1068,B7)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2085</v>
       </c>
@@ -83995,7 +83996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2083</v>
       </c>
@@ -84007,7 +84008,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2084</v>
       </c>
@@ -84019,11 +84020,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2080</v>
       </c>
@@ -84031,11 +84032,11 @@
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <f>COUNTIF($C$70:$C$1091,B12) + SUM(C13:C18)+C19+C24+C31</f>
+        <f>COUNTIF($C$70:$C$1091,B12) + SUM(C13:C17)+C19+C24+C31</f>
         <v>642</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2155</v>
       </c>
@@ -84047,7 +84048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2158</v>
       </c>
@@ -84059,7 +84060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2103</v>
       </c>
@@ -84070,8 +84071,9 @@
         <f>COUNTIF($C$70:$C$1091,B15)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2152</v>
       </c>
@@ -84299,8 +84301,8 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40">
-        <f>C7+C8</f>
-        <v>136</v>
+        <f>C7+C8+C36</f>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -84310,7 +84312,7 @@
       <c r="B41" s="20"/>
       <c r="C41" s="3">
         <f>C39-C40</f>
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -84342,7 +84344,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>21792931</v>
       </c>
@@ -84353,7 +84355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>21793012</v>
       </c>
@@ -84364,7 +84366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>21887881</v>
       </c>
@@ -84375,7 +84377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>21798962</v>
       </c>
@@ -84386,7 +84388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>21777943</v>
       </c>
@@ -84397,7 +84399,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>21782133</v>
       </c>
@@ -84408,7 +84410,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>21794586</v>
       </c>
@@ -84419,7 +84421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21794603</v>
       </c>
@@ -84430,7 +84432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21850279</v>
       </c>
@@ -84441,7 +84443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>21847040</v>
       </c>
@@ -84452,7 +84454,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>21844831</v>
       </c>
@@ -84463,7 +84465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>21847823</v>
       </c>
@@ -84474,7 +84476,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>21798893</v>
       </c>
@@ -84488,7 +84490,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>21775712</v>
       </c>
@@ -84499,7 +84501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>21793687</v>
       </c>
@@ -84510,7 +84512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>21812035</v>
       </c>
@@ -84521,7 +84523,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>21792775</v>
       </c>
@@ -84532,7 +84534,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>21783249</v>
       </c>
@@ -84543,7 +84545,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>21788758</v>
       </c>
@@ -84554,7 +84556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>21835129</v>
       </c>
@@ -84565,7 +84567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>21792878</v>
       </c>
@@ -84579,7 +84581,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>21793080</v>
       </c>
@@ -84593,7 +84595,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>21794407</v>
       </c>
@@ -84604,7 +84606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>21795335</v>
       </c>
@@ -84615,7 +84617,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>21792860</v>
       </c>
@@ -84626,7 +84628,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>21777936</v>
       </c>
@@ -84637,7 +84639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>21794813</v>
       </c>
@@ -84648,7 +84650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>21794921</v>
       </c>
@@ -84659,7 +84661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>21793200</v>
       </c>
@@ -84670,7 +84672,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>21798747</v>
       </c>
@@ -84681,7 +84683,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>21799091</v>
       </c>
@@ -84692,7 +84694,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>21852228</v>
       </c>
@@ -84703,7 +84705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>21782426</v>
       </c>
@@ -84714,7 +84716,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>21798735</v>
       </c>
@@ -84725,7 +84727,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>21794797</v>
       </c>
@@ -84736,7 +84738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>21795246</v>
       </c>
@@ -84747,7 +84749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21794105</v>
       </c>
@@ -84758,7 +84760,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21793642</v>
       </c>
@@ -84769,7 +84771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21858604</v>
       </c>
@@ -84780,7 +84782,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>21802651</v>
       </c>
@@ -84813,7 +84815,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>21792760</v>
       </c>
@@ -84824,7 +84826,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>21798736</v>
       </c>
@@ -84846,7 +84848,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>21802638</v>
       </c>
@@ -84857,7 +84859,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>21810788</v>
       </c>
@@ -84868,7 +84870,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>21783067</v>
       </c>
@@ -84890,7 +84892,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>21847006</v>
       </c>
@@ -84901,7 +84903,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>21794353</v>
       </c>
@@ -84989,7 +84991,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>21798911</v>
       </c>
@@ -85102,7 +85104,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>21789019</v>
       </c>
@@ -85116,7 +85118,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>21787727</v>
       </c>
@@ -85130,7 +85132,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>21787992</v>
       </c>
@@ -85144,7 +85146,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>21782272</v>
       </c>
@@ -85155,7 +85157,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>21795020</v>
       </c>
@@ -85166,7 +85168,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>21785878</v>
       </c>
@@ -85177,7 +85179,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>21798693</v>
       </c>
@@ -85188,7 +85190,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>21847674</v>
       </c>
@@ -85199,7 +85201,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>21795164</v>
       </c>
@@ -85221,7 +85223,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>21794953</v>
       </c>
@@ -85232,7 +85234,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>21793272</v>
       </c>
@@ -85243,7 +85245,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>21781072</v>
       </c>
@@ -85254,7 +85256,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>21788839</v>
       </c>
@@ -85265,7 +85267,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>21797886</v>
       </c>
@@ -85276,7 +85278,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>21846979</v>
       </c>
@@ -85287,7 +85289,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>21802669</v>
       </c>
@@ -85298,7 +85300,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>21808165</v>
       </c>
@@ -85312,7 +85314,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>21809366</v>
       </c>
@@ -85323,7 +85325,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>21798655</v>
       </c>
@@ -85334,7 +85336,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>21793377</v>
       </c>
@@ -85345,7 +85347,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>21835328</v>
       </c>
@@ -85356,7 +85358,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>21794264</v>
       </c>
@@ -85367,7 +85369,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>21793671</v>
       </c>
@@ -85378,7 +85380,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>21782242</v>
       </c>
@@ -85389,7 +85391,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>21795379</v>
       </c>
@@ -85400,7 +85402,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>21794431</v>
       </c>
@@ -85411,7 +85413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>21846997</v>
       </c>
@@ -85422,7 +85424,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>21789484</v>
       </c>
@@ -85433,7 +85435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>21834996</v>
       </c>
@@ -85444,7 +85446,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21798759</v>
       </c>
@@ -85455,7 +85457,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>21798900</v>
       </c>
@@ -85466,7 +85468,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>21811474</v>
       </c>
@@ -85477,7 +85479,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>21789424</v>
       </c>
@@ -85488,7 +85490,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>21792963</v>
       </c>
@@ -85499,7 +85501,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>21823781</v>
       </c>
@@ -85510,7 +85512,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>21835088</v>
       </c>
@@ -85521,7 +85523,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>21798351</v>
       </c>
@@ -85532,7 +85534,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>21807414</v>
       </c>
@@ -85543,7 +85545,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>21781092</v>
       </c>
@@ -85554,7 +85556,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>21793468</v>
       </c>
@@ -85565,7 +85567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>21830116</v>
       </c>
@@ -85576,7 +85578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>21793487</v>
       </c>
@@ -85587,7 +85589,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>21798698</v>
       </c>
@@ -85598,7 +85600,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>21788251</v>
       </c>
@@ -85609,7 +85611,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>21841181</v>
       </c>
@@ -85620,7 +85622,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>21838907</v>
       </c>
@@ -85631,7 +85633,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>21805731</v>
       </c>
@@ -85642,7 +85644,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>21839490</v>
       </c>
@@ -85653,7 +85655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21797089</v>
       </c>
@@ -85664,7 +85666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>21788974</v>
       </c>
@@ -85675,7 +85677,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>21778130</v>
       </c>
@@ -85686,7 +85688,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>21839447</v>
       </c>
@@ -85697,7 +85699,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>21798694</v>
       </c>
@@ -85708,7 +85710,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>21798763</v>
       </c>
@@ -85719,7 +85721,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>21838792</v>
       </c>
@@ -85730,7 +85732,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>21849074</v>
       </c>
@@ -85741,7 +85743,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>21798800</v>
       </c>
@@ -85755,7 +85757,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>21782507</v>
       </c>
@@ -85766,7 +85768,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>21835063</v>
       </c>
@@ -85777,7 +85779,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>21847085</v>
       </c>
@@ -85788,7 +85790,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>21799312</v>
       </c>
@@ -85799,7 +85801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>21789575</v>
       </c>
@@ -85813,7 +85815,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>21817792</v>
       </c>
@@ -85824,7 +85826,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>21869996</v>
       </c>
@@ -85835,7 +85837,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>21848428</v>
       </c>
@@ -85846,7 +85848,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>21851228</v>
       </c>
@@ -85860,7 +85862,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>21804364</v>
       </c>
@@ -85871,7 +85873,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>21795052</v>
       </c>
@@ -85882,7 +85884,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>21799225</v>
       </c>
@@ -85893,7 +85895,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>21787982</v>
       </c>
@@ -85904,7 +85906,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>21793437</v>
       </c>
@@ -85915,7 +85917,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>21829612</v>
       </c>
@@ -85926,7 +85928,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>21884416</v>
       </c>
@@ -85937,7 +85939,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>21794454</v>
       </c>
@@ -85948,7 +85950,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>21795174</v>
       </c>
@@ -85959,7 +85961,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>21835006</v>
       </c>
@@ -85970,7 +85972,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>21798671</v>
       </c>
@@ -85981,7 +85983,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>21776763</v>
       </c>
@@ -85992,7 +85994,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>21794045</v>
       </c>
@@ -86003,7 +86005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>21798848</v>
       </c>
@@ -86014,7 +86016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>21787947</v>
       </c>
@@ -86025,7 +86027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>21798884</v>
       </c>
@@ -86036,7 +86038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>21786348</v>
       </c>
@@ -86047,7 +86049,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>21798706</v>
       </c>
@@ -86102,7 +86104,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>21804247</v>
       </c>
@@ -86113,7 +86115,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>21782541</v>
       </c>
@@ -86179,7 +86181,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>21793318</v>
       </c>
@@ -86193,7 +86195,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>21792910</v>
       </c>
@@ -86218,7 +86220,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>21851655</v>
       </c>
@@ -86229,7 +86231,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>21854523</v>
       </c>
@@ -86240,7 +86242,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>21848053</v>
       </c>
@@ -86251,7 +86253,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>21792679</v>
       </c>
@@ -86262,7 +86264,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>21796429</v>
       </c>
@@ -86273,7 +86275,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>21810677</v>
       </c>
@@ -86284,7 +86286,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>21797325</v>
       </c>
@@ -86295,7 +86297,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21792926</v>
       </c>
@@ -86306,7 +86308,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>21787867</v>
       </c>
@@ -86317,7 +86319,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>21807644</v>
       </c>
@@ -86328,7 +86330,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>21834235</v>
       </c>
@@ -86339,7 +86341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>21785848</v>
       </c>
@@ -86350,7 +86352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>21794615</v>
       </c>
@@ -86361,7 +86363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>21794230</v>
       </c>
@@ -86372,7 +86374,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>21782601</v>
       </c>
@@ -86383,7 +86385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>21793233</v>
       </c>
@@ -86394,7 +86396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>21795200</v>
       </c>
@@ -86405,7 +86407,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>21799305</v>
       </c>
@@ -86416,7 +86418,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>21835824</v>
       </c>
@@ -86427,7 +86429,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>21828339</v>
       </c>
@@ -86438,7 +86440,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>21789209</v>
       </c>
@@ -86449,7 +86451,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>21799043</v>
       </c>
@@ -86460,7 +86462,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>21835515</v>
       </c>
@@ -86471,7 +86473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>21847989</v>
       </c>
@@ -86482,7 +86484,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>21802174</v>
       </c>
@@ -86493,7 +86495,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>21798637</v>
       </c>
@@ -86504,7 +86506,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>21798299</v>
       </c>
@@ -86515,7 +86517,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>21792956</v>
       </c>
@@ -86526,7 +86528,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>21846548</v>
       </c>
@@ -86537,7 +86539,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>21798713</v>
       </c>
@@ -86548,7 +86550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>21808179</v>
       </c>
@@ -86559,7 +86561,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>21798696</v>
       </c>
@@ -86570,7 +86572,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>21794927</v>
       </c>
@@ -86581,7 +86583,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>21794207</v>
       </c>
@@ -86592,7 +86594,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>21793806</v>
       </c>
@@ -86603,7 +86605,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>21782269</v>
       </c>
@@ -86614,7 +86616,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>21788686</v>
       </c>
@@ -86625,7 +86627,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>21828360</v>
       </c>
@@ -86636,7 +86638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>21798881</v>
       </c>
@@ -86647,7 +86649,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>21869040</v>
       </c>
@@ -86658,7 +86660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>21793792</v>
       </c>
@@ -86669,7 +86671,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>21847054</v>
       </c>
@@ -86680,7 +86682,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>21880515</v>
       </c>
@@ -86691,7 +86693,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>21850917</v>
       </c>
@@ -86702,7 +86704,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>21798686</v>
       </c>
@@ -86716,7 +86718,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>21798658</v>
       </c>
@@ -86730,7 +86732,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>21782259</v>
       </c>
@@ -86741,7 +86743,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>21887939</v>
       </c>
@@ -86752,7 +86754,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>21788129</v>
       </c>
@@ -86763,7 +86765,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>21887882</v>
       </c>
@@ -86774,7 +86776,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>21793925</v>
       </c>
@@ -86785,7 +86787,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>21792610</v>
       </c>
@@ -86796,7 +86798,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>21792686</v>
       </c>
@@ -86807,7 +86809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>21798639</v>
       </c>
@@ -86818,7 +86820,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>21787092</v>
       </c>
@@ -86832,7 +86834,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>21798938</v>
       </c>
@@ -86843,7 +86845,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>21803494</v>
       </c>
@@ -86854,7 +86856,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>21793543</v>
       </c>
@@ -86865,7 +86867,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>21795152</v>
       </c>
@@ -86876,7 +86878,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>21793156</v>
       </c>
@@ -86887,7 +86889,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>21848157</v>
       </c>
@@ -86898,7 +86900,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>21822225</v>
       </c>
@@ -86909,7 +86911,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>21792773</v>
       </c>
@@ -86920,7 +86922,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>21797967</v>
       </c>
@@ -86934,7 +86936,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>21792864</v>
       </c>
@@ -86948,7 +86950,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>21783304</v>
       </c>
@@ -86959,7 +86961,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>21877503</v>
       </c>
@@ -86970,7 +86972,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>21871820</v>
       </c>
@@ -86981,7 +86983,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>21802171</v>
       </c>
@@ -86992,7 +86994,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>21817041</v>
       </c>
@@ -87003,7 +87005,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>21847527</v>
       </c>
@@ -87014,7 +87016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>21799057</v>
       </c>
@@ -87025,7 +87027,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>21810686</v>
       </c>
@@ -87036,7 +87038,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>21846083</v>
       </c>
@@ -87047,7 +87049,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>21839482</v>
       </c>
@@ -87058,7 +87060,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>21786597</v>
       </c>
@@ -87069,7 +87071,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>21789170</v>
       </c>
@@ -87080,7 +87082,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>21794125</v>
       </c>
@@ -87091,7 +87093,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>21795162</v>
       </c>
@@ -87102,7 +87104,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>21798766</v>
       </c>
@@ -87113,7 +87115,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>21798773</v>
       </c>
@@ -87124,7 +87126,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>21802659</v>
       </c>
@@ -87135,7 +87137,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>21807857</v>
       </c>
@@ -87146,7 +87148,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>21810766</v>
       </c>
@@ -87157,7 +87159,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>21817069</v>
       </c>
@@ -87168,7 +87170,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>21826962</v>
       </c>
@@ -87179,7 +87181,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>21835157</v>
       </c>
@@ -87190,7 +87192,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>21872543</v>
       </c>
@@ -87201,7 +87203,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>21851698</v>
       </c>
@@ -87212,7 +87214,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>21800982</v>
       </c>
@@ -87223,7 +87225,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>21847344</v>
       </c>
@@ -87234,7 +87236,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>21799075</v>
       </c>
@@ -87245,7 +87247,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>21834831</v>
       </c>
@@ -87256,7 +87258,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>21872035</v>
       </c>
@@ -87267,7 +87269,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>21782236</v>
       </c>
@@ -87281,7 +87283,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>21821461</v>
       </c>
@@ -87292,7 +87294,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>21804968</v>
       </c>
@@ -87303,7 +87305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>21792939</v>
       </c>
@@ -87317,7 +87319,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>21835621</v>
       </c>
@@ -87328,7 +87330,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>21826945</v>
       </c>
@@ -87339,7 +87341,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>21846980</v>
       </c>
@@ -87353,7 +87355,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>21838959</v>
       </c>
@@ -87364,7 +87366,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>21847088</v>
       </c>
@@ -87408,7 +87410,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>21835869</v>
       </c>
@@ -87419,7 +87421,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>21847238</v>
       </c>
@@ -87430,7 +87432,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>21808983</v>
       </c>
@@ -87452,7 +87454,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>21820509</v>
       </c>
@@ -87463,7 +87465,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>21798817</v>
       </c>
@@ -87477,7 +87479,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>21799283</v>
       </c>
@@ -87491,7 +87493,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>21832730</v>
       </c>
@@ -87502,7 +87504,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>21794343</v>
       </c>
@@ -87513,7 +87515,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>21794245</v>
       </c>
@@ -87524,7 +87526,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>21799135</v>
       </c>
@@ -87535,7 +87537,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>21850507</v>
       </c>
@@ -87546,7 +87548,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>21835427</v>
       </c>
@@ -87557,7 +87559,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>21799113</v>
       </c>
@@ -87568,7 +87570,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>21834707</v>
       </c>
@@ -87579,7 +87581,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>21835861</v>
       </c>
@@ -87590,7 +87592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>21827004</v>
       </c>
@@ -87601,7 +87603,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>21834796</v>
       </c>
@@ -87612,7 +87614,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>21788350</v>
       </c>
@@ -87623,7 +87625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>21852671</v>
       </c>
@@ -87634,7 +87636,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>21798708</v>
       </c>
@@ -87645,7 +87647,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>21798704</v>
       </c>
@@ -87656,7 +87658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>21805776</v>
       </c>
@@ -87667,7 +87669,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>21832214</v>
       </c>
@@ -87689,7 +87691,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>21827808</v>
       </c>
@@ -87700,7 +87702,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>21795165</v>
       </c>
@@ -87711,7 +87713,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>21868102</v>
       </c>
@@ -87722,7 +87724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>21805789</v>
       </c>
@@ -87733,7 +87735,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>21799126</v>
       </c>
@@ -87744,7 +87746,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>21798965</v>
       </c>
@@ -87755,7 +87757,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>21847970</v>
       </c>
@@ -87766,7 +87768,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>21798003</v>
       </c>
@@ -87777,7 +87779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>21794111</v>
       </c>
@@ -87788,7 +87790,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>21796414</v>
       </c>
@@ -87799,7 +87801,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>21800662</v>
       </c>
@@ -87810,7 +87812,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>21872422</v>
       </c>
@@ -87821,7 +87823,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>21794500</v>
       </c>
@@ -87832,7 +87834,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>21802649</v>
       </c>
@@ -87843,7 +87845,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>21789036</v>
       </c>
@@ -87854,7 +87856,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>21817067</v>
       </c>
@@ -87865,7 +87867,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>21802666</v>
       </c>
@@ -87876,7 +87878,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>21816033</v>
       </c>
@@ -87887,7 +87889,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>21802611</v>
       </c>
@@ -87898,7 +87900,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>21793587</v>
       </c>
@@ -87909,7 +87911,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>21793372</v>
       </c>
@@ -87920,7 +87922,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>21793047</v>
       </c>
@@ -87931,7 +87933,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>21793548</v>
       </c>
@@ -87942,7 +87944,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>21780293</v>
       </c>
@@ -87953,7 +87955,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>21799289</v>
       </c>
@@ -87964,7 +87966,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>21782314</v>
       </c>
@@ -87975,7 +87977,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>21848865</v>
       </c>
@@ -87986,7 +87988,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>21833356</v>
       </c>
@@ -87997,7 +87999,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>21879860</v>
       </c>
@@ -88008,7 +88010,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>21782453</v>
       </c>
@@ -88019,7 +88021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>21794354</v>
       </c>
@@ -88030,7 +88032,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>21797282</v>
       </c>
@@ -88041,7 +88043,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>21799045</v>
       </c>
@@ -88052,7 +88054,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>21794134</v>
       </c>
@@ -88063,7 +88065,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>21793106</v>
       </c>
@@ -88074,7 +88076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>21774044</v>
       </c>
@@ -88085,7 +88087,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>21783316</v>
       </c>
@@ -88096,7 +88098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>21839001</v>
       </c>
@@ -88107,7 +88109,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>21782839</v>
       </c>
@@ -88118,7 +88120,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>21794886</v>
       </c>
@@ -88129,7 +88131,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>21794589</v>
       </c>
@@ -88140,7 +88142,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>21792753</v>
       </c>
@@ -88151,7 +88153,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>21804391</v>
       </c>
@@ -88162,7 +88164,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>21884425</v>
       </c>
@@ -88173,7 +88175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>21795138</v>
       </c>
@@ -88184,7 +88186,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>21795257</v>
       </c>
@@ -88195,7 +88197,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>21792747</v>
       </c>
@@ -88206,7 +88208,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>21775089</v>
       </c>
@@ -88217,7 +88219,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>21835261</v>
       </c>
@@ -88228,7 +88230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>21794019</v>
       </c>
@@ -88239,7 +88241,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>21781926</v>
       </c>
@@ -88250,7 +88252,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>21795029</v>
       </c>
@@ -88261,7 +88263,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>21854111</v>
       </c>
@@ -88272,7 +88274,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>21788321</v>
       </c>
@@ -88283,7 +88285,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>21823756</v>
       </c>
@@ -88294,7 +88296,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>21792941</v>
       </c>
@@ -88305,7 +88307,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>21798803</v>
       </c>
@@ -88316,7 +88318,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>21792798</v>
       </c>
@@ -88327,7 +88329,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>21788742</v>
       </c>
@@ -88338,7 +88340,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>21810905</v>
       </c>
@@ -88349,7 +88351,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>21792719</v>
       </c>
@@ -88360,7 +88362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>21793964</v>
       </c>
@@ -88371,7 +88373,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>21822238</v>
       </c>
@@ -88382,7 +88384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>21792743</v>
       </c>
@@ -88393,7 +88395,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>21792684</v>
       </c>
@@ -88404,7 +88406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>21783220</v>
       </c>
@@ -88415,7 +88417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>21798846</v>
       </c>
@@ -88426,7 +88428,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>21850196</v>
       </c>
@@ -88437,7 +88439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>21782316</v>
       </c>
@@ -88448,7 +88450,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>21792656</v>
       </c>
@@ -88459,7 +88461,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>21792627</v>
       </c>
@@ -88470,7 +88472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>21794466</v>
       </c>
@@ -88481,7 +88483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>21795244</v>
       </c>
@@ -88492,7 +88494,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>21850047</v>
       </c>
@@ -88503,7 +88505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>21807083</v>
       </c>
@@ -88517,7 +88519,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>21838598</v>
       </c>
@@ -88528,7 +88530,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>21793058</v>
       </c>
@@ -88539,7 +88541,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>21798979</v>
       </c>
@@ -88550,7 +88552,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>21805412</v>
       </c>
@@ -88561,7 +88563,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>21799132</v>
       </c>
@@ -88572,7 +88574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>21838552</v>
       </c>
@@ -88583,7 +88585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>21798757</v>
       </c>
@@ -88594,7 +88596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>21794386</v>
       </c>
@@ -88605,7 +88607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>21793337</v>
       </c>
@@ -88616,7 +88618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>21809397</v>
       </c>
@@ -88627,7 +88629,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>21793596</v>
       </c>
@@ -88638,7 +88640,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>21798689</v>
       </c>
@@ -88649,7 +88651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>21792714</v>
       </c>
@@ -88660,7 +88662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>21832233</v>
       </c>
@@ -88671,7 +88673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>21794851</v>
       </c>
@@ -88682,7 +88684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>21842156</v>
       </c>
@@ -88693,7 +88695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>21794902</v>
       </c>
@@ -88704,7 +88706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>21834252</v>
       </c>
@@ -88715,7 +88717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>21836922</v>
       </c>
@@ -88726,7 +88728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>21849030</v>
       </c>
@@ -88737,7 +88739,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>21796663</v>
       </c>
@@ -88748,7 +88750,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>21800984</v>
       </c>
@@ -88759,7 +88761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>21793852</v>
       </c>
@@ -88770,7 +88772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>21793688</v>
       </c>
@@ -88781,7 +88783,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>21782231</v>
       </c>
@@ -88792,7 +88794,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>21795363</v>
       </c>
@@ -88803,7 +88805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>21783335</v>
       </c>
@@ -88814,7 +88816,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>21795479</v>
       </c>
@@ -88825,7 +88827,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>21847295</v>
       </c>
@@ -88836,7 +88838,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>21794626</v>
       </c>
@@ -88847,7 +88849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>21848828</v>
       </c>
@@ -88858,7 +88860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>21799184</v>
       </c>
@@ -88869,7 +88871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>21810127</v>
       </c>
@@ -88880,7 +88882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>21773539</v>
       </c>
@@ -88891,7 +88893,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>21782401</v>
       </c>
@@ -88902,7 +88904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>21783915</v>
       </c>
@@ -88913,7 +88915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>21788777</v>
       </c>
@@ -88924,7 +88926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>21789546</v>
       </c>
@@ -88935,7 +88937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>21792617</v>
       </c>
@@ -88946,7 +88948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>21792900</v>
       </c>
@@ -88957,7 +88959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>21792901</v>
       </c>
@@ -88968,7 +88970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>21792914</v>
       </c>
@@ -88979,7 +88981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>21792968</v>
       </c>
@@ -88990,7 +88992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>21793022</v>
       </c>
@@ -89001,7 +89003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>21794161</v>
       </c>
@@ -89012,7 +89014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>21794311</v>
       </c>
@@ -89023,7 +89025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>21794710</v>
       </c>
@@ -89034,7 +89036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>21794017</v>
       </c>
@@ -89045,7 +89047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>21798619</v>
       </c>
@@ -89056,7 +89058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>21798968</v>
       </c>
@@ -89067,7 +89069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>21799168</v>
       </c>
@@ -89078,7 +89080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>21799177</v>
       </c>
@@ -89089,7 +89091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>21809399</v>
       </c>
@@ -89100,7 +89102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>21810681</v>
       </c>
@@ -89111,7 +89113,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>21821970</v>
       </c>
@@ -89122,7 +89124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>21826992</v>
       </c>
@@ -89133,7 +89135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>21828314</v>
       </c>
@@ -89144,7 +89146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>21830691</v>
       </c>
@@ -89155,7 +89157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>21834808</v>
       </c>
@@ -89166,7 +89168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>21838562</v>
       </c>
@@ -89177,7 +89179,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>21841028</v>
       </c>
@@ -89188,7 +89190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>21847915</v>
       </c>
@@ -89199,7 +89201,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>21882975</v>
       </c>
@@ -89210,7 +89212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>21777100</v>
       </c>
@@ -89221,7 +89223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>21784107</v>
       </c>
@@ -89232,7 +89234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>21786950</v>
       </c>
@@ -89243,7 +89245,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>21788056</v>
       </c>
@@ -89254,7 +89256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>21788343</v>
       </c>
@@ -89265,7 +89267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>21788391</v>
       </c>
@@ -89276,7 +89278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>21787877</v>
       </c>
@@ -89287,7 +89289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>21789437</v>
       </c>
@@ -89298,7 +89300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>21789717</v>
       </c>
@@ -89309,7 +89311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>21792651</v>
       </c>
@@ -89320,7 +89322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>21792675</v>
       </c>
@@ -89331,7 +89333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>21792726</v>
       </c>
@@ -89342,7 +89344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>21792740</v>
       </c>
@@ -89353,7 +89355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>21793063</v>
       </c>
@@ -89364,7 +89366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>21793127</v>
       </c>
@@ -89375,7 +89377,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>21793403</v>
       </c>
@@ -89386,7 +89388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>21793422</v>
       </c>
@@ -89397,7 +89399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>21793512</v>
       </c>
@@ -89408,7 +89410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>21793522</v>
       </c>
@@ -89419,7 +89421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>21793531</v>
       </c>
@@ -89430,7 +89432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>21794031</v>
       </c>
@@ -89441,7 +89443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>21794217</v>
       </c>
@@ -89452,7 +89454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>21794397</v>
       </c>
@@ -89463,7 +89465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>21794753</v>
       </c>
@@ -89474,7 +89476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>21794821</v>
       </c>
@@ -89485,7 +89487,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>21794885</v>
       </c>
@@ -89496,7 +89498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>21794889</v>
       </c>
@@ -89507,7 +89509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>21794894</v>
       </c>
@@ -89518,7 +89520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>21796412</v>
       </c>
@@ -89529,7 +89531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>21797921</v>
       </c>
@@ -89540,7 +89542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>21798644</v>
       </c>
@@ -89551,7 +89553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>21798685</v>
       </c>
@@ -89562,7 +89564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>21798905</v>
       </c>
@@ -89573,7 +89575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>21799238</v>
       </c>
@@ -89584,7 +89586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>21799300</v>
       </c>
@@ -89595,7 +89597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>21808755</v>
       </c>
@@ -89606,7 +89608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>21810667</v>
       </c>
@@ -89617,7 +89619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>21810916</v>
       </c>
@@ -89628,7 +89630,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>21817312</v>
       </c>
@@ -89639,7 +89641,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>21834588</v>
       </c>
@@ -89650,7 +89652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>21807645</v>
       </c>
@@ -89661,7 +89663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>21834779</v>
       </c>
@@ -89672,7 +89674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>21834907</v>
       </c>
@@ -89683,7 +89685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>21836921</v>
       </c>
@@ -89694,7 +89696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>21844699</v>
       </c>
@@ -89705,7 +89707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>21846987</v>
       </c>
@@ -89716,7 +89718,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>21847729</v>
       </c>
@@ -89727,7 +89729,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>21850069</v>
       </c>
@@ -89738,7 +89740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>21851552</v>
       </c>
@@ -89749,7 +89751,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>21872626</v>
       </c>
@@ -89760,7 +89762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>21879286</v>
       </c>
@@ -89771,7 +89773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>21782980</v>
       </c>
@@ -89782,7 +89784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>21792662</v>
       </c>
@@ -89793,7 +89795,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>21794725</v>
       </c>
@@ -89804,7 +89806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>21850323</v>
       </c>
@@ -89815,7 +89817,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>21822543</v>
       </c>
@@ -89826,7 +89828,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>21847886</v>
       </c>
@@ -89837,7 +89839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>21788743</v>
       </c>
@@ -89848,7 +89850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>21781913</v>
       </c>
@@ -89859,7 +89861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>21871330</v>
       </c>
@@ -89870,7 +89872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>21798733</v>
       </c>
@@ -89881,7 +89883,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>21793808</v>
       </c>
@@ -89892,7 +89894,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>21781302</v>
       </c>
@@ -89903,7 +89905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>21788731</v>
       </c>
@@ -89914,7 +89916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>21788810</v>
       </c>
@@ -89925,7 +89927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>21789164</v>
       </c>
@@ -89936,7 +89938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>21789387</v>
       </c>
@@ -89947,7 +89949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>21792723</v>
       </c>
@@ -89958,7 +89960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>21792771</v>
       </c>
@@ -89969,7 +89971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>21792813</v>
       </c>
@@ -89980,7 +89982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>21792908</v>
       </c>
@@ -89991,7 +89993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>21793204</v>
       </c>
@@ -90002,7 +90004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>21793659</v>
       </c>
@@ -90013,7 +90015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>21794582</v>
       </c>
@@ -90024,7 +90026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>21797986</v>
       </c>
@@ -90035,7 +90037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>21798303</v>
       </c>
@@ -90046,7 +90048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>21798604</v>
       </c>
@@ -90057,7 +90059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>21798754</v>
       </c>
@@ -90068,7 +90070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>21798831</v>
       </c>
@@ -90079,7 +90081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>21798835</v>
       </c>
@@ -90090,7 +90092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>21800917</v>
       </c>
@@ -90101,7 +90103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>21802353</v>
       </c>
@@ -90112,7 +90114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>21806347</v>
       </c>
@@ -90123,7 +90125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>21808500</v>
       </c>
@@ -90134,7 +90136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>21810946</v>
       </c>
@@ -90145,7 +90147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>21816786</v>
       </c>
@@ -90156,7 +90158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>21825423</v>
       </c>
@@ -90167,7 +90169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>21835182</v>
       </c>
@@ -90178,7 +90180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>21835528</v>
       </c>
@@ -90189,7 +90191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>21837677</v>
       </c>
@@ -90200,7 +90202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>21841174</v>
       </c>
@@ -90211,7 +90213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>21849145</v>
       </c>
@@ -90222,7 +90224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>21852275</v>
       </c>
@@ -90233,7 +90235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>21872245</v>
       </c>
@@ -90244,7 +90246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>21872854</v>
       </c>
@@ -90255,7 +90257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>21884432</v>
       </c>
@@ -90266,7 +90268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>21886227</v>
       </c>
@@ -90277,7 +90279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>21851289</v>
       </c>
@@ -90288,7 +90290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>21802658</v>
       </c>
@@ -90299,7 +90301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>21787738</v>
       </c>
@@ -90310,7 +90312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>21794364</v>
       </c>
@@ -90321,7 +90323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>21851613</v>
       </c>
@@ -90332,7 +90334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>21801561</v>
       </c>
@@ -90343,7 +90345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>21793800</v>
       </c>
@@ -90354,7 +90356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>21793739</v>
       </c>
@@ -90365,7 +90367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>21797934</v>
       </c>
@@ -90376,7 +90378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>21871856</v>
       </c>
@@ -90387,7 +90389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>21800934</v>
       </c>
@@ -90398,7 +90400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>21877474</v>
       </c>
@@ -90409,7 +90411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>21809376</v>
       </c>
@@ -90420,7 +90422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>21792821</v>
       </c>
@@ -90431,7 +90433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>21792912</v>
       </c>
@@ -90442,7 +90444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>21792955</v>
       </c>
@@ -90453,7 +90455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>21787802</v>
       </c>
@@ -90464,7 +90466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>21828319</v>
       </c>
@@ -90475,7 +90477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>21828348</v>
       </c>
@@ -90486,7 +90488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>21865275</v>
       </c>
@@ -90497,7 +90499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>21847898</v>
       </c>
@@ -90508,7 +90510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>21800926</v>
       </c>
@@ -90519,7 +90521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>21794005</v>
       </c>
@@ -90530,7 +90532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>21789272</v>
       </c>
@@ -90541,7 +90543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>21810751</v>
       </c>
@@ -90552,7 +90554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>21792831</v>
       </c>
@@ -90566,7 +90568,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>21793528</v>
       </c>
@@ -90580,7 +90582,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>21794215</v>
       </c>
@@ -90594,7 +90596,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>21789541</v>
       </c>
@@ -90608,7 +90610,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>21839099</v>
       </c>
@@ -90619,7 +90621,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>21793743</v>
       </c>
@@ -90630,7 +90632,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>21846518</v>
       </c>
@@ -90641,7 +90643,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>21799411</v>
       </c>
@@ -90652,7 +90654,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>21872004</v>
       </c>
@@ -90663,7 +90665,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>21782278</v>
       </c>
@@ -90674,7 +90676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>21800985</v>
       </c>
@@ -90685,7 +90687,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>21789846</v>
       </c>
@@ -90696,7 +90698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>21789737</v>
       </c>
@@ -90707,7 +90709,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>21792722</v>
       </c>
@@ -90718,7 +90720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>21798995</v>
       </c>
@@ -90732,7 +90734,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>21796369</v>
       </c>
@@ -90743,7 +90745,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>21847818</v>
       </c>
@@ -90754,7 +90756,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>21834255</v>
       </c>
@@ -90765,7 +90767,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>21799939</v>
       </c>
@@ -90776,7 +90778,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>21793266</v>
       </c>
@@ -90787,7 +90789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>21832234</v>
       </c>
@@ -90798,7 +90800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>21835867</v>
       </c>
@@ -90809,7 +90811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>21794776</v>
       </c>
@@ -90820,7 +90822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>21793253</v>
       </c>
@@ -90831,7 +90833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>21798813</v>
       </c>
@@ -90842,7 +90844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>21793365</v>
       </c>
@@ -90853,7 +90855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>21884153</v>
       </c>
@@ -90864,7 +90866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>21793962</v>
       </c>
@@ -90875,7 +90877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>21794026</v>
       </c>
@@ -90886,7 +90888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>21783424</v>
       </c>
@@ -90897,7 +90899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>21835439</v>
       </c>
@@ -90908,7 +90910,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>21793827</v>
       </c>
@@ -90919,7 +90921,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>21780791</v>
       </c>
@@ -90930,7 +90932,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>21792661</v>
       </c>
@@ -90941,7 +90943,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>21792865</v>
       </c>
@@ -90952,7 +90954,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>21793217</v>
       </c>
@@ -90963,7 +90965,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>21818030</v>
       </c>
@@ -90974,7 +90976,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>21833233</v>
       </c>
@@ -90985,7 +90987,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>21847457</v>
       </c>
@@ -90996,7 +90998,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>21798837</v>
       </c>
@@ -91018,7 +91020,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>21794347</v>
       </c>
@@ -91029,7 +91031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>21825330</v>
       </c>
@@ -91040,7 +91042,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>21851018</v>
       </c>
@@ -91065,7 +91067,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>21823818</v>
       </c>
@@ -91076,7 +91078,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>21826956</v>
       </c>
@@ -91087,7 +91089,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>21786700</v>
       </c>
@@ -91098,7 +91100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>21788324</v>
       </c>
@@ -91109,7 +91111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>21848022</v>
       </c>
@@ -91120,7 +91122,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>21809948</v>
       </c>
@@ -91131,7 +91133,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>21794015</v>
       </c>
@@ -91142,7 +91144,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>21798665</v>
       </c>
@@ -91153,7 +91155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>21782484</v>
       </c>
@@ -91164,7 +91166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>21804390</v>
       </c>
@@ -91175,7 +91177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>21794371</v>
       </c>
@@ -91186,7 +91188,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>21802662</v>
       </c>
@@ -91197,7 +91199,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>21799164</v>
       </c>
@@ -91208,7 +91210,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>21805726</v>
       </c>
@@ -91219,7 +91221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>21787866</v>
       </c>
@@ -91230,7 +91232,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>21848132</v>
       </c>
@@ -91241,7 +91243,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>21868361</v>
       </c>
@@ -91252,7 +91254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>21798875</v>
       </c>
@@ -91263,7 +91265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>21798936</v>
       </c>
@@ -91274,7 +91276,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>21798827</v>
       </c>
@@ -91285,7 +91287,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>21816783</v>
       </c>
@@ -91296,7 +91298,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>21821452</v>
       </c>
@@ -91307,7 +91309,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>21838722</v>
       </c>
@@ -91318,7 +91320,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>21825345</v>
       </c>
@@ -91329,7 +91331,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>21795079</v>
       </c>
@@ -91340,7 +91342,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>21836911</v>
       </c>
@@ -91351,7 +91353,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>21788099</v>
       </c>
@@ -91362,7 +91364,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>21793454</v>
       </c>
@@ -91373,7 +91375,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>21847883</v>
       </c>
@@ -91384,7 +91386,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>21854289</v>
       </c>
@@ -91395,7 +91397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>21810861</v>
       </c>
@@ -91406,7 +91408,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>21794955</v>
       </c>
@@ -91417,7 +91419,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>21816770</v>
       </c>
@@ -91428,7 +91430,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>21835248</v>
       </c>
@@ -91439,7 +91441,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>21838126</v>
       </c>
@@ -91450,7 +91452,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>21810196</v>
       </c>
@@ -91464,7 +91466,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>21798347</v>
       </c>
@@ -91475,7 +91477,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>21799279</v>
       </c>
@@ -91486,7 +91488,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>21798611</v>
       </c>
@@ -91497,7 +91499,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>21798760</v>
       </c>
@@ -91508,7 +91510,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>21793125</v>
       </c>
@@ -91519,7 +91521,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>21834891</v>
       </c>
@@ -91530,7 +91532,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>21800938</v>
       </c>
@@ -91541,7 +91543,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>21794032</v>
       </c>
@@ -91552,7 +91554,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>21788965</v>
       </c>
@@ -91596,7 +91598,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>21795449</v>
       </c>
@@ -91607,7 +91609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>21799410</v>
       </c>
@@ -91618,7 +91620,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>21848294</v>
       </c>
@@ -91629,7 +91631,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>21798630</v>
       </c>
@@ -91640,7 +91642,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>21839444</v>
       </c>
@@ -91651,7 +91653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>21847220</v>
       </c>
@@ -91662,7 +91664,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>21783825</v>
       </c>
@@ -91673,7 +91675,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>21795166</v>
       </c>
@@ -91684,7 +91686,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>21798663</v>
       </c>
@@ -91695,7 +91697,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>21810650</v>
       </c>
@@ -91706,7 +91708,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>21839313</v>
       </c>
@@ -91717,7 +91719,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>21877529</v>
       </c>
@@ -91728,7 +91730,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>21887924</v>
       </c>
@@ -91739,7 +91741,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>21803025</v>
       </c>
@@ -91753,7 +91755,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>21782814</v>
       </c>
@@ -91764,7 +91766,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>21787563</v>
       </c>
@@ -91775,7 +91777,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>21798777</v>
       </c>
@@ -91786,7 +91788,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>21799277</v>
       </c>
@@ -91797,7 +91799,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>21866637</v>
       </c>
@@ -91811,7 +91813,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>21783427</v>
       </c>
@@ -91825,7 +91827,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>21850380</v>
       </c>
@@ -91836,7 +91838,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>21793165</v>
       </c>
@@ -91847,7 +91849,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>21835407</v>
       </c>
@@ -91858,7 +91860,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>21788553</v>
       </c>
@@ -91872,7 +91874,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>21842833</v>
       </c>
@@ -91883,7 +91885,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>21835988</v>
       </c>
@@ -91894,7 +91896,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>21792909</v>
       </c>
@@ -91905,7 +91907,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>21832482</v>
       </c>
@@ -91916,7 +91918,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>21793821</v>
       </c>
@@ -91927,7 +91929,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>21851564</v>
       </c>
@@ -91938,7 +91940,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>21775722</v>
       </c>
@@ -91949,7 +91951,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>21868191</v>
       </c>
@@ -91960,7 +91962,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>21798746</v>
       </c>
@@ -91971,7 +91973,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>21782626</v>
       </c>
@@ -91982,7 +91984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>21799237</v>
       </c>
@@ -91993,7 +91995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>21794132</v>
       </c>
@@ -92015,7 +92017,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>21835385</v>
       </c>
@@ -92026,7 +92028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>21786952</v>
       </c>
@@ -92037,7 +92039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>21834229</v>
       </c>
@@ -92048,7 +92050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>21798348</v>
       </c>
@@ -92059,7 +92061,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>21782328</v>
       </c>
@@ -92070,7 +92072,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>21827013</v>
       </c>
@@ -92081,7 +92083,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>21788065</v>
       </c>
@@ -92092,7 +92094,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>21794051</v>
       </c>
@@ -92103,7 +92105,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>21798933</v>
       </c>
@@ -92125,7 +92127,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>21788446</v>
       </c>
@@ -92136,7 +92138,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>21793345</v>
       </c>
@@ -92147,7 +92149,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>21808750</v>
       </c>
@@ -92158,7 +92160,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>21839456</v>
       </c>
@@ -92180,7 +92182,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>21869473</v>
       </c>
@@ -92194,7 +92196,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>21792725</v>
       </c>
@@ -92205,7 +92207,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>21794166</v>
       </c>
@@ -92216,7 +92218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>21852649</v>
       </c>
@@ -92227,7 +92229,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>21788409</v>
       </c>
@@ -92238,7 +92240,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>21787706</v>
       </c>
@@ -92249,7 +92251,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>21793102</v>
       </c>
@@ -92260,7 +92262,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>21799020</v>
       </c>
@@ -92271,7 +92273,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>21869936</v>
       </c>
@@ -92282,7 +92284,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>21799076</v>
       </c>
@@ -92293,7 +92295,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>21795155</v>
       </c>
@@ -92304,7 +92306,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>21794557</v>
       </c>
@@ -92315,7 +92317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>21866489</v>
       </c>
@@ -92326,7 +92328,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>21847646</v>
       </c>
@@ -92340,7 +92342,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>21793547</v>
       </c>
@@ -92351,7 +92353,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>21851140</v>
       </c>
@@ -92362,7 +92364,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>21782430</v>
       </c>
@@ -92373,7 +92375,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>21884449</v>
       </c>
@@ -92384,7 +92386,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>21871757</v>
       </c>
@@ -92395,7 +92397,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>21797972</v>
       </c>
@@ -92406,7 +92408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>21793691</v>
       </c>
@@ -92417,7 +92419,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>21773544</v>
       </c>
@@ -92428,7 +92430,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>21835160</v>
       </c>
@@ -92439,7 +92441,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>21799314</v>
       </c>
@@ -92450,7 +92452,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>21792928</v>
       </c>
@@ -92461,7 +92463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>21799205</v>
       </c>
@@ -92472,7 +92474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>21798927</v>
       </c>
@@ -92483,7 +92485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>21805733</v>
       </c>
@@ -92494,7 +92496,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>21799059</v>
       </c>
@@ -92505,7 +92507,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>21798726</v>
       </c>
@@ -92519,7 +92521,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>21809360</v>
       </c>
@@ -92530,7 +92532,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>21793229</v>
       </c>
@@ -92541,7 +92543,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>21838181</v>
       </c>
@@ -92596,7 +92598,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>21788347</v>
       </c>
@@ -92607,7 +92609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>21795027</v>
       </c>
@@ -92618,7 +92620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>21847651</v>
       </c>
@@ -92629,7 +92631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>21792730</v>
       </c>
@@ -92640,7 +92642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>21793448</v>
       </c>
@@ -92651,7 +92653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>21793602</v>
       </c>
@@ -92662,7 +92664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>21835556</v>
       </c>
@@ -92673,7 +92675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>21793465</v>
       </c>
@@ -92684,7 +92686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>21793315</v>
       </c>
@@ -92695,7 +92697,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>21793656</v>
       </c>
@@ -92706,7 +92708,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>21798004</v>
       </c>
@@ -92717,7 +92719,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>21839431</v>
       </c>
@@ -92728,7 +92730,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>21847645</v>
       </c>
@@ -92739,7 +92741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>21783100</v>
       </c>
@@ -92750,7 +92752,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>21788603</v>
       </c>
@@ -92761,7 +92763,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>21792078</v>
       </c>
@@ -92772,7 +92774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>21793837</v>
       </c>
@@ -92783,7 +92785,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>21794520</v>
       </c>
@@ -92794,7 +92796,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>21798768</v>
       </c>
@@ -92805,7 +92807,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>21799272</v>
       </c>
@@ -92816,7 +92818,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>21804392</v>
       </c>
@@ -92827,7 +92829,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>21830713</v>
       </c>
@@ -92838,7 +92840,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>21835365</v>
       </c>
@@ -92849,7 +92851,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>21839798</v>
       </c>
@@ -92860,7 +92862,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>21849195</v>
       </c>
@@ -92871,7 +92873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>21847993</v>
       </c>
@@ -92882,7 +92884,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>21834253</v>
       </c>
@@ -92893,7 +92895,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>21799121</v>
       </c>
@@ -92904,7 +92906,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>21793941</v>
       </c>
@@ -92915,7 +92917,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>21839801</v>
       </c>
@@ -92926,7 +92928,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>21794112</v>
       </c>
@@ -92937,7 +92939,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>21835021</v>
       </c>
@@ -92948,7 +92950,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>21793916</v>
       </c>
@@ -92959,7 +92961,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>21797294</v>
       </c>
@@ -92973,7 +92975,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>21835418</v>
       </c>
@@ -92984,7 +92986,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>21798728</v>
       </c>
@@ -92995,7 +92997,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>21799240</v>
       </c>
@@ -93006,7 +93008,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>21799007</v>
       </c>
@@ -93017,7 +93019,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>21799100</v>
       </c>
@@ -93028,7 +93030,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>21798638</v>
       </c>
@@ -93039,7 +93041,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>21838773</v>
       </c>
@@ -93050,7 +93052,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>21884417</v>
       </c>
@@ -93061,7 +93063,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>21848102</v>
       </c>
@@ -93072,7 +93074,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>21798634</v>
       </c>
@@ -93086,7 +93088,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>21872724</v>
       </c>
@@ -93097,7 +93099,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>21849095</v>
       </c>
@@ -93108,7 +93110,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>21810878</v>
       </c>
@@ -93119,7 +93121,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>21789855</v>
       </c>
@@ -93130,7 +93132,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>21847671</v>
       </c>
@@ -93141,7 +93143,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>21788237</v>
       </c>
@@ -93152,7 +93154,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>21789410</v>
       </c>
@@ -93163,7 +93165,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>21872752</v>
       </c>
@@ -93174,7 +93176,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>21799316</v>
       </c>
@@ -93185,7 +93187,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>21839268</v>
       </c>
@@ -93196,7 +93198,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>21852267</v>
       </c>
@@ -93207,7 +93209,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>21782360</v>
       </c>
@@ -93218,7 +93220,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>21780868</v>
       </c>
@@ -93229,7 +93231,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>21798877</v>
       </c>
@@ -93240,7 +93242,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>21851583</v>
       </c>
@@ -93251,7 +93253,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>21836888</v>
       </c>
@@ -93262,7 +93264,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>21825397</v>
       </c>
@@ -93273,7 +93275,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>21795180</v>
       </c>
@@ -93284,7 +93286,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>21783162</v>
       </c>
@@ -93295,7 +93297,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>21798922</v>
       </c>
@@ -93306,7 +93308,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>21792643</v>
       </c>
@@ -93317,7 +93319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>21792783</v>
       </c>
@@ -93328,7 +93330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>21794688</v>
       </c>
@@ -93339,7 +93341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>21836916</v>
       </c>
@@ -93350,7 +93352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>21781778</v>
       </c>
@@ -93361,7 +93363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>21782304</v>
       </c>
@@ -93372,7 +93374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>21782535</v>
       </c>
@@ -93383,7 +93385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>21783856</v>
       </c>
@@ -93394,7 +93396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>21783971</v>
       </c>
@@ -93405,7 +93407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>21788214</v>
       </c>
@@ -93416,7 +93418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>21788627</v>
       </c>
@@ -93427,7 +93429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>21788678</v>
       </c>
@@ -93438,7 +93440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>21788684</v>
       </c>
@@ -93449,7 +93451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>21788862</v>
       </c>
@@ -93460,7 +93462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>21792623</v>
       </c>
@@ -93471,7 +93473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>21792670</v>
       </c>
@@ -93482,7 +93484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>21792681</v>
       </c>
@@ -93493,7 +93495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>21792734</v>
       </c>
@@ -93504,7 +93506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>21792745</v>
       </c>
@@ -93515,7 +93517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>21792769</v>
       </c>
@@ -93526,7 +93528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>21792823</v>
       </c>
@@ -93537,7 +93539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>21792927</v>
       </c>
@@ -93548,7 +93550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>21792974</v>
       </c>
@@ -93559,7 +93561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>21792994</v>
       </c>
@@ -93570,7 +93572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>21793030</v>
       </c>
@@ -93581,7 +93583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>21793064</v>
       </c>
@@ -93592,7 +93594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>21793120</v>
       </c>
@@ -93603,7 +93605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>21793176</v>
       </c>
@@ -93614,7 +93616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>21793216</v>
       </c>
@@ -93625,7 +93627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>21793393</v>
       </c>
@@ -93636,7 +93638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>21793614</v>
       </c>
@@ -93647,7 +93649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>21793746</v>
       </c>
@@ -93658,7 +93660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>21793952</v>
       </c>
@@ -93669,7 +93671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>21794041</v>
       </c>
@@ -93680,7 +93682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>21794257</v>
       </c>
@@ -93691,7 +93693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>21794357</v>
       </c>
@@ -93702,7 +93704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>21794390</v>
       </c>
@@ -93713,7 +93715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>21794451</v>
       </c>
@@ -93724,7 +93726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>21794487</v>
       </c>
@@ -93735,7 +93737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>21794598</v>
       </c>
@@ -93746,7 +93748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>21794667</v>
       </c>
@@ -93757,7 +93759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>21794668</v>
       </c>
@@ -93768,7 +93770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>21794711</v>
       </c>
@@ -93779,7 +93781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>21794963</v>
       </c>
@@ -93790,7 +93792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>21795266</v>
       </c>
@@ -93801,7 +93803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>21795329</v>
       </c>
@@ -93812,7 +93814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>21796383</v>
       </c>
@@ -93823,7 +93825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>21797293</v>
       </c>
@@ -93834,7 +93836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>21798636</v>
       </c>
@@ -93845,7 +93847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>21798647</v>
       </c>
@@ -93856,7 +93858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>21798662</v>
       </c>
@@ -93867,7 +93869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>21798749</v>
       </c>
@@ -93878,7 +93880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>21798748</v>
       </c>
@@ -93889,7 +93891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>21798774</v>
       </c>
@@ -93900,7 +93902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>21798844</v>
       </c>
@@ -93911,7 +93913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>21798883</v>
       </c>
@@ -93922,7 +93924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>21798976</v>
       </c>
@@ -93933,7 +93935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>21798996</v>
       </c>
@@ -93944,7 +93946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>21799046</v>
       </c>
@@ -93955,7 +93957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>21799119</v>
       </c>
@@ -93966,7 +93968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>21799657</v>
       </c>
@@ -93977,7 +93979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>21800171</v>
       </c>
@@ -93988,7 +93990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>21801814</v>
       </c>
@@ -93999,7 +94001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>21805701</v>
       </c>
@@ -94010,7 +94012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>21806806</v>
       </c>
@@ -94021,7 +94023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>21809359</v>
       </c>
@@ -94032,7 +94034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>21810670</v>
       </c>
@@ -94043,7 +94045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>21811246</v>
       </c>
@@ -94054,7 +94056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>21823798</v>
       </c>
@@ -94065,7 +94067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>21825389</v>
       </c>
@@ -94076,7 +94078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>21826991</v>
       </c>
@@ -94087,7 +94089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>21834156</v>
       </c>
@@ -94098,7 +94100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>21835308</v>
       </c>
@@ -94109,7 +94111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>21835714</v>
       </c>
@@ -94120,7 +94122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>21835849</v>
       </c>
@@ -94131,7 +94133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>21838728</v>
       </c>
@@ -94142,7 +94144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>21838749</v>
       </c>
@@ -94153,7 +94155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>21838971</v>
       </c>
@@ -94164,7 +94166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>21839285</v>
       </c>
@@ -94175,7 +94177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>21839452</v>
       </c>
@@ -94186,7 +94188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>21841751</v>
       </c>
@@ -94197,7 +94199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>21847676</v>
       </c>
@@ -94208,7 +94210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>21849113</v>
       </c>
@@ -94219,7 +94221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>21850166</v>
       </c>
@@ -94230,7 +94232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>21850327</v>
       </c>
@@ -94241,7 +94243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>21850482</v>
       </c>
@@ -94252,7 +94254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>21853466</v>
       </c>
@@ -94263,7 +94265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>21869567</v>
       </c>
@@ -94274,7 +94276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>21871342</v>
       </c>
@@ -94285,7 +94287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>21872863</v>
       </c>
@@ -94296,7 +94298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>21877466</v>
       </c>
@@ -94307,7 +94309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>21877506</v>
       </c>
@@ -94318,7 +94320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>21877521</v>
       </c>
@@ -94329,7 +94331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>21879739</v>
       </c>
@@ -94340,7 +94342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>21887944</v>
       </c>
@@ -94351,7 +94353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>21792988</v>
       </c>
@@ -94362,7 +94364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>21787725</v>
       </c>
@@ -94373,7 +94375,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>21792672</v>
       </c>
@@ -94384,7 +94386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>21798730</v>
       </c>
@@ -94395,7 +94397,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>21798699</v>
       </c>
@@ -94406,7 +94408,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>21799109</v>
       </c>
@@ -94417,7 +94419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>21799070</v>
       </c>
@@ -94428,7 +94430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>21794909</v>
       </c>
@@ -94439,7 +94441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>21795248</v>
       </c>
@@ -94450,7 +94452,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>21793131</v>
       </c>
@@ -94461,7 +94463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>21807411</v>
       </c>
@@ -94472,7 +94474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>21828345</v>
       </c>
@@ -94494,7 +94496,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>21792647</v>
       </c>
@@ -94505,7 +94507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>21798856</v>
       </c>
@@ -94516,7 +94518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>21805742</v>
       </c>
@@ -94527,7 +94529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>21811219</v>
       </c>
@@ -94538,7 +94540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>21792613</v>
       </c>
@@ -94549,7 +94551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>21793478</v>
       </c>
@@ -94560,7 +94562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>21798343</v>
       </c>
@@ -94571,7 +94573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>21798650</v>
       </c>
@@ -94582,7 +94584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>21810906</v>
       </c>
@@ -94593,7 +94595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>21838778</v>
       </c>
@@ -94616,7 +94618,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A44:E967" xr:uid="{895A2234-D396-B741-8CD6-9357BFEECD9A}"/>
+  <autoFilter ref="A44:E967" xr:uid="{895A2234-D396-B741-8CD6-9357BFEECD9A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="405"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:B967">
     <sortCondition ref="B45:B967"/>
   </sortState>

--- a/kodovani/OE_all_kodovani.xlsx
+++ b/kodovani/OE_all_kodovani.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annamatejkova/Desktop/projekt alkohol/Nepiti/kodovani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FC5531-E958-D644-B1DE-15D901D91AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A871A1-C367-E24F-9581-007D0B0192B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16380" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7326" uniqueCount="2224">
   <si>
     <t>napil jsem se</t>
   </si>
@@ -6716,6 +6716,12 @@
   </si>
   <si>
     <t>Nepociťuji důvod / nenapadlo mě to</t>
+  </si>
+  <si>
+    <t>N %</t>
+  </si>
+  <si>
+    <t>302 - 307</t>
   </si>
 </sst>
 </file>
@@ -6896,7 +6902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6937,6 +6943,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -22838,19 +22846,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF8C145-F05D-5E4D-B0ED-4C8CC48B7836}">
-  <dimension ref="A1:F1072"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1037" sqref="C1037"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="159" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1071" sqref="B1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
@@ -22858,7 +22870,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -22866,7 +22878,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -22874,7 +22886,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -22882,11 +22894,23 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2086</v>
       </c>
@@ -22896,8 +22920,30 @@
       <c r="C6" s="12" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6" s="31" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G6">
+        <f>$C$9</f>
+        <v>452</v>
+      </c>
+      <c r="H6" s="27">
+        <f>(G6/$G$22)*100</f>
+        <v>61.580381471389643</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>2083</v>
+      </c>
+      <c r="K6">
+        <f>$C$9</f>
+        <v>452</v>
+      </c>
+      <c r="L6" s="27">
+        <f>(K6/$K$22)*100</f>
+        <v>64.387464387464391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2082</v>
       </c>
@@ -22908,8 +22954,30 @@
         <f>COUNTIF($C$51:$C$1072,B7)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" s="31" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G7">
+        <f>$C$10</f>
+        <v>24</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:H20" si="0">(G7/$G$22)*100</f>
+        <v>3.2697547683923704</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K7">
+        <f>$C$13</f>
+        <v>11</v>
+      </c>
+      <c r="L7" s="27">
+        <f>(K7/$K$22)*100</f>
+        <v>1.566951566951567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2085</v>
       </c>
@@ -22920,8 +22988,30 @@
         <f>COUNTIF($C$51:$C$1072,B8)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" s="31" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G8">
+        <f>$C$13</f>
+        <v>11</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.4986376021798364</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K8">
+        <f>$C$14</f>
+        <v>19</v>
+      </c>
+      <c r="L8" s="27">
+        <f>(K8/$K$22)*100</f>
+        <v>2.7065527065527064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2083</v>
       </c>
@@ -22932,8 +23022,33 @@
         <f>COUNTIF($C$51:$C$1072,B9)</f>
         <v>452</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F9" s="31" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G9">
+        <f>$C$14</f>
+        <v>19</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>2.588555858310627</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K9">
+        <f>$C$15+G11+G12+G13+G14+G15</f>
+        <v>93</v>
+      </c>
+      <c r="L9" s="27">
+        <f>(K9/$K$22)*100</f>
+        <v>13.247863247863249</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2084</v>
       </c>
@@ -22944,8 +23059,54 @@
         <f>COUNTIF($C$51:$C$1072,B10)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="31" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G10">
+        <f>$C$15</f>
+        <v>26</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>3.5422343324250685</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K10">
+        <f>$C$22</f>
+        <v>56</v>
+      </c>
+      <c r="L10" s="27">
+        <f>(K10/$K$22)*100</f>
+        <v>7.9772079772079767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F11" s="31" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G11">
+        <f>$C$16</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="0"/>
+        <v>2.7247956403269753</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>2079</v>
+      </c>
+      <c r="K11">
+        <f>$C$35</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="27">
+        <f>(K11/$K$22)*100</f>
+        <v>0.42735042735042739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2081</v>
       </c>
@@ -22954,8 +23115,30 @@
         <f>SUM(C13:C22)</f>
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" s="31" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G12">
+        <f>$C$17</f>
+        <v>17</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="0"/>
+        <v>2.3160762942779289</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K12">
+        <f>$C$36</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="27">
+        <f>(K12/$K$22)*100</f>
+        <v>0.56980056980056981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2066</v>
       </c>
@@ -22963,11 +23146,33 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C20" si="0">COUNTIF($C$51:$C$1072,B13)</f>
+        <f t="shared" ref="C13:C20" si="1">COUNTIF($C$51:$C$1072,B13)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F13" s="31" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G13">
+        <f>$C$18</f>
+        <v>13</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="0"/>
+        <v>1.7711171662125342</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>2077</v>
+      </c>
+      <c r="K13">
+        <f>$C$38</f>
+        <v>64</v>
+      </c>
+      <c r="L13" s="27">
+        <f>(K13/$K$22)*100</f>
+        <v>9.116809116809117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2052</v>
       </c>
@@ -22975,11 +23180,22 @@
         <v>301</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G14">
+        <f>$C$19</f>
+        <v>8</v>
+      </c>
+      <c r="H14" s="27">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.0899182561307901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2053</v>
       </c>
@@ -22987,11 +23203,22 @@
         <v>302</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G15">
+        <f>$C$20</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2261580381471391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2054</v>
       </c>
@@ -22999,11 +23226,22 @@
         <v>303</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G16">
+        <f>$C$22</f>
+        <v>56</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.6294277929155312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2055</v>
       </c>
@@ -23011,11 +23249,22 @@
         <v>304</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G17">
+        <f>$C$30</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="27">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.0899182561307901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2067</v>
       </c>
@@ -23023,11 +23272,22 @@
         <v>305</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G18">
+        <f>$C$35</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="27">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.40871934604904631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2092</v>
       </c>
@@ -23035,11 +23295,22 @@
         <v>306</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G19">
+        <f>$C$36</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="27">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.54495912806539504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2071</v>
       </c>
@@ -23047,11 +23318,22 @@
         <v>307</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G20">
+        <f>$C$38</f>
+        <v>64</v>
+      </c>
+      <c r="H20" s="27">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.7193460490463206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>2068</v>
       </c>
@@ -23062,8 +23344,30 @@
         <f>SUM(C23:C28)</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G6:G20)</f>
+        <v>734</v>
+      </c>
+      <c r="H22" s="27">
+        <f>SUM(H6:H20)</f>
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2177</v>
+      </c>
+      <c r="K22">
+        <f>SUM(K6:K13)</f>
+        <v>702</v>
+      </c>
+      <c r="L22" s="27">
+        <f>SUM(L6:L13)</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>2075</v>
       </c>
@@ -23071,11 +23375,11 @@
         <v>311</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" ref="C23:C28" si="1">COUNTIF($C$51:$C$1072,B23)</f>
+        <f t="shared" ref="C23:C28" si="2">COUNTIF($C$51:$C$1072,B23)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>2074</v>
       </c>
@@ -23083,11 +23387,11 @@
         <v>312</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>2072</v>
       </c>
@@ -23095,11 +23399,11 @@
         <v>313</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>2069</v>
       </c>
@@ -23107,11 +23411,11 @@
         <v>314</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>2070</v>
       </c>
@@ -23119,11 +23423,11 @@
         <v>315</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>2073</v>
       </c>
@@ -23131,11 +23435,11 @@
         <v>316</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>2080</v>
       </c>
@@ -23145,7 +23449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2090</v>
       </c>
@@ -23157,7 +23461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2093</v>
       </c>
@@ -23345,7 +23649,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>21773539</v>
       </c>
@@ -23356,7 +23660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21773544</v>
       </c>
@@ -23367,7 +23671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21774044</v>
       </c>
@@ -23378,7 +23682,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>21775089</v>
       </c>
@@ -23392,7 +23696,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>21775712</v>
       </c>
@@ -23403,7 +23707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>21775722</v>
       </c>
@@ -23414,7 +23718,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>21776763</v>
       </c>
@@ -23425,7 +23729,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>21777100</v>
       </c>
@@ -23436,7 +23740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>21777936</v>
       </c>
@@ -23447,7 +23751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>21777943</v>
       </c>
@@ -23458,7 +23762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>21778130</v>
       </c>
@@ -23469,7 +23773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>21780293</v>
       </c>
@@ -23480,7 +23784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>21780791</v>
       </c>
@@ -23491,7 +23795,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>21780868</v>
       </c>
@@ -23502,7 +23806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>21781072</v>
       </c>
@@ -23513,7 +23817,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>21781092</v>
       </c>
@@ -23524,7 +23828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>21781302</v>
       </c>
@@ -23535,7 +23839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>21781778</v>
       </c>
@@ -23546,7 +23850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>21781913</v>
       </c>
@@ -23557,7 +23861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>21781926</v>
       </c>
@@ -23568,7 +23872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>21782133</v>
       </c>
@@ -23579,7 +23883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>21782236</v>
       </c>
@@ -23590,7 +23894,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>21782242</v>
       </c>
@@ -23601,7 +23905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>21782249</v>
       </c>
@@ -23612,7 +23916,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>21782259</v>
       </c>
@@ -23623,7 +23927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>21782269</v>
       </c>
@@ -23634,7 +23938,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>21782272</v>
       </c>
@@ -23645,7 +23949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>21782278</v>
       </c>
@@ -23659,7 +23963,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>21782304</v>
       </c>
@@ -23670,7 +23974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>21782314</v>
       </c>
@@ -23681,7 +23985,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21782316</v>
       </c>
@@ -23692,7 +23996,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21782328</v>
       </c>
@@ -23703,7 +24007,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21782360</v>
       </c>
@@ -23714,7 +24018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>21782395</v>
       </c>
@@ -23728,7 +24032,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>21782401</v>
       </c>
@@ -23739,7 +24043,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>21782426</v>
       </c>
@@ -23750,7 +24054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>21782430</v>
       </c>
@@ -23761,7 +24065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>21782440</v>
       </c>
@@ -23772,7 +24076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>21782453</v>
       </c>
@@ -23783,7 +24087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>21782484</v>
       </c>
@@ -23797,7 +24101,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>21782507</v>
       </c>
@@ -23808,7 +24112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>21782514</v>
       </c>
@@ -23817,7 +24121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>21782535</v>
       </c>
@@ -23828,7 +24132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>21782541</v>
       </c>
@@ -23839,7 +24143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>21782545</v>
       </c>
@@ -23850,7 +24154,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>21782594</v>
       </c>
@@ -23859,7 +24163,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>21782602</v>
       </c>
@@ -23868,7 +24172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>21782601</v>
       </c>
@@ -23879,7 +24183,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>21782626</v>
       </c>
@@ -23890,7 +24194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>21782231</v>
       </c>
@@ -23901,7 +24205,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>21782804</v>
       </c>
@@ -23910,7 +24214,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>21782814</v>
       </c>
@@ -23921,7 +24225,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>21782839</v>
       </c>
@@ -23932,7 +24236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>21782898</v>
       </c>
@@ -23941,7 +24245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>21782980</v>
       </c>
@@ -23952,7 +24256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>21783067</v>
       </c>
@@ -23963,7 +24267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>21783100</v>
       </c>
@@ -23974,7 +24278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>21783162</v>
       </c>
@@ -23985,7 +24289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>21783220</v>
       </c>
@@ -23996,7 +24300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>21783249</v>
       </c>
@@ -24007,7 +24311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>21783304</v>
       </c>
@@ -24018,7 +24322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>21783316</v>
       </c>
@@ -24029,7 +24333,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>21783335</v>
       </c>
@@ -24040,7 +24344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>21783424</v>
       </c>
@@ -24054,7 +24358,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>21783427</v>
       </c>
@@ -24065,7 +24369,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>21783766</v>
       </c>
@@ -24074,7 +24378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>21783825</v>
       </c>
@@ -24085,7 +24389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>21783856</v>
       </c>
@@ -24096,7 +24400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>21783874</v>
       </c>
@@ -24105,7 +24409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>21783915</v>
       </c>
@@ -24116,7 +24420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>21783971</v>
       </c>
@@ -24127,7 +24431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>21784107</v>
       </c>
@@ -24138,7 +24442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>21785848</v>
       </c>
@@ -24149,7 +24453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>21785878</v>
       </c>
@@ -24160,7 +24464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>21786348</v>
       </c>
@@ -24171,7 +24475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>21786597</v>
       </c>
@@ -24182,7 +24486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>21786700</v>
       </c>
@@ -24193,7 +24497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>21786950</v>
       </c>
@@ -24204,7 +24508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>21786952</v>
       </c>
@@ -24215,7 +24519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>21787092</v>
       </c>
@@ -24226,7 +24530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>21787563</v>
       </c>
@@ -24237,7 +24541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>21787706</v>
       </c>
@@ -24248,7 +24552,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>21787725</v>
       </c>
@@ -24273,7 +24577,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>21787738</v>
       </c>
@@ -24284,7 +24588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>21787776</v>
       </c>
@@ -24293,7 +24597,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>21787785</v>
       </c>
@@ -24304,7 +24608,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>21787802</v>
       </c>
@@ -24315,7 +24619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>21787811</v>
       </c>
@@ -24324,7 +24628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>21787866</v>
       </c>
@@ -24335,7 +24639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>21787867</v>
       </c>
@@ -24346,7 +24650,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>21787928</v>
       </c>
@@ -24355,7 +24659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21787947</v>
       </c>
@@ -24380,7 +24684,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>21787992</v>
       </c>
@@ -24391,7 +24695,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>21788056</v>
       </c>
@@ -24402,7 +24706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>21788065</v>
       </c>
@@ -24413,7 +24717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>21788099</v>
       </c>
@@ -24424,7 +24728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>21788129</v>
       </c>
@@ -24435,7 +24739,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>21788214</v>
       </c>
@@ -24446,7 +24750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>21788237</v>
       </c>
@@ -24457,7 +24761,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>21788321</v>
       </c>
@@ -24468,7 +24772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>21788324</v>
       </c>
@@ -24482,7 +24786,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>21788343</v>
       </c>
@@ -24493,7 +24797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>21788347</v>
       </c>
@@ -24504,7 +24808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>21788350</v>
       </c>
@@ -24515,7 +24819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>21788391</v>
       </c>
@@ -24526,7 +24830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>21788409</v>
       </c>
@@ -24537,7 +24841,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>21787877</v>
       </c>
@@ -24548,7 +24852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>21788446</v>
       </c>
@@ -24559,7 +24863,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>21788462</v>
       </c>
@@ -24568,7 +24872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21788553</v>
       </c>
@@ -24579,7 +24883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>21788603</v>
       </c>
@@ -24590,7 +24894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>21788627</v>
       </c>
@@ -24601,7 +24905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>21788678</v>
       </c>
@@ -24612,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>21788684</v>
       </c>
@@ -24623,7 +24927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>21788686</v>
       </c>
@@ -24634,7 +24938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>21788731</v>
       </c>
@@ -24645,7 +24949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>21788742</v>
       </c>
@@ -24656,7 +24960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>21788743</v>
       </c>
@@ -24667,7 +24971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>21788758</v>
       </c>
@@ -24678,7 +24982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>21788777</v>
       </c>
@@ -24689,7 +24993,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>21788810</v>
       </c>
@@ -24700,7 +25004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>21788839</v>
       </c>
@@ -24711,7 +25015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>21788862</v>
       </c>
@@ -24722,7 +25026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>21788863</v>
       </c>
@@ -24731,7 +25035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>21788965</v>
       </c>
@@ -24742,7 +25046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>21788974</v>
       </c>
@@ -24753,7 +25057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>21789000</v>
       </c>
@@ -24762,7 +25066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>21789019</v>
       </c>
@@ -24773,7 +25077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>21789036</v>
       </c>
@@ -24784,7 +25088,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>21789164</v>
       </c>
@@ -24795,7 +25099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>21789170</v>
       </c>
@@ -24806,7 +25110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>21789209</v>
       </c>
@@ -24817,7 +25121,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>21789272</v>
       </c>
@@ -24828,7 +25132,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>21789311</v>
       </c>
@@ -24837,7 +25141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>21789387</v>
       </c>
@@ -24848,7 +25152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>21789410</v>
       </c>
@@ -24859,7 +25163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>21789424</v>
       </c>
@@ -24870,7 +25174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>21789431</v>
       </c>
@@ -24879,7 +25183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>21789437</v>
       </c>
@@ -24890,7 +25194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>21789458</v>
       </c>
@@ -24899,7 +25203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>21789484</v>
       </c>
@@ -24910,7 +25214,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>21789541</v>
       </c>
@@ -24924,7 +25228,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>21789546</v>
       </c>
@@ -24935,7 +25239,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>21789575</v>
       </c>
@@ -24946,7 +25250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>21789717</v>
       </c>
@@ -24957,7 +25261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>21789737</v>
       </c>
@@ -24968,7 +25272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>21789846</v>
       </c>
@@ -24979,7 +25283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>21789855</v>
       </c>
@@ -24990,7 +25294,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>21790761</v>
       </c>
@@ -24999,7 +25303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>21792078</v>
       </c>
@@ -25010,7 +25314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>21792356</v>
       </c>
@@ -25019,7 +25323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>21788251</v>
       </c>
@@ -25030,7 +25334,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>21792610</v>
       </c>
@@ -25044,7 +25348,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>21792613</v>
       </c>
@@ -25055,7 +25359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>21792617</v>
       </c>
@@ -25066,7 +25370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>21792623</v>
       </c>
@@ -25077,7 +25381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>21792627</v>
       </c>
@@ -25088,7 +25392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>21792643</v>
       </c>
@@ -25099,7 +25403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>21792647</v>
       </c>
@@ -25110,7 +25414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>21792656</v>
       </c>
@@ -25121,7 +25425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>21792661</v>
       </c>
@@ -25132,7 +25436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>21792662</v>
       </c>
@@ -25143,7 +25447,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>21792651</v>
       </c>
@@ -25154,7 +25458,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>21792670</v>
       </c>
@@ -25168,7 +25472,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>21792672</v>
       </c>
@@ -25179,7 +25483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>21792675</v>
       </c>
@@ -25190,7 +25494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21792679</v>
       </c>
@@ -25201,7 +25505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>21792681</v>
       </c>
@@ -25212,7 +25516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>21792684</v>
       </c>
@@ -25223,7 +25527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>21792686</v>
       </c>
@@ -25234,7 +25538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>21792714</v>
       </c>
@@ -25245,7 +25549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>21792719</v>
       </c>
@@ -25256,7 +25560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>21792722</v>
       </c>
@@ -25267,7 +25571,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>21792723</v>
       </c>
@@ -25278,7 +25582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>21792726</v>
       </c>
@@ -25289,7 +25593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>21792725</v>
       </c>
@@ -25300,7 +25604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>21792729</v>
       </c>
@@ -25309,7 +25613,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>21792730</v>
       </c>
@@ -25320,7 +25624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>21792734</v>
       </c>
@@ -25331,7 +25635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>21792740</v>
       </c>
@@ -25342,7 +25646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>21792743</v>
       </c>
@@ -25353,7 +25657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>21792745</v>
       </c>
@@ -25364,7 +25668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>21792742</v>
       </c>
@@ -25373,7 +25677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>21792747</v>
       </c>
@@ -25384,7 +25688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>21792753</v>
       </c>
@@ -25398,7 +25702,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>21792760</v>
       </c>
@@ -25409,7 +25713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>21792767</v>
       </c>
@@ -25418,7 +25722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>21792769</v>
       </c>
@@ -25429,7 +25733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>21792771</v>
       </c>
@@ -25440,7 +25744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>21792768</v>
       </c>
@@ -25451,7 +25755,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>21792773</v>
       </c>
@@ -25465,7 +25769,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>21792775</v>
       </c>
@@ -25476,7 +25780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>21792783</v>
       </c>
@@ -25487,7 +25791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>21792790</v>
       </c>
@@ -25496,7 +25800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>21792798</v>
       </c>
@@ -25507,7 +25811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>21792813</v>
       </c>
@@ -25518,7 +25822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>21792821</v>
       </c>
@@ -25529,7 +25833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>21792823</v>
       </c>
@@ -25540,7 +25844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>21792825</v>
       </c>
@@ -25549,7 +25853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>21792831</v>
       </c>
@@ -25560,7 +25864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>21792836</v>
       </c>
@@ -25569,7 +25873,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>21792850</v>
       </c>
@@ -25578,7 +25882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>21792860</v>
       </c>
@@ -25589,7 +25893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>21792864</v>
       </c>
@@ -25600,7 +25904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>21792865</v>
       </c>
@@ -25611,7 +25915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>21792868</v>
       </c>
@@ -25620,7 +25924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>21792878</v>
       </c>
@@ -25631,7 +25935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>21792897</v>
       </c>
@@ -25640,7 +25944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>21792900</v>
       </c>
@@ -25651,7 +25955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>21792901</v>
       </c>
@@ -25662,7 +25966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>21792908</v>
       </c>
@@ -25673,7 +25977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>21792909</v>
       </c>
@@ -25684,7 +25988,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>21792910</v>
       </c>
@@ -25695,7 +25999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>21792912</v>
       </c>
@@ -25706,7 +26010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>21792914</v>
       </c>
@@ -25717,7 +26021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>21792924</v>
       </c>
@@ -25728,7 +26032,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>21792926</v>
       </c>
@@ -25739,7 +26043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>21792927</v>
       </c>
@@ -25750,7 +26054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>21792928</v>
       </c>
@@ -25761,7 +26065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>21792931</v>
       </c>
@@ -25772,7 +26076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>21792939</v>
       </c>
@@ -25783,7 +26087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>21792940</v>
       </c>
@@ -25792,7 +26096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>21792941</v>
       </c>
@@ -25803,7 +26107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>21792955</v>
       </c>
@@ -25814,7 +26118,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>21792956</v>
       </c>
@@ -25825,7 +26129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>21792963</v>
       </c>
@@ -25836,7 +26140,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>21792968</v>
       </c>
@@ -25847,7 +26151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>21792974</v>
       </c>
@@ -25858,7 +26162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>21792988</v>
       </c>
@@ -25869,7 +26173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>21792994</v>
       </c>
@@ -25880,7 +26184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>21793012</v>
       </c>
@@ -25891,7 +26195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>21793022</v>
       </c>
@@ -25902,7 +26206,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>21793030</v>
       </c>
@@ -25913,7 +26217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>21793047</v>
       </c>
@@ -25924,7 +26228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>21793058</v>
       </c>
@@ -25935,7 +26239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>21793064</v>
       </c>
@@ -25946,7 +26250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>21793063</v>
       </c>
@@ -25957,7 +26261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>21793080</v>
       </c>
@@ -25968,7 +26272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>21793102</v>
       </c>
@@ -25979,7 +26283,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>21793106</v>
       </c>
@@ -25993,7 +26297,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>21793113</v>
       </c>
@@ -26002,7 +26306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>21793118</v>
       </c>
@@ -26011,7 +26315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>21793120</v>
       </c>
@@ -26022,7 +26326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>21793123</v>
       </c>
@@ -26033,7 +26337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>21793125</v>
       </c>
@@ -26044,7 +26348,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>21793127</v>
       </c>
@@ -26055,7 +26359,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>21793131</v>
       </c>
@@ -26066,7 +26370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>21793156</v>
       </c>
@@ -26077,7 +26381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>21793165</v>
       </c>
@@ -26088,7 +26392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>21793176</v>
       </c>
@@ -26099,7 +26403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>21793200</v>
       </c>
@@ -26110,7 +26414,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>21793204</v>
       </c>
@@ -26121,7 +26425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>21793217</v>
       </c>
@@ -26132,7 +26436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>21793216</v>
       </c>
@@ -26143,7 +26447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>21793229</v>
       </c>
@@ -26154,7 +26458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>21793233</v>
       </c>
@@ -26165,7 +26469,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>21793253</v>
       </c>
@@ -26176,7 +26480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>21793266</v>
       </c>
@@ -26187,7 +26491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>21793272</v>
       </c>
@@ -26198,7 +26502,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>21793306</v>
       </c>
@@ -26207,7 +26511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>21793315</v>
       </c>
@@ -26218,7 +26522,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>21793318</v>
       </c>
@@ -26232,7 +26536,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>21793337</v>
       </c>
@@ -26243,7 +26547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>21793345</v>
       </c>
@@ -26254,7 +26558,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>21793365</v>
       </c>
@@ -26265,7 +26569,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>21793372</v>
       </c>
@@ -26276,7 +26580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>21793377</v>
       </c>
@@ -26287,7 +26591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>21793383</v>
       </c>
@@ -26296,7 +26600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>21793393</v>
       </c>
@@ -26307,7 +26611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>21793403</v>
       </c>
@@ -26318,7 +26622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>21793422</v>
       </c>
@@ -26329,7 +26633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>21793437</v>
       </c>
@@ -26340,7 +26644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>21793448</v>
       </c>
@@ -26351,7 +26655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>21793454</v>
       </c>
@@ -26362,7 +26666,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>21793465</v>
       </c>
@@ -26373,7 +26677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>21793468</v>
       </c>
@@ -26384,7 +26688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>21793478</v>
       </c>
@@ -26395,7 +26699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>21793487</v>
       </c>
@@ -26406,7 +26710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>21793512</v>
       </c>
@@ -26417,7 +26721,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>21793522</v>
       </c>
@@ -26428,7 +26732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>21793528</v>
       </c>
@@ -26439,7 +26743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>21793531</v>
       </c>
@@ -26450,7 +26754,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>21793543</v>
       </c>
@@ -26464,7 +26768,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>21793547</v>
       </c>
@@ -26475,7 +26779,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>21793548</v>
       </c>
@@ -26486,7 +26790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>21793587</v>
       </c>
@@ -26497,7 +26801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>21793596</v>
       </c>
@@ -26508,7 +26812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>21793602</v>
       </c>
@@ -26522,7 +26826,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>21793613</v>
       </c>
@@ -26531,7 +26835,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>21793614</v>
       </c>
@@ -26542,7 +26846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>21793618</v>
       </c>
@@ -26551,7 +26855,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>21793628</v>
       </c>
@@ -26560,7 +26864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>21793642</v>
       </c>
@@ -26588,7 +26892,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>21793659</v>
       </c>
@@ -26599,7 +26903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>21793671</v>
       </c>
@@ -26610,7 +26914,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>21793687</v>
       </c>
@@ -26635,7 +26939,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>21793691</v>
       </c>
@@ -26646,7 +26950,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>21793739</v>
       </c>
@@ -26661,7 +26965,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>21793743</v>
       </c>
@@ -26672,7 +26976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>21793746</v>
       </c>
@@ -26683,7 +26987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>21793757</v>
       </c>
@@ -26692,7 +26996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>21793771</v>
       </c>
@@ -26703,7 +27007,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>21793792</v>
       </c>
@@ -26714,7 +27018,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>21793800</v>
       </c>
@@ -26725,7 +27029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>21793806</v>
       </c>
@@ -26736,7 +27040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>21793821</v>
       </c>
@@ -26750,7 +27054,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>21793835</v>
       </c>
@@ -26761,7 +27065,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>21793837</v>
       </c>
@@ -26772,7 +27076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>21793852</v>
       </c>
@@ -26783,7 +27087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>21793920</v>
       </c>
@@ -26792,7 +27096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>21793925</v>
       </c>
@@ -26803,7 +27107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>21793916</v>
       </c>
@@ -26814,7 +27118,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>21793941</v>
       </c>
@@ -26825,7 +27129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>21793952</v>
       </c>
@@ -26836,7 +27140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>21793951</v>
       </c>
@@ -26847,7 +27151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>21793955</v>
       </c>
@@ -26856,7 +27160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>21793962</v>
       </c>
@@ -26867,7 +27171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>21793964</v>
       </c>
@@ -26878,7 +27182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>21794005</v>
       </c>
@@ -26889,7 +27193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>21794015</v>
       </c>
@@ -26900,7 +27204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>21794019</v>
       </c>
@@ -26911,7 +27215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>21794026</v>
       </c>
@@ -26922,7 +27226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>21794031</v>
       </c>
@@ -26933,7 +27237,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>21794041</v>
       </c>
@@ -26944,7 +27248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>21794045</v>
       </c>
@@ -26955,7 +27259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>21794051</v>
       </c>
@@ -26966,7 +27270,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>21794032</v>
       </c>
@@ -26977,7 +27281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>21794099</v>
       </c>
@@ -26991,7 +27295,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>21794105</v>
       </c>
@@ -27002,7 +27306,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>21794111</v>
       </c>
@@ -27013,7 +27317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>21794112</v>
       </c>
@@ -27024,7 +27328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>21793827</v>
       </c>
@@ -27035,7 +27339,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>21794125</v>
       </c>
@@ -27046,7 +27350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>21794132</v>
       </c>
@@ -27057,7 +27361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>21794134</v>
       </c>
@@ -27068,7 +27372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>21794139</v>
       </c>
@@ -27077,7 +27381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>21794161</v>
       </c>
@@ -27088,7 +27392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>21794166</v>
       </c>
@@ -27099,7 +27403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>21794199</v>
       </c>
@@ -27108,7 +27412,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>21794203</v>
       </c>
@@ -27117,7 +27421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>21794205</v>
       </c>
@@ -27128,7 +27432,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>21794207</v>
       </c>
@@ -27139,7 +27443,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>21794211</v>
       </c>
@@ -27153,7 +27457,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>21794215</v>
       </c>
@@ -27164,7 +27468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>21794217</v>
       </c>
@@ -27175,7 +27479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>21794230</v>
       </c>
@@ -27186,7 +27490,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>21794245</v>
       </c>
@@ -27197,7 +27501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>21794250</v>
       </c>
@@ -27206,7 +27510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>21794257</v>
       </c>
@@ -27217,7 +27521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>21794264</v>
       </c>
@@ -27228,7 +27532,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>21794303</v>
       </c>
@@ -27237,7 +27541,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>21794311</v>
       </c>
@@ -27248,7 +27552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>21794315</v>
       </c>
@@ -27257,7 +27561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>21794343</v>
       </c>
@@ -27268,7 +27572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>21794347</v>
       </c>
@@ -27279,7 +27583,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>21794353</v>
       </c>
@@ -27290,7 +27594,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>21794354</v>
       </c>
@@ -27301,7 +27605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>21794357</v>
       </c>
@@ -27312,7 +27616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>21794364</v>
       </c>
@@ -27323,7 +27627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>21794371</v>
       </c>
@@ -27334,7 +27638,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>21794372</v>
       </c>
@@ -27345,7 +27649,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>21794386</v>
       </c>
@@ -27356,7 +27660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>21794390</v>
       </c>
@@ -27367,7 +27671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>21794397</v>
       </c>
@@ -27378,7 +27682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>21794407</v>
       </c>
@@ -27389,7 +27693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>21794431</v>
       </c>
@@ -27403,7 +27707,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>21794451</v>
       </c>
@@ -27414,7 +27718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>21794454</v>
       </c>
@@ -27425,7 +27729,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>21794466</v>
       </c>
@@ -27436,7 +27740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>21794474</v>
       </c>
@@ -27445,7 +27749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>21794487</v>
       </c>
@@ -27456,7 +27760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>21794500</v>
       </c>
@@ -27467,7 +27771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>21794520</v>
       </c>
@@ -27478,7 +27782,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>21794531</v>
       </c>
@@ -27487,7 +27791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>21794557</v>
       </c>
@@ -27498,7 +27802,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>21794582</v>
       </c>
@@ -27509,7 +27813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>21794586</v>
       </c>
@@ -27520,7 +27824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>21794589</v>
       </c>
@@ -27531,7 +27835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>21794598</v>
       </c>
@@ -27542,7 +27846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>21794603</v>
       </c>
@@ -27553,7 +27857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>21794615</v>
       </c>
@@ -27564,7 +27868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>21794626</v>
       </c>
@@ -27578,7 +27882,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>21794667</v>
       </c>
@@ -27589,7 +27893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>21794668</v>
       </c>
@@ -27600,7 +27904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>21794688</v>
       </c>
@@ -27611,7 +27915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>21794710</v>
       </c>
@@ -27622,7 +27926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>21794711</v>
       </c>
@@ -27633,7 +27937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>21794725</v>
       </c>
@@ -27644,7 +27948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>21794753</v>
       </c>
@@ -27655,7 +27959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>21794776</v>
       </c>
@@ -27666,7 +27970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>21794797</v>
       </c>
@@ -27677,7 +27981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>21794813</v>
       </c>
@@ -27688,7 +27992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>21794821</v>
       </c>
@@ -27699,7 +28003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>21794851</v>
       </c>
@@ -27710,7 +28014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>21794883</v>
       </c>
@@ -27719,7 +28023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>21794885</v>
       </c>
@@ -27730,7 +28034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>21794886</v>
       </c>
@@ -27741,7 +28045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>21794889</v>
       </c>
@@ -27752,7 +28056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>21794894</v>
       </c>
@@ -27763,7 +28067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>21794902</v>
       </c>
@@ -27774,7 +28078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>21794909</v>
       </c>
@@ -27785,7 +28089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>21794921</v>
       </c>
@@ -27796,7 +28100,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>21794927</v>
       </c>
@@ -27807,7 +28111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>21794017</v>
       </c>
@@ -27818,7 +28122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>21794953</v>
       </c>
@@ -27829,7 +28133,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>21794955</v>
       </c>
@@ -27840,7 +28144,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>21794963</v>
       </c>
@@ -27851,7 +28155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>21795020</v>
       </c>
@@ -27862,7 +28166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>21795027</v>
       </c>
@@ -27873,7 +28177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>21795029</v>
       </c>
@@ -27884,7 +28188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>21795052</v>
       </c>
@@ -27895,7 +28199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>21795079</v>
       </c>
@@ -27906,7 +28210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>21795110</v>
       </c>
@@ -27917,7 +28221,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>21795138</v>
       </c>
@@ -27928,7 +28232,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>21795152</v>
       </c>
@@ -27939,7 +28243,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>21795155</v>
       </c>
@@ -27950,7 +28254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>21795164</v>
       </c>
@@ -27961,7 +28265,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>21795165</v>
       </c>
@@ -27975,7 +28279,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>21795166</v>
       </c>
@@ -27986,7 +28290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>21795162</v>
       </c>
@@ -28000,7 +28304,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>21795174</v>
       </c>
@@ -28011,7 +28315,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>21795180</v>
       </c>
@@ -28022,7 +28326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>21795200</v>
       </c>
@@ -28033,7 +28337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>21795244</v>
       </c>
@@ -28044,7 +28348,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>21795246</v>
       </c>
@@ -28055,7 +28359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>21795248</v>
       </c>
@@ -28072,7 +28376,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>21795266</v>
       </c>
@@ -28083,7 +28387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>21795257</v>
       </c>
@@ -28094,7 +28398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>21795288</v>
       </c>
@@ -28105,7 +28409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>21793684</v>
       </c>
@@ -28116,7 +28420,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>21795329</v>
       </c>
@@ -28127,7 +28431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>21795335</v>
       </c>
@@ -28138,7 +28442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>21795339</v>
       </c>
@@ -28147,7 +28451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>21795363</v>
       </c>
@@ -28158,7 +28462,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>21795372</v>
       </c>
@@ -28167,7 +28471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>21795379</v>
       </c>
@@ -28181,7 +28485,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>21795403</v>
       </c>
@@ -28190,7 +28494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>21795449</v>
       </c>
@@ -28215,7 +28519,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>21795458</v>
       </c>
@@ -28226,7 +28530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>21795479</v>
       </c>
@@ -28237,7 +28541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>21795722</v>
       </c>
@@ -28246,7 +28550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>21796369</v>
       </c>
@@ -28260,7 +28564,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>21796383</v>
       </c>
@@ -28271,7 +28575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>21796412</v>
       </c>
@@ -28282,7 +28586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>21796429</v>
       </c>
@@ -28293,7 +28597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>21796443</v>
       </c>
@@ -28304,7 +28608,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>21796663</v>
       </c>
@@ -28315,7 +28619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>21797089</v>
       </c>
@@ -28326,7 +28630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>21797293</v>
       </c>
@@ -28337,7 +28641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>21797294</v>
       </c>
@@ -28348,7 +28652,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>21797282</v>
       </c>
@@ -28359,7 +28663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>21796414</v>
       </c>
@@ -28370,7 +28674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>21797325</v>
       </c>
@@ -28381,7 +28685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>21797886</v>
       </c>
@@ -28392,7 +28696,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>21797921</v>
       </c>
@@ -28403,7 +28707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>21797934</v>
       </c>
@@ -28414,7 +28718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>21797967</v>
       </c>
@@ -28428,7 +28732,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>21797972</v>
       </c>
@@ -28445,7 +28749,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>21797986</v>
       </c>
@@ -28456,7 +28760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>21798003</v>
       </c>
@@ -28467,7 +28771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>21798004</v>
       </c>
@@ -28478,7 +28782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>21798040</v>
       </c>
@@ -28487,7 +28791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>21798299</v>
       </c>
@@ -28498,7 +28802,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>21798303</v>
       </c>
@@ -28523,7 +28827,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>21798347</v>
       </c>
@@ -28534,7 +28838,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>21798348</v>
       </c>
@@ -28545,7 +28849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>21798351</v>
       </c>
@@ -28559,7 +28863,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>21798604</v>
       </c>
@@ -28570,7 +28874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>21798611</v>
       </c>
@@ -28581,7 +28885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>21798619</v>
       </c>
@@ -28592,7 +28896,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>21798630</v>
       </c>
@@ -28603,7 +28907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>21798632</v>
       </c>
@@ -28617,7 +28921,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>21798634</v>
       </c>
@@ -28628,7 +28932,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>21798637</v>
       </c>
@@ -28639,7 +28943,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>21798636</v>
       </c>
@@ -28650,7 +28954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>21798638</v>
       </c>
@@ -28661,7 +28965,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>21798639</v>
       </c>
@@ -28672,7 +28976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>21798644</v>
       </c>
@@ -28683,7 +28987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>21798646</v>
       </c>
@@ -28692,7 +28996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>21798647</v>
       </c>
@@ -28703,7 +29007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>21798650</v>
       </c>
@@ -28714,7 +29018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>21798655</v>
       </c>
@@ -28725,7 +29029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>21798658</v>
       </c>
@@ -28736,7 +29040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>21798660</v>
       </c>
@@ -28745,7 +29049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>21798662</v>
       </c>
@@ -28756,7 +29060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>21798663</v>
       </c>
@@ -28767,7 +29071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>21798665</v>
       </c>
@@ -28778,7 +29082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>21798668</v>
       </c>
@@ -28787,7 +29091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>21798671</v>
       </c>
@@ -28798,7 +29102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>21798685</v>
       </c>
@@ -28809,7 +29113,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>21798686</v>
       </c>
@@ -28820,7 +29124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>21798687</v>
       </c>
@@ -28829,7 +29133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>21798689</v>
       </c>
@@ -28840,7 +29144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>21798693</v>
       </c>
@@ -28851,7 +29155,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>21798698</v>
       </c>
@@ -28862,7 +29166,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>21798694</v>
       </c>
@@ -28873,7 +29177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>21798696</v>
       </c>
@@ -28884,7 +29188,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>21798699</v>
       </c>
@@ -28895,7 +29199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>21798704</v>
       </c>
@@ -28906,7 +29210,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>21798706</v>
       </c>
@@ -28920,7 +29224,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>21798708</v>
       </c>
@@ -28931,7 +29235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>21798709</v>
       </c>
@@ -28942,7 +29246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>21798713</v>
       </c>
@@ -28953,7 +29257,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>21798725</v>
       </c>
@@ -28962,7 +29266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>21798726</v>
       </c>
@@ -28973,7 +29277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>21798728</v>
       </c>
@@ -28987,7 +29291,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>21798730</v>
       </c>
@@ -29004,7 +29308,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>21798732</v>
       </c>
@@ -29013,7 +29317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>21798733</v>
       </c>
@@ -29024,7 +29328,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>21798735</v>
       </c>
@@ -29035,7 +29339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>21798736</v>
       </c>
@@ -29049,7 +29353,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>21798739</v>
       </c>
@@ -29058,7 +29362,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>21798743</v>
       </c>
@@ -29069,7 +29373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>21798746</v>
       </c>
@@ -29083,7 +29387,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>21798747</v>
       </c>
@@ -29094,7 +29398,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>21798749</v>
       </c>
@@ -29105,7 +29409,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>21798754</v>
       </c>
@@ -29116,7 +29420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>21798757</v>
       </c>
@@ -29127,7 +29431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>21798759</v>
       </c>
@@ -29138,7 +29442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>21798748</v>
       </c>
@@ -29163,7 +29467,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>21798763</v>
       </c>
@@ -29174,7 +29478,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>21798766</v>
       </c>
@@ -29185,7 +29489,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>21798768</v>
       </c>
@@ -29196,7 +29500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>21798773</v>
       </c>
@@ -29207,7 +29511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>21798770</v>
       </c>
@@ -29221,7 +29525,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>21798774</v>
       </c>
@@ -29232,7 +29536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>21798777</v>
       </c>
@@ -29243,7 +29547,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>21798779</v>
       </c>
@@ -29252,7 +29556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>21798790</v>
       </c>
@@ -29263,7 +29567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>21798789</v>
       </c>
@@ -29274,7 +29578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>21798795</v>
       </c>
@@ -29283,7 +29587,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>21798800</v>
       </c>
@@ -29297,7 +29601,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>21798803</v>
       </c>
@@ -29308,7 +29612,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>21798813</v>
       </c>
@@ -29319,7 +29623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>21798817</v>
       </c>
@@ -29330,7 +29634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>21798827</v>
       </c>
@@ -29341,7 +29645,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>21798831</v>
       </c>
@@ -29352,7 +29656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>21798835</v>
       </c>
@@ -29363,7 +29667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>21798837</v>
       </c>
@@ -29374,7 +29678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>21798844</v>
       </c>
@@ -29385,7 +29689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>21798846</v>
       </c>
@@ -29399,7 +29703,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>21798848</v>
       </c>
@@ -29413,7 +29717,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>21798856</v>
       </c>
@@ -29424,7 +29728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>21798874</v>
       </c>
@@ -29433,7 +29737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>21798875</v>
       </c>
@@ -29444,7 +29748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>21798877</v>
       </c>
@@ -29455,7 +29759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>21798881</v>
       </c>
@@ -29466,7 +29770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>21798883</v>
       </c>
@@ -29477,7 +29781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>21798884</v>
       </c>
@@ -29488,7 +29792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>21798893</v>
       </c>
@@ -29499,7 +29803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>21798900</v>
       </c>
@@ -29513,7 +29817,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>21798905</v>
       </c>
@@ -29524,7 +29828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>21798911</v>
       </c>
@@ -29535,7 +29839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>21798913</v>
       </c>
@@ -29544,7 +29848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>21798922</v>
       </c>
@@ -29555,7 +29859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>21798927</v>
       </c>
@@ -29566,7 +29870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>21798933</v>
       </c>
@@ -29577,7 +29881,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>21798936</v>
       </c>
@@ -29588,7 +29892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>21798938</v>
       </c>
@@ -29602,7 +29906,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>21798962</v>
       </c>
@@ -29613,7 +29917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>21798965</v>
       </c>
@@ -29630,7 +29934,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>21798968</v>
       </c>
@@ -29641,7 +29945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>21798974</v>
       </c>
@@ -29655,7 +29959,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>21798976</v>
       </c>
@@ -29666,7 +29970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>21798979</v>
       </c>
@@ -29677,7 +29981,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>21798995</v>
       </c>
@@ -29688,7 +29992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>21798996</v>
       </c>
@@ -29699,7 +30003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>21799003</v>
       </c>
@@ -29713,7 +30017,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>21799007</v>
       </c>
@@ -29724,7 +30028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>21799020</v>
       </c>
@@ -29735,7 +30039,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>21799045</v>
       </c>
@@ -29746,7 +30050,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>21799046</v>
       </c>
@@ -29757,7 +30061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>21799043</v>
       </c>
@@ -29768,7 +30072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>21799057</v>
       </c>
@@ -29796,7 +30100,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>21799070</v>
       </c>
@@ -29807,7 +30111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>21799075</v>
       </c>
@@ -29818,7 +30122,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>21799076</v>
       </c>
@@ -29829,7 +30133,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>21799091</v>
       </c>
@@ -29843,7 +30147,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>21799100</v>
       </c>
@@ -29854,7 +30158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>21799109</v>
       </c>
@@ -29868,7 +30172,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>21799113</v>
       </c>
@@ -29879,7 +30183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>21799119</v>
       </c>
@@ -29890,7 +30194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>21799121</v>
       </c>
@@ -29901,7 +30205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>21799124</v>
       </c>
@@ -29912,7 +30216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>21799126</v>
       </c>
@@ -29923,7 +30227,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>21799132</v>
       </c>
@@ -29934,7 +30238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>21799164</v>
       </c>
@@ -29948,7 +30252,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>21799168</v>
       </c>
@@ -29959,7 +30263,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>21799177</v>
       </c>
@@ -29970,7 +30274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>21799180</v>
       </c>
@@ -29979,7 +30283,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>21799184</v>
       </c>
@@ -29990,7 +30294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>21799205</v>
       </c>
@@ -30001,7 +30305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>21799225</v>
       </c>
@@ -30018,7 +30322,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>21799233</v>
       </c>
@@ -30027,7 +30331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>21799237</v>
       </c>
@@ -30038,7 +30342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>21799240</v>
       </c>
@@ -30049,7 +30353,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>21799135</v>
       </c>
@@ -30060,7 +30364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>21799238</v>
       </c>
@@ -30071,7 +30375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>21799272</v>
       </c>
@@ -30082,7 +30386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>21799277</v>
       </c>
@@ -30093,7 +30397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>21799279</v>
       </c>
@@ -30107,7 +30411,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>21799289</v>
       </c>
@@ -30118,7 +30422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>21799283</v>
       </c>
@@ -30129,7 +30433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>21799300</v>
       </c>
@@ -30143,7 +30447,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>21799305</v>
       </c>
@@ -30154,7 +30458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>21799312</v>
       </c>
@@ -30165,7 +30469,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>21799314</v>
       </c>
@@ -30176,7 +30480,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>21799316</v>
       </c>
@@ -30187,7 +30491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>21799410</v>
       </c>
@@ -30198,7 +30502,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>21799411</v>
       </c>
@@ -30212,7 +30516,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>21799657</v>
       </c>
@@ -30223,7 +30527,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>21799939</v>
       </c>
@@ -30234,7 +30538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>21800171</v>
       </c>
@@ -30245,7 +30549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>21800662</v>
       </c>
@@ -30256,7 +30560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>21800917</v>
       </c>
@@ -30267,7 +30571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>21800922</v>
       </c>
@@ -30276,7 +30580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>21800926</v>
       </c>
@@ -30290,7 +30594,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>21800920</v>
       </c>
@@ -30299,7 +30603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>21800934</v>
       </c>
@@ -30310,7 +30614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>21800938</v>
       </c>
@@ -30321,7 +30625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>21800982</v>
       </c>
@@ -30332,7 +30636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>21800984</v>
       </c>
@@ -30343,7 +30647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>21800985</v>
       </c>
@@ -30354,7 +30658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>21801027</v>
       </c>
@@ -30368,7 +30672,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>21801068</v>
       </c>
@@ -30379,7 +30683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>21801561</v>
       </c>
@@ -30390,7 +30694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>21801814</v>
       </c>
@@ -30401,7 +30705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>21802171</v>
       </c>
@@ -30415,7 +30719,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>21802174</v>
       </c>
@@ -30426,7 +30730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>21802348</v>
       </c>
@@ -30435,7 +30739,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>21802350</v>
       </c>
@@ -30444,7 +30748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>21802353</v>
       </c>
@@ -30455,7 +30759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>21802611</v>
       </c>
@@ -30466,7 +30770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>21802638</v>
       </c>
@@ -30477,7 +30781,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>21802649</v>
       </c>
@@ -30488,7 +30792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>21802651</v>
       </c>
@@ -30502,7 +30806,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>21802658</v>
       </c>
@@ -30513,7 +30817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>21802659</v>
       </c>
@@ -30524,7 +30828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>21802662</v>
       </c>
@@ -30535,7 +30839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>21802665</v>
       </c>
@@ -30544,7 +30848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>21802666</v>
       </c>
@@ -30555,7 +30859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>21802669</v>
       </c>
@@ -30566,7 +30870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>21803025</v>
       </c>
@@ -30577,7 +30881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>21803494</v>
       </c>
@@ -30588,7 +30892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>21804247</v>
       </c>
@@ -30602,7 +30906,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>21804343</v>
       </c>
@@ -30611,7 +30915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>21804348</v>
       </c>
@@ -30620,7 +30924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>21804364</v>
       </c>
@@ -30631,7 +30935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>21804387</v>
       </c>
@@ -30640,7 +30944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>21804390</v>
       </c>
@@ -30651,7 +30955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>21804391</v>
       </c>
@@ -30665,7 +30969,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>21804392</v>
       </c>
@@ -30676,7 +30980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>21804968</v>
       </c>
@@ -30687,7 +30991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>21805409</v>
       </c>
@@ -30696,7 +31000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>21805701</v>
       </c>
@@ -30707,7 +31011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>21805726</v>
       </c>
@@ -30718,7 +31022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>21805731</v>
       </c>
@@ -30729,7 +31033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>21805733</v>
       </c>
@@ -30740,7 +31044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>21805742</v>
       </c>
@@ -30751,7 +31055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>21805757</v>
       </c>
@@ -30760,7 +31064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>21805776</v>
       </c>
@@ -30771,7 +31075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>21805788</v>
       </c>
@@ -30782,7 +31086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>21805789</v>
       </c>
@@ -30799,7 +31103,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>21805792</v>
       </c>
@@ -30808,7 +31112,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>21806347</v>
       </c>
@@ -30819,7 +31123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>21805412</v>
       </c>
@@ -30830,7 +31134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>21806806</v>
       </c>
@@ -30841,7 +31145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>21807083</v>
       </c>
@@ -30852,7 +31156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>21807411</v>
       </c>
@@ -30863,7 +31167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>21807414</v>
       </c>
@@ -30877,7 +31181,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>21807644</v>
       </c>
@@ -30888,7 +31192,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>21807857</v>
       </c>
@@ -30899,7 +31203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>21808165</v>
       </c>
@@ -30910,7 +31214,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>21808179</v>
       </c>
@@ -30921,7 +31225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>21808500</v>
       </c>
@@ -30932,7 +31236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>21808750</v>
       </c>
@@ -30943,7 +31247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>21808755</v>
       </c>
@@ -30954,7 +31258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>21808983</v>
       </c>
@@ -30965,7 +31269,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>21809359</v>
       </c>
@@ -30976,7 +31280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>21809360</v>
       </c>
@@ -30987,7 +31291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>21809366</v>
       </c>
@@ -30998,7 +31302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>21809376</v>
       </c>
@@ -31009,7 +31313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>21809397</v>
       </c>
@@ -31020,7 +31324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>21809399</v>
       </c>
@@ -31031,7 +31335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>21809948</v>
       </c>
@@ -31042,7 +31346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>21810123</v>
       </c>
@@ -31051,7 +31355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>21810127</v>
       </c>
@@ -31062,7 +31366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>21810196</v>
       </c>
@@ -31076,7 +31380,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>21810650</v>
       </c>
@@ -31087,7 +31391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>21810667</v>
       </c>
@@ -31098,7 +31402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>21810670</v>
       </c>
@@ -31109,7 +31413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>21810677</v>
       </c>
@@ -31120,7 +31424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>21810686</v>
       </c>
@@ -31131,7 +31435,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>21810681</v>
       </c>
@@ -31142,7 +31446,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>21810751</v>
       </c>
@@ -31153,7 +31457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>21810766</v>
       </c>
@@ -31164,7 +31468,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>21810788</v>
       </c>
@@ -31175,7 +31479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>21810861</v>
       </c>
@@ -31186,7 +31490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>21810878</v>
       </c>
@@ -31197,7 +31501,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>21810905</v>
       </c>
@@ -31208,7 +31512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>21810906</v>
       </c>
@@ -31219,7 +31523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>21810916</v>
       </c>
@@ -31230,7 +31534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>21810946</v>
       </c>
@@ -31241,7 +31545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>21811219</v>
       </c>
@@ -31252,7 +31556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>21811246</v>
       </c>
@@ -31263,7 +31567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>21811474</v>
       </c>
@@ -31277,7 +31581,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>21812035</v>
       </c>
@@ -31288,7 +31592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>21814982</v>
       </c>
@@ -31299,7 +31603,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>21816033</v>
       </c>
@@ -31310,7 +31614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>21816770</v>
       </c>
@@ -31321,7 +31625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>21816783</v>
       </c>
@@ -31332,7 +31636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>21816786</v>
       </c>
@@ -31343,7 +31647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>21817040</v>
       </c>
@@ -31354,7 +31658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>21817041</v>
       </c>
@@ -31365,7 +31669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>21817067</v>
       </c>
@@ -31376,7 +31680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>21817069</v>
       </c>
@@ -31387,7 +31691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>21817312</v>
       </c>
@@ -31398,7 +31702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>21817792</v>
       </c>
@@ -31409,7 +31713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>21818030</v>
       </c>
@@ -31420,7 +31724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>21819303</v>
       </c>
@@ -31429,7 +31733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>21820509</v>
       </c>
@@ -31440,7 +31744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>21821452</v>
       </c>
@@ -31451,7 +31755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>21821461</v>
       </c>
@@ -31462,7 +31766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>21821970</v>
       </c>
@@ -31473,7 +31777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>21822225</v>
       </c>
@@ -31484,7 +31788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>21822238</v>
       </c>
@@ -31495,7 +31799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>21822543</v>
       </c>
@@ -31506,7 +31810,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>21823756</v>
       </c>
@@ -31517,7 +31821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>21823781</v>
       </c>
@@ -31528,7 +31832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>21823798</v>
       </c>
@@ -31539,7 +31843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>21823818</v>
       </c>
@@ -31550,7 +31854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>21825330</v>
       </c>
@@ -31561,7 +31865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>21825345</v>
       </c>
@@ -31575,7 +31879,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>21825358</v>
       </c>
@@ -31589,7 +31893,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>21825389</v>
       </c>
@@ -31600,7 +31904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>21825397</v>
       </c>
@@ -31611,7 +31915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>21825406</v>
       </c>
@@ -31622,7 +31926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>21825423</v>
       </c>
@@ -31633,7 +31937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>21825430</v>
       </c>
@@ -31644,7 +31948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>21826945</v>
       </c>
@@ -31655,7 +31959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>21826956</v>
       </c>
@@ -31666,7 +31970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>21826962</v>
       </c>
@@ -31677,7 +31981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>21826991</v>
       </c>
@@ -31688,7 +31992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>21826992</v>
       </c>
@@ -31699,7 +32003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>21827004</v>
       </c>
@@ -31710,7 +32014,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>21827013</v>
       </c>
@@ -31721,7 +32025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>21827808</v>
       </c>
@@ -31732,7 +32036,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>21828314</v>
       </c>
@@ -31743,7 +32047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>21828319</v>
       </c>
@@ -31754,7 +32058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>21828323</v>
       </c>
@@ -31763,7 +32067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>21828328</v>
       </c>
@@ -31774,7 +32078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>21828339</v>
       </c>
@@ -31785,7 +32089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>21828345</v>
       </c>
@@ -31796,7 +32100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>21828348</v>
       </c>
@@ -31807,7 +32111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>21828360</v>
       </c>
@@ -31818,7 +32122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>21829612</v>
       </c>
@@ -31829,7 +32133,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>21830116</v>
       </c>
@@ -31840,7 +32144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>21830691</v>
       </c>
@@ -31851,7 +32155,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>21830703</v>
       </c>
@@ -31860,7 +32164,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>21830713</v>
       </c>
@@ -31871,7 +32175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>21832214</v>
       </c>
@@ -31882,7 +32186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>21832233</v>
       </c>
@@ -31893,7 +32197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>21832234</v>
       </c>
@@ -31907,7 +32211,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>21832482</v>
       </c>
@@ -31918,7 +32222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>21832730</v>
       </c>
@@ -31929,7 +32233,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>21832980</v>
       </c>
@@ -31940,7 +32244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>21833233</v>
       </c>
@@ -31951,7 +32255,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>21833286</v>
       </c>
@@ -31960,7 +32264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>21833356</v>
       </c>
@@ -31971,7 +32275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>21834156</v>
       </c>
@@ -31982,7 +32286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>21834229</v>
       </c>
@@ -31993,7 +32297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>21834235</v>
       </c>
@@ -32004,7 +32308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>21834252</v>
       </c>
@@ -32015,7 +32319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>21834253</v>
       </c>
@@ -32026,7 +32330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>21834255</v>
       </c>
@@ -32037,7 +32341,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>21834580</v>
       </c>
@@ -32048,7 +32352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>21834588</v>
       </c>
@@ -32059,7 +32363,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>21834707</v>
       </c>
@@ -32070,7 +32374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>21807645</v>
       </c>
@@ -32081,7 +32385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>21834779</v>
       </c>
@@ -32092,7 +32396,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>21834796</v>
       </c>
@@ -32103,7 +32407,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>21834808</v>
       </c>
@@ -32114,7 +32418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>21834831</v>
       </c>
@@ -32125,7 +32429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>21834891</v>
       </c>
@@ -32136,7 +32440,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>21834907</v>
       </c>
@@ -32147,7 +32451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>21834996</v>
       </c>
@@ -32158,7 +32462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>21835006</v>
       </c>
@@ -32172,7 +32476,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>21835021</v>
       </c>
@@ -32183,7 +32487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>21835063</v>
       </c>
@@ -32194,7 +32498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>21835088</v>
       </c>
@@ -32206,7 +32510,7 @@
       </c>
       <c r="E848" s="6"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>21835129</v>
       </c>
@@ -32217,7 +32521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>21835157</v>
       </c>
@@ -32228,7 +32532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>21835160</v>
       </c>
@@ -32239,7 +32543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>21835182</v>
       </c>
@@ -32250,7 +32554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>21835210</v>
       </c>
@@ -32259,7 +32563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>21835248</v>
       </c>
@@ -32273,7 +32577,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>21835261</v>
       </c>
@@ -32285,7 +32589,7 @@
       </c>
       <c r="E855" s="6"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>21793808</v>
       </c>
@@ -32296,7 +32600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>21835308</v>
       </c>
@@ -32307,7 +32611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>21835328</v>
       </c>
@@ -32318,7 +32622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>21835365</v>
       </c>
@@ -32329,7 +32633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>21835385</v>
       </c>
@@ -32340,7 +32644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>21835407</v>
       </c>
@@ -32354,7 +32658,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>21835418</v>
       </c>
@@ -32365,7 +32669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>21835427</v>
       </c>
@@ -32376,7 +32680,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>21835439</v>
       </c>
@@ -32390,7 +32694,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>21835515</v>
       </c>
@@ -32401,7 +32705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>21835528</v>
       </c>
@@ -32412,7 +32716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>21835556</v>
       </c>
@@ -32423,7 +32727,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>21835583</v>
       </c>
@@ -32437,7 +32741,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>21835604</v>
       </c>
@@ -32448,7 +32752,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>21835621</v>
       </c>
@@ -32459,7 +32763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>21835669</v>
       </c>
@@ -32468,7 +32772,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>21835714</v>
       </c>
@@ -32479,7 +32783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>21835849</v>
       </c>
@@ -32490,7 +32794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>21835861</v>
       </c>
@@ -32501,7 +32805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>21835867</v>
       </c>
@@ -32512,7 +32816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>21835869</v>
       </c>
@@ -32523,7 +32827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>21835988</v>
       </c>
@@ -32534,7 +32838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>21836888</v>
       </c>
@@ -32545,7 +32849,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>21836911</v>
       </c>
@@ -32556,7 +32860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>21836916</v>
       </c>
@@ -32567,7 +32871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>21836921</v>
       </c>
@@ -32578,7 +32882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>21836922</v>
       </c>
@@ -32589,7 +32893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>21837677</v>
       </c>
@@ -32600,7 +32904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>21838126</v>
       </c>
@@ -32611,7 +32915,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>21838181</v>
       </c>
@@ -32622,7 +32926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>21838552</v>
       </c>
@@ -32633,7 +32937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>21838562</v>
       </c>
@@ -32644,7 +32948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>21838598</v>
       </c>
@@ -32655,7 +32959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>21838722</v>
       </c>
@@ -32666,7 +32970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>21838728</v>
       </c>
@@ -32677,7 +32981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>21838749</v>
       </c>
@@ -32688,7 +32992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>21838753</v>
       </c>
@@ -32697,7 +33001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>21838773</v>
       </c>
@@ -32708,7 +33012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>21838778</v>
       </c>
@@ -32719,7 +33023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>21838792</v>
       </c>
@@ -32730,7 +33034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>21838907</v>
       </c>
@@ -32741,7 +33045,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>21838959</v>
       </c>
@@ -32752,7 +33056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>21838971</v>
       </c>
@@ -32763,7 +33067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>21839001</v>
       </c>
@@ -32774,7 +33078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>21839098</v>
       </c>
@@ -32783,7 +33087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>21839099</v>
       </c>
@@ -32794,7 +33098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>21839268</v>
       </c>
@@ -32805,7 +33109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>21839285</v>
       </c>
@@ -32816,7 +33120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>21839313</v>
       </c>
@@ -32827,7 +33131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>21839320</v>
       </c>
@@ -32836,7 +33140,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>21839431</v>
       </c>
@@ -32847,7 +33151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>21839444</v>
       </c>
@@ -32858,7 +33162,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>21839447</v>
       </c>
@@ -32869,7 +33173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>21839452</v>
       </c>
@@ -32880,7 +33184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>21839469</v>
       </c>
@@ -32889,7 +33193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>21839456</v>
       </c>
@@ -32900,7 +33204,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>21839482</v>
       </c>
@@ -32911,7 +33215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>21839490</v>
       </c>
@@ -32922,7 +33226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>21839798</v>
       </c>
@@ -32933,7 +33237,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>21840400</v>
       </c>
@@ -32942,7 +33246,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>21840651</v>
       </c>
@@ -32951,7 +33255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>21841028</v>
       </c>
@@ -32962,7 +33266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>21841174</v>
       </c>
@@ -32973,7 +33277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>21841181</v>
       </c>
@@ -32984,7 +33288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>21841751</v>
       </c>
@@ -32995,7 +33299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>21842156</v>
       </c>
@@ -33006,7 +33310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>21835824</v>
       </c>
@@ -33017,7 +33321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>21842833</v>
       </c>
@@ -33028,7 +33332,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>21844699</v>
       </c>
@@ -33039,7 +33343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>21844831</v>
       </c>
@@ -33050,7 +33354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>21846083</v>
       </c>
@@ -33061,7 +33365,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>21846518</v>
       </c>
@@ -33072,7 +33376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>21846548</v>
       </c>
@@ -33083,7 +33387,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>21846576</v>
       </c>
@@ -33092,7 +33396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>21846979</v>
       </c>
@@ -33106,7 +33410,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>21846980</v>
       </c>
@@ -33117,7 +33421,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>21846987</v>
       </c>
@@ -33128,7 +33432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>21846997</v>
       </c>
@@ -33139,7 +33443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>21847019</v>
       </c>
@@ -33150,7 +33454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>21847006</v>
       </c>
@@ -33161,7 +33465,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>21847040</v>
       </c>
@@ -33172,7 +33476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>21847054</v>
       </c>
@@ -33183,7 +33487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>21847085</v>
       </c>
@@ -33194,7 +33498,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>21847088</v>
       </c>
@@ -33205,7 +33509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>21847220</v>
       </c>
@@ -33216,7 +33520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>21847238</v>
       </c>
@@ -33227,7 +33531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>21847295</v>
       </c>
@@ -33238,7 +33542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>21847344</v>
       </c>
@@ -33249,7 +33553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>21847457</v>
       </c>
@@ -33260,7 +33564,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>21847527</v>
       </c>
@@ -33271,7 +33575,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>21847587</v>
       </c>
@@ -33282,7 +33586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>21847610</v>
       </c>
@@ -33291,7 +33595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>21847646</v>
       </c>
@@ -33302,7 +33606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>21847645</v>
       </c>
@@ -33313,7 +33617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>21847651</v>
       </c>
@@ -33324,7 +33628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>21847671</v>
       </c>
@@ -33335,7 +33639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>21847674</v>
       </c>
@@ -33346,7 +33650,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>21847676</v>
       </c>
@@ -33357,7 +33661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>21847729</v>
       </c>
@@ -33368,7 +33672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>21847818</v>
       </c>
@@ -33379,7 +33683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>21847823</v>
       </c>
@@ -33393,7 +33697,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>21847879</v>
       </c>
@@ -33418,7 +33722,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>21847886</v>
       </c>
@@ -33429,7 +33733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>21847898</v>
       </c>
@@ -33440,7 +33744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>21847915</v>
       </c>
@@ -33451,7 +33755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>21847970</v>
       </c>
@@ -33465,7 +33769,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>21847989</v>
       </c>
@@ -33476,7 +33780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>21847993</v>
       </c>
@@ -33487,7 +33791,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>21839801</v>
       </c>
@@ -33498,7 +33802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>21848022</v>
       </c>
@@ -33512,7 +33816,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>21848053</v>
       </c>
@@ -33523,7 +33827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>21848102</v>
       </c>
@@ -33537,7 +33841,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>21848132</v>
       </c>
@@ -33548,7 +33852,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>21848150</v>
       </c>
@@ -33557,7 +33861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>21848157</v>
       </c>
@@ -33571,7 +33875,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>21848294</v>
       </c>
@@ -33582,7 +33886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>21848341</v>
       </c>
@@ -33596,7 +33900,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>21848428</v>
       </c>
@@ -33607,7 +33911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>21848828</v>
       </c>
@@ -33618,7 +33922,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>21848865</v>
       </c>
@@ -33629,7 +33933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>21849030</v>
       </c>
@@ -33640,7 +33944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>21849074</v>
       </c>
@@ -33651,7 +33955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>21849095</v>
       </c>
@@ -33662,7 +33966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>21849113</v>
       </c>
@@ -33673,7 +33977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>21849145</v>
       </c>
@@ -33684,7 +33988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>21849195</v>
       </c>
@@ -33695,7 +33999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>21849727</v>
       </c>
@@ -33704,7 +34008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>21850047</v>
       </c>
@@ -33715,7 +34019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>21850069</v>
       </c>
@@ -33726,7 +34030,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>21850083</v>
       </c>
@@ -33737,7 +34041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>21850166</v>
       </c>
@@ -33748,7 +34052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>21850189</v>
       </c>
@@ -33757,7 +34061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>21850196</v>
       </c>
@@ -33771,7 +34075,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>21850279</v>
       </c>
@@ -33782,7 +34086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>21850318</v>
       </c>
@@ -33793,7 +34097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>21850323</v>
       </c>
@@ -33807,7 +34111,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>21850327</v>
       </c>
@@ -33818,7 +34122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>21850380</v>
       </c>
@@ -33829,7 +34133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>21850482</v>
       </c>
@@ -33840,7 +34144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>21850507</v>
       </c>
@@ -33851,7 +34155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>21850902</v>
       </c>
@@ -33862,7 +34166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>21850917</v>
       </c>
@@ -33873,7 +34177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>21851018</v>
       </c>
@@ -33884,7 +34188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>21851140</v>
       </c>
@@ -33895,7 +34199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>21851228</v>
       </c>
@@ -33906,7 +34210,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>21851289</v>
       </c>
@@ -33920,7 +34224,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>21851552</v>
       </c>
@@ -33931,7 +34235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>21851564</v>
       </c>
@@ -33942,7 +34246,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>21851583</v>
       </c>
@@ -33953,7 +34257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>21851613</v>
       </c>
@@ -33964,7 +34268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>21851655</v>
       </c>
@@ -33975,7 +34279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>21851698</v>
       </c>
@@ -33986,7 +34290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>21852228</v>
       </c>
@@ -33997,7 +34301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>21852267</v>
       </c>
@@ -34008,7 +34312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>21852275</v>
       </c>
@@ -34019,7 +34323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>21852649</v>
       </c>
@@ -34030,7 +34334,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>21852671</v>
       </c>
@@ -34041,7 +34345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>21853466</v>
       </c>
@@ -34052,7 +34356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>21854074</v>
       </c>
@@ -34061,7 +34365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>21854111</v>
       </c>
@@ -34072,7 +34376,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>21854289</v>
       </c>
@@ -34083,7 +34387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>21854523</v>
       </c>
@@ -34094,7 +34398,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>21858604</v>
       </c>
@@ -34105,7 +34409,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>21865275</v>
       </c>
@@ -34116,7 +34420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>21866489</v>
       </c>
@@ -34127,7 +34431,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>21866637</v>
       </c>
@@ -34138,7 +34442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>21867759</v>
       </c>
@@ -34147,7 +34451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>21868102</v>
       </c>
@@ -34158,7 +34462,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>21868191</v>
       </c>
@@ -34172,7 +34476,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>21868361</v>
       </c>
@@ -34183,7 +34487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>21869040</v>
       </c>
@@ -34194,7 +34498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>21869473</v>
       </c>
@@ -34205,7 +34509,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>21869567</v>
       </c>
@@ -34216,7 +34520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>21869936</v>
       </c>
@@ -34227,7 +34531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>21869996</v>
       </c>
@@ -34238,7 +34542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>21871330</v>
       </c>
@@ -34249,7 +34553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>21871342</v>
       </c>
@@ -34260,7 +34564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>21871757</v>
       </c>
@@ -34271,7 +34575,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>21871820</v>
       </c>
@@ -34288,7 +34592,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>21871856</v>
       </c>
@@ -34299,7 +34603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>21872004</v>
       </c>
@@ -34316,7 +34620,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>21872035</v>
       </c>
@@ -34327,7 +34631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>21872245</v>
       </c>
@@ -34338,7 +34642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>21872422</v>
       </c>
@@ -34349,7 +34653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>21872543</v>
       </c>
@@ -34360,7 +34664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>21872626</v>
       </c>
@@ -34371,7 +34675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>21872724</v>
       </c>
@@ -34382,7 +34686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>21872752</v>
       </c>
@@ -34393,7 +34697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>21872771</v>
       </c>
@@ -34402,7 +34706,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>21872854</v>
       </c>
@@ -34413,7 +34717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>21872863</v>
       </c>
@@ -34424,7 +34728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>21877466</v>
       </c>
@@ -34435,7 +34739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>21877474</v>
       </c>
@@ -34446,7 +34750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>21877503</v>
       </c>
@@ -34460,7 +34764,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>21877506</v>
       </c>
@@ -34471,7 +34775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>21877521</v>
       </c>
@@ -34482,7 +34786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>21877529</v>
       </c>
@@ -34493,7 +34797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>21879286</v>
       </c>
@@ -34504,7 +34808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>21879739</v>
       </c>
@@ -34515,7 +34819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>21879860</v>
       </c>
@@ -34526,7 +34830,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>21880515</v>
       </c>
@@ -34537,7 +34841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>21882742</v>
       </c>
@@ -34546,7 +34850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>21882975</v>
       </c>
@@ -34557,7 +34861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>21883169</v>
       </c>
@@ -34566,7 +34870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>21884153</v>
       </c>
@@ -34577,7 +34881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>21884417</v>
       </c>
@@ -34588,7 +34892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>21884425</v>
       </c>
@@ -34599,7 +34903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>21884432</v>
       </c>
@@ -34610,7 +34914,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>21884416</v>
       </c>
@@ -34621,7 +34925,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>21884449</v>
       </c>
@@ -34632,7 +34936,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>21886227</v>
       </c>
@@ -34643,7 +34947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>21887881</v>
       </c>
@@ -34654,7 +34958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>21887882</v>
       </c>
@@ -34665,7 +34969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>21887924</v>
       </c>
@@ -34690,7 +34994,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>21887944</v>
       </c>
@@ -34702,7 +35006,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A50:K1072" xr:uid="{CCF8C145-F05D-5E4D-B0ED-4C8CC48B7836}"/>
+  <autoFilter ref="A50:K1072" xr:uid="{CCF8C145-F05D-5E4D-B0ED-4C8CC48B7836}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="702"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
